--- a/links.xlsx
+++ b/links.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="409">
   <si>
     <t>ciudad</t>
   </si>
@@ -28,6 +28,39 @@
     <t>links</t>
   </si>
   <si>
+    <t>link_nocturno</t>
+  </si>
+  <si>
+    <t>link_monumentos</t>
+  </si>
+  <si>
+    <t>link_acuaticos</t>
+  </si>
+  <si>
+    <t>link_museos</t>
+  </si>
+  <si>
+    <t>link_spas</t>
+  </si>
+  <si>
+    <t>link_diversion</t>
+  </si>
+  <si>
+    <t>link_naturaleza</t>
+  </si>
+  <si>
+    <t>vida_nocturna</t>
+  </si>
+  <si>
+    <t>monumentos</t>
+  </si>
+  <si>
+    <t>deportes_agua</t>
+  </si>
+  <si>
+    <t>museos</t>
+  </si>
+  <si>
     <t>Albania-Tirana</t>
   </si>
   <si>
@@ -224,6 +257,990 @@
   </si>
   <si>
     <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c42-Belgrade.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190454-Activities-c20-Vienna.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294448-Activities-c20-Minsk.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294452-Activities-c20-Sofia_Sofia_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189541-Activities-c20-Copenhagen_Zealand.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274873-Activities-c20-Ljubljana_Upper_Carniola_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274958-Activities-c20-Tallinn_Harju_County.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c20-Paris_Ile_de_France.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189400-Activities-c20-Athens_Attica.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g186605-Activities-c20-Dublin_County_Dublin.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c20-Rome_Lazio.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274951-Activities-c20-Vilnius_Vilnius_County.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g295110-Activities-c20-Skopje_Skopje_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294456-Activities-c20-Chisinau_Chisinau_District.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c20-Amsterdam_North_Holland_Province.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189158-Activities-c20-Lisbon_Lisbon_District_Central_Portugal.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c20-Prague_Bohemia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189852-Activities-c20-Stockholm.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c20-Berlin.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g188644-Activities-c20-Brussels.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294450-Activities-c20-Sarajevo_Sarajevo_Canton_Federation_of_Bosnia_and_Herzegovina.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294454-Activities-c20-Zagreb_Central_Croatia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274924-Activities-c20-Bratislava_Bratislava_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189934-Activities-c20-Helsinki_Uusimaa.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274887-Activities-c20-Budapest_Central_Hungary.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189970-Activities-c20-Reykjavik_Capital_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274967-Activities-c20-Riga_Riga_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190340-Activities-c20-Luxembourg.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190328-Activities-c20-Valletta_Island_of_Malta.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190479-Activities-c20-Oslo_Eastern_Norway.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274856-Activities-c20-Warsaw_Mazovia_Province_Central_Poland.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294458-Activities-c20-Bucharest.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294471-Activities-c20-Serbia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c20-Belgrade.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190454-Activities-c47-Vienna.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294448-Activities-c47-Minsk.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294452-Activities-c47-Sofia_Sofia_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189541-Activities-c47-Copenhagen_Zealand.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274873-Activities-c47-Ljubljana_Upper_Carniola_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274958-Activities-c47-Tallinn_Harju_County.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c47-Paris_Ile_de_France.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189400-Activities-c47-Athens_Attica.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g186605-Activities-c47-Dublin_County_Dublin.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c47-Rome_Lazio.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274951-Activities-c47-Vilnius_Vilnius_County.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g295110-Activities-c47-Skopje_Skopje_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294456-Activities-c47-Chisinau_Chisinau_District.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c47-Amsterdam_North_Holland_Province.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189158-Activities-c47-Lisbon_Lisbon_District_Central_Portugal.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c47-Prague_Bohemia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189852-Activities-c47-Stockholm.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c47-Berlin.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g188644-Activities-c47-Brussels.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294450-Activities-c47-Sarajevo_Sarajevo_Canton_Federation_of_Bosnia_and_Herzegovina.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294454-Activities-c47-Zagreb_Central_Croatia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274924-Activities-c47-Bratislava_Bratislava_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189934-Activities-c47-Helsinki_Uusimaa.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274887-Activities-c47-Budapest_Central_Hungary.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189970-Activities-c47-Reykjavik_Capital_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274967-Activities-c47-Riga_Riga_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190340-Activities-c47-Luxembourg.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190328-Activities-c47-Valletta_Island_of_Malta.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190479-Activities-c47-Oslo_Eastern_Norway.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274856-Activities-c47-Warsaw_Mazovia_Province_Central_Poland.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294458-Activities-c47-Bucharest.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294471-Activities-c47-Serbia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c47-Belgrade.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190454-Activities-c55-Vienna.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294448-Activities-c55-Minsk.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294452-Activities-c55-Sofia_Sofia_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189541-Activities-c55-Copenhagen_Zealand.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274873-Activities-c55-Ljubljana_Upper_Carniola_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274958-Activities-c55-Tallinn_Harju_County.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c55-Paris_Ile_de_France.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189400-Activities-c55-Athens_Attica.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g186605-Activities-c55-Dublin_County_Dublin.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c55-Rome_Lazio.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274951-Activities-c55-Vilnius_Vilnius_County.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g295110-Activities-c55-Skopje_Skopje_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294456-Activities-c55-Chisinau_Chisinau_District.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c55-Amsterdam_North_Holland_Province.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189158-Activities-c55-Lisbon_Lisbon_District_Central_Portugal.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c55-Prague_Bohemia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189852-Activities-c55-Stockholm.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c55-Berlin.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g188644-Activities-c55-Brussels.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294450-Activities-c55-Sarajevo_Sarajevo_Canton_Federation_of_Bosnia_and_Herzegovina.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294454-Activities-c55-Zagreb_Central_Croatia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274924-Activities-c55-Bratislava_Bratislava_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189934-Activities-c55-Helsinki_Uusimaa.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274887-Activities-c55-Budapest_Central_Hungary.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189970-Activities-c55-Reykjavik_Capital_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274967-Activities-c55-Riga_Riga_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190340-Activities-c55-Luxembourg.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190328-Activities-c55-Valletta_Island_of_Malta.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190479-Activities-c55-Oslo_Eastern_Norway.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274856-Activities-c55-Warsaw_Mazovia_Province_Central_Poland.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294458-Activities-c55-Bucharest.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294471-Activities-c55-Serbia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c55-Belgrade.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190454-Activities-c49-Vienna.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294448-Activities-c49-Minsk.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294452-Activities-c49-Sofia_Sofia_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189541-Activities-c49-Copenhagen_Zealand.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274873-Activities-c49-Ljubljana_Upper_Carniola_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274958-Activities-c49-Tallinn_Harju_County.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c49-Paris_Ile_de_France.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189400-Activities-c49-Athens_Attica.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g186605-Activities-c49-Dublin_County_Dublin.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c49-Rome_Lazio.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274951-Activities-c49-Vilnius_Vilnius_County.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g295110-Activities-c49-Skopje_Skopje_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294456-Activities-c49-Chisinau_Chisinau_District.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c49-Amsterdam_North_Holland_Province.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189158-Activities-c49-Lisbon_Lisbon_District_Central_Portugal.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c49-Prague_Bohemia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189852-Activities-c49-Stockholm.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c49-Berlin.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g188644-Activities-c49-Brussels.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294450-Activities-c49-Sarajevo_Sarajevo_Canton_Federation_of_Bosnia_and_Herzegovina.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294454-Activities-c49-Zagreb_Central_Croatia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274924-Activities-c49-Bratislava_Bratislava_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189934-Activities-c49-Helsinki_Uusimaa.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274887-Activities-c49-Budapest_Central_Hungary.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189970-Activities-c49-Reykjavik_Capital_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274967-Activities-c49-Riga_Riga_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190340-Activities-c49-Luxembourg.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190328-Activities-c49-Valletta_Island_of_Malta.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190479-Activities-c49-Oslo_Eastern_Norway.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274856-Activities-c49-Warsaw_Mazovia_Province_Central_Poland.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294458-Activities-c49-Bucharest.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294471-Activities-c49-Serbia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c49-Belgrade.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190454-Activities-c40-Vienna.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294448-Activities-c40-Minsk.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294452-Activities-c40-Sofia_Sofia_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189541-Activities-c40-Copenhagen_Zealand.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274873-Activities-c40-Ljubljana_Upper_Carniola_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274958-Activities-c40-Tallinn_Harju_County.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c40-Paris_Ile_de_France.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189400-Activities-c40-Athens_Attica.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g186605-Activities-c40-Dublin_County_Dublin.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c40-Rome_Lazio.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274951-Activities-c40-Vilnius_Vilnius_County.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g295110-Activities-c40-Skopje_Skopje_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294456-Activities-c40-Chisinau_Chisinau_District.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c40-Amsterdam_North_Holland_Province.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189158-Activities-c40-Lisbon_Lisbon_District_Central_Portugal.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c40-Prague_Bohemia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189852-Activities-c40-Stockholm.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c40-Berlin.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g188644-Activities-c40-Brussels.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294450-Activities-c40-Sarajevo_Sarajevo_Canton_Federation_of_Bosnia_and_Herzegovina.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294454-Activities-c40-Zagreb_Central_Croatia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274924-Activities-c40-Bratislava_Bratislava_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189934-Activities-c40-Helsinki_Uusimaa.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274887-Activities-c40-Budapest_Central_Hungary.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189970-Activities-c40-Reykjavik_Capital_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274967-Activities-c40-Riga_Riga_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190340-Activities-c40-Luxembourg.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190328-Activities-c40-Valletta_Island_of_Malta.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190479-Activities-c40-Oslo_Eastern_Norway.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274856-Activities-c40-Warsaw_Mazovia_Province_Central_Poland.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294458-Activities-c40-Bucharest.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294471-Activities-c40-Serbia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c40-Belgrade.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190454-Activities-c56-Vienna.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294448-Activities-c56-Minsk.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294452-Activities-c56-Sofia_Sofia_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189541-Activities-c56-Copenhagen_Zealand.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274873-Activities-c56-Ljubljana_Upper_Carniola_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274958-Activities-c56-Tallinn_Harju_County.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c56-Paris_Ile_de_France.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189400-Activities-c56-Athens_Attica.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g186605-Activities-c56-Dublin_County_Dublin.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c56-Rome_Lazio.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274951-Activities-c56-Vilnius_Vilnius_County.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g295110-Activities-c56-Skopje_Skopje_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294456-Activities-c56-Chisinau_Chisinau_District.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c56-Amsterdam_North_Holland_Province.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189158-Activities-c56-Lisbon_Lisbon_District_Central_Portugal.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c56-Prague_Bohemia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189852-Activities-c56-Stockholm.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c56-Berlin.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g188644-Activities-c56-Brussels.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294450-Activities-c56-Sarajevo_Sarajevo_Canton_Federation_of_Bosnia_and_Herzegovina.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294454-Activities-c56-Zagreb_Central_Croatia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274924-Activities-c56-Bratislava_Bratislava_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189934-Activities-c56-Helsinki_Uusimaa.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274887-Activities-c56-Budapest_Central_Hungary.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189970-Activities-c56-Reykjavik_Capital_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274967-Activities-c56-Riga_Riga_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190340-Activities-c56-Luxembourg.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190328-Activities-c56-Valletta_Island_of_Malta.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190479-Activities-c56-Oslo_Eastern_Norway.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274856-Activities-c56-Warsaw_Mazovia_Province_Central_Poland.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294458-Activities-c56-Bucharest.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294471-Activities-c56-Serbia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c56-Belgrade.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190454-Activities-c57-Vienna.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294448-Activities-c57-Minsk.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294452-Activities-c57-Sofia_Sofia_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189541-Activities-c57-Copenhagen_Zealand.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274873-Activities-c57-Ljubljana_Upper_Carniola_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274958-Activities-c57-Tallinn_Harju_County.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c57-Paris_Ile_de_France.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189400-Activities-c57-Athens_Attica.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g186605-Activities-c57-Dublin_County_Dublin.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c57-Rome_Lazio.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274951-Activities-c57-Vilnius_Vilnius_County.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g295110-Activities-c57-Skopje_Skopje_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294456-Activities-c57-Chisinau_Chisinau_District.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c57-Amsterdam_North_Holland_Province.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189158-Activities-c57-Lisbon_Lisbon_District_Central_Portugal.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c57-Prague_Bohemia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189852-Activities-c57-Stockholm.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c57-Berlin.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g188644-Activities-c57-Brussels.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294450-Activities-c57-Sarajevo_Sarajevo_Canton_Federation_of_Bosnia_and_Herzegovina.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294454-Activities-c57-Zagreb_Central_Croatia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274924-Activities-c57-Bratislava_Bratislava_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189934-Activities-c57-Helsinki_Uusimaa.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274887-Activities-c57-Budapest_Central_Hungary.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g189970-Activities-c57-Reykjavik_Capital_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274967-Activities-c57-Riga_Riga_Region.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190340-Activities-c57-Luxembourg.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190328-Activities-c57-Valletta_Island_of_Malta.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g190479-Activities-c57-Oslo_Eastern_Norway.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g274856-Activities-c57-Warsaw_Mazovia_Province_Central_Poland.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294458-Activities-c57-Bucharest.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294471-Activities-c57-Serbia.html</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c57-Belgrade.html</t>
+  </si>
+  <si>
+    <t>120 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>37 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>168 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>125 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>36 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>52 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>329 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>169 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>212 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>328 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>56 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>21 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>267 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>158 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>404 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>20 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>373 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>107 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>27 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>83 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>61 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>50 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>331 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>54 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>63 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>16 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>7 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>47 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>162 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>102 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>129 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>290 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>68 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>110 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>174 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>67 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>92 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>1.000+ lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>259 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>270 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>928 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>105 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>34 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>35 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>257 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>430 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>582 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>132 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>380 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>238 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>70 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>177 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>242 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>138 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>156 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>197 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>106 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>310 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>79 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>10 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>6 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>5 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>18 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>42 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>9 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>4 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>143 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>44 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>22 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>30 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>59 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>19 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>11 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>118 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>45 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>66 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>75 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>231 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>89 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>81 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>181 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>58 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>12 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>148 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>109 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>62 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>194 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>98 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>25 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>41 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>39 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>116 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>65 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>69 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>72 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>51 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>91 lugares ordenados por favoritos de los viajeros.</t>
   </si>
 </sst>
 </file>
@@ -594,13 +1611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,10 +1630,43 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>7.6</v>
@@ -625,12 +1675,45 @@
         <v>220</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M2" t="s">
+        <v>343</v>
+      </c>
+      <c r="N2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O2" t="s">
+        <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>4.2</v>
@@ -639,12 +1722,45 @@
         <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L3" t="s">
+        <v>313</v>
+      </c>
+      <c r="M3" t="s">
+        <v>344</v>
+      </c>
+      <c r="N3" t="s">
+        <v>372</v>
+      </c>
+      <c r="O3" t="s">
+        <v>386</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>-3.9</v>
@@ -653,12 +1769,45 @@
         <v>1943</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L4" t="s">
+        <v>314</v>
+      </c>
+      <c r="M4" t="s">
+        <v>345</v>
+      </c>
+      <c r="N4" t="s">
+        <v>338</v>
+      </c>
+      <c r="O4" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -667,12 +1816,45 @@
         <v>238</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" t="s">
+        <v>315</v>
+      </c>
+      <c r="M5" t="s">
+        <v>346</v>
+      </c>
+      <c r="N5" t="s">
+        <v>373</v>
+      </c>
+      <c r="O5" t="s">
+        <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>2.2</v>
@@ -681,12 +1863,45 @@
         <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L6" t="s">
+        <v>316</v>
+      </c>
+      <c r="M6" t="s">
+        <v>347</v>
+      </c>
+      <c r="N6" t="s">
+        <v>372</v>
+      </c>
+      <c r="O6" t="s">
+        <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>1.2</v>
@@ -695,12 +1910,45 @@
         <v>321</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M7" t="s">
+        <v>348</v>
+      </c>
+      <c r="N7" t="s">
+        <v>374</v>
+      </c>
+      <c r="O7" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>-6.2</v>
@@ -709,12 +1957,45 @@
         <v>326</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L8" t="s">
+        <v>318</v>
+      </c>
+      <c r="M8" t="s">
+        <v>349</v>
+      </c>
+      <c r="N8" t="s">
+        <v>368</v>
+      </c>
+      <c r="O8" t="s">
+        <v>389</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -723,12 +2004,45 @@
         <v>214</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L9" t="s">
+        <v>319</v>
+      </c>
+      <c r="M9" t="s">
+        <v>350</v>
+      </c>
+      <c r="N9" t="s">
+        <v>329</v>
+      </c>
+      <c r="O9" t="s">
+        <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>12.2</v>
@@ -737,12 +2051,45 @@
         <v>318</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L10" t="s">
+        <v>320</v>
+      </c>
+      <c r="M10" t="s">
+        <v>351</v>
+      </c>
+      <c r="N10" t="s">
+        <v>373</v>
+      </c>
+      <c r="O10" t="s">
+        <v>391</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -751,12 +2098,45 @@
         <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L11" t="s">
+        <v>321</v>
+      </c>
+      <c r="M11" t="s">
+        <v>352</v>
+      </c>
+      <c r="N11" t="s">
+        <v>375</v>
+      </c>
+      <c r="O11" t="s">
+        <v>392</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>9.199999999999999</v>
@@ -765,12 +2145,45 @@
         <v>190</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L12" t="s">
+        <v>322</v>
+      </c>
+      <c r="M12" t="s">
+        <v>353</v>
+      </c>
+      <c r="N12" t="s">
+        <v>376</v>
+      </c>
+      <c r="O12" t="s">
+        <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>-3.9</v>
@@ -779,12 +2192,45 @@
         <v>269</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" t="s">
+        <v>323</v>
+      </c>
+      <c r="M13" t="s">
+        <v>354</v>
+      </c>
+      <c r="N13" t="s">
+        <v>371</v>
+      </c>
+      <c r="O13" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>2.9</v>
@@ -793,12 +2239,45 @@
         <v>380</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L14" t="s">
+        <v>323</v>
+      </c>
+      <c r="M14" t="s">
+        <v>355</v>
+      </c>
+      <c r="N14" t="s">
+        <v>377</v>
+      </c>
+      <c r="O14" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>0.4</v>
@@ -807,12 +2286,45 @@
         <v>370</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L15" t="s">
+        <v>324</v>
+      </c>
+      <c r="M15" t="s">
+        <v>356</v>
+      </c>
+      <c r="N15" t="s">
+        <v>378</v>
+      </c>
+      <c r="O15" t="s">
+        <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>5.7</v>
@@ -821,12 +2333,45 @@
         <v>153</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L16" t="s">
+        <v>325</v>
+      </c>
+      <c r="M16" t="s">
+        <v>357</v>
+      </c>
+      <c r="N16" t="s">
+        <v>365</v>
+      </c>
+      <c r="O16" t="s">
+        <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>13.8</v>
@@ -835,12 +2380,45 @@
         <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L17" t="s">
+        <v>326</v>
+      </c>
+      <c r="M17" t="s">
+        <v>358</v>
+      </c>
+      <c r="N17" t="s">
+        <v>379</v>
+      </c>
+      <c r="O17" t="s">
+        <v>320</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>1.3</v>
@@ -849,12 +2427,45 @@
         <v>286</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L18" t="s">
+        <v>327</v>
+      </c>
+      <c r="M18" t="s">
+        <v>359</v>
+      </c>
+      <c r="N18" t="s">
+        <v>380</v>
+      </c>
+      <c r="O18" t="s">
+        <v>397</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>-2.4</v>
@@ -863,12 +2474,45 @@
         <v>221</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="L19" t="s">
+        <v>328</v>
+      </c>
+      <c r="M19" t="s">
+        <v>360</v>
+      </c>
+      <c r="N19" t="s">
+        <v>371</v>
+      </c>
+      <c r="O19" t="s">
+        <v>398</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>1.9</v>
@@ -877,12 +2521,45 @@
         <v>199</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L20" t="s">
+        <v>329</v>
+      </c>
+      <c r="M20" t="s">
+        <v>361</v>
+      </c>
+      <c r="N20" t="s">
+        <v>376</v>
+      </c>
+      <c r="O20" t="s">
+        <v>399</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>5.8</v>
@@ -891,12 +2568,45 @@
         <v>131</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L21" t="s">
+        <v>330</v>
+      </c>
+      <c r="M21" t="s">
+        <v>362</v>
+      </c>
+      <c r="N21" t="s">
+        <v>376</v>
+      </c>
+      <c r="O21" t="s">
+        <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>2.3</v>
@@ -905,12 +2615,45 @@
         <v>324</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L22" t="s">
+        <v>331</v>
+      </c>
+      <c r="M22" t="s">
+        <v>317</v>
+      </c>
+      <c r="N22" t="s">
+        <v>374</v>
+      </c>
+      <c r="O22" t="s">
+        <v>401</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>2.9</v>
@@ -919,12 +2662,45 @@
         <v>293</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L23" t="s">
+        <v>332</v>
+      </c>
+      <c r="M23" t="s">
+        <v>353</v>
+      </c>
+      <c r="N23" t="s">
+        <v>372</v>
+      </c>
+      <c r="O23" t="s">
+        <v>402</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>2.3</v>
@@ -933,12 +2709,45 @@
         <v>246</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L24" t="s">
+        <v>333</v>
+      </c>
+      <c r="M24" t="s">
+        <v>363</v>
+      </c>
+      <c r="N24" t="s">
+        <v>381</v>
+      </c>
+      <c r="O24" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>-6.7</v>
@@ -947,12 +2756,45 @@
         <v>350</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L25" t="s">
+        <v>334</v>
+      </c>
+      <c r="M25" t="s">
+        <v>364</v>
+      </c>
+      <c r="N25" t="s">
+        <v>336</v>
+      </c>
+      <c r="O25" t="s">
+        <v>403</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>1.2</v>
@@ -961,12 +2803,45 @@
         <v>158</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L26" t="s">
+        <v>335</v>
+      </c>
+      <c r="M26" t="s">
+        <v>339</v>
+      </c>
+      <c r="N26" t="s">
+        <v>382</v>
+      </c>
+      <c r="O26" t="s">
+        <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>1.6</v>
@@ -975,12 +2850,45 @@
         <v>285</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="L27" t="s">
+        <v>336</v>
+      </c>
+      <c r="M27" t="s">
+        <v>341</v>
+      </c>
+      <c r="N27" t="s">
+        <v>381</v>
+      </c>
+      <c r="O27" t="s">
+        <v>404</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>-2</v>
@@ -989,12 +2897,45 @@
         <v>311</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L28" t="s">
+        <v>337</v>
+      </c>
+      <c r="M28" t="s">
+        <v>365</v>
+      </c>
+      <c r="N28" t="s">
+        <v>373</v>
+      </c>
+      <c r="O28" t="s">
+        <v>375</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>3.7</v>
@@ -1003,12 +2944,45 @@
         <v>140</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L29" t="s">
+        <v>338</v>
+      </c>
+      <c r="M29" t="s">
+        <v>345</v>
+      </c>
+      <c r="N29" t="s">
+        <v>383</v>
+      </c>
+      <c r="O29" t="s">
+        <v>323</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>13.5</v>
@@ -1017,12 +2991,45 @@
         <v>216</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L30" t="s">
+        <v>339</v>
+      </c>
+      <c r="M30" t="s">
+        <v>366</v>
+      </c>
+      <c r="N30" t="s">
+        <v>337</v>
+      </c>
+      <c r="O30" t="s">
+        <v>405</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>-4.8</v>
@@ -1031,12 +3038,45 @@
         <v>233</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="L31" t="s">
+        <v>340</v>
+      </c>
+      <c r="M31" t="s">
+        <v>367</v>
+      </c>
+      <c r="N31" t="s">
+        <v>372</v>
+      </c>
+      <c r="O31" t="s">
+        <v>406</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>-0.9</v>
@@ -1045,12 +3085,45 @@
         <v>162</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="L32" t="s">
+        <v>341</v>
+      </c>
+      <c r="M32" t="s">
+        <v>368</v>
+      </c>
+      <c r="N32" t="s">
+        <v>384</v>
+      </c>
+      <c r="O32" t="s">
+        <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>2.5</v>
@@ -1059,12 +3132,45 @@
         <v>186</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="L33" t="s">
+        <v>325</v>
+      </c>
+      <c r="M33" t="s">
+        <v>369</v>
+      </c>
+      <c r="N33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O33" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -1073,44 +3179,308 @@
         <v>360</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L34" t="s">
+        <v>342</v>
+      </c>
+      <c r="M34" t="s">
+        <v>370</v>
+      </c>
+      <c r="N34" t="s">
+        <v>373</v>
+      </c>
+      <c r="O34" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId4"/>
+    <hyperlink ref="H2" r:id="rId5"/>
+    <hyperlink ref="I2" r:id="rId6"/>
+    <hyperlink ref="J2" r:id="rId7"/>
+    <hyperlink ref="K2" r:id="rId8"/>
+    <hyperlink ref="D3" r:id="rId9"/>
+    <hyperlink ref="E3" r:id="rId10"/>
+    <hyperlink ref="F3" r:id="rId11"/>
+    <hyperlink ref="G3" r:id="rId12"/>
+    <hyperlink ref="H3" r:id="rId13"/>
+    <hyperlink ref="I3" r:id="rId14"/>
+    <hyperlink ref="J3" r:id="rId15"/>
+    <hyperlink ref="K3" r:id="rId16"/>
+    <hyperlink ref="D4" r:id="rId17"/>
+    <hyperlink ref="E4" r:id="rId18"/>
+    <hyperlink ref="F4" r:id="rId19"/>
+    <hyperlink ref="G4" r:id="rId20"/>
+    <hyperlink ref="H4" r:id="rId21"/>
+    <hyperlink ref="I4" r:id="rId22"/>
+    <hyperlink ref="J4" r:id="rId23"/>
+    <hyperlink ref="K4" r:id="rId24"/>
+    <hyperlink ref="D5" r:id="rId25"/>
+    <hyperlink ref="E5" r:id="rId26"/>
+    <hyperlink ref="F5" r:id="rId27"/>
+    <hyperlink ref="G5" r:id="rId28"/>
+    <hyperlink ref="H5" r:id="rId29"/>
+    <hyperlink ref="I5" r:id="rId30"/>
+    <hyperlink ref="J5" r:id="rId31"/>
+    <hyperlink ref="K5" r:id="rId32"/>
+    <hyperlink ref="D6" r:id="rId33"/>
+    <hyperlink ref="E6" r:id="rId34"/>
+    <hyperlink ref="F6" r:id="rId35"/>
+    <hyperlink ref="G6" r:id="rId36"/>
+    <hyperlink ref="H6" r:id="rId37"/>
+    <hyperlink ref="I6" r:id="rId38"/>
+    <hyperlink ref="J6" r:id="rId39"/>
+    <hyperlink ref="K6" r:id="rId40"/>
+    <hyperlink ref="D7" r:id="rId41"/>
+    <hyperlink ref="E7" r:id="rId42"/>
+    <hyperlink ref="F7" r:id="rId43"/>
+    <hyperlink ref="G7" r:id="rId44"/>
+    <hyperlink ref="H7" r:id="rId45"/>
+    <hyperlink ref="I7" r:id="rId46"/>
+    <hyperlink ref="J7" r:id="rId47"/>
+    <hyperlink ref="K7" r:id="rId48"/>
+    <hyperlink ref="D8" r:id="rId49"/>
+    <hyperlink ref="E8" r:id="rId50"/>
+    <hyperlink ref="F8" r:id="rId51"/>
+    <hyperlink ref="G8" r:id="rId52"/>
+    <hyperlink ref="H8" r:id="rId53"/>
+    <hyperlink ref="I8" r:id="rId54"/>
+    <hyperlink ref="J8" r:id="rId55"/>
+    <hyperlink ref="K8" r:id="rId56"/>
+    <hyperlink ref="D9" r:id="rId57"/>
+    <hyperlink ref="E9" r:id="rId58"/>
+    <hyperlink ref="F9" r:id="rId59"/>
+    <hyperlink ref="G9" r:id="rId60"/>
+    <hyperlink ref="H9" r:id="rId61"/>
+    <hyperlink ref="I9" r:id="rId62"/>
+    <hyperlink ref="J9" r:id="rId63"/>
+    <hyperlink ref="K9" r:id="rId64"/>
+    <hyperlink ref="D10" r:id="rId65"/>
+    <hyperlink ref="E10" r:id="rId66"/>
+    <hyperlink ref="F10" r:id="rId67"/>
+    <hyperlink ref="G10" r:id="rId68"/>
+    <hyperlink ref="H10" r:id="rId69"/>
+    <hyperlink ref="I10" r:id="rId70"/>
+    <hyperlink ref="J10" r:id="rId71"/>
+    <hyperlink ref="K10" r:id="rId72"/>
+    <hyperlink ref="D11" r:id="rId73"/>
+    <hyperlink ref="E11" r:id="rId74"/>
+    <hyperlink ref="F11" r:id="rId75"/>
+    <hyperlink ref="G11" r:id="rId76"/>
+    <hyperlink ref="H11" r:id="rId77"/>
+    <hyperlink ref="I11" r:id="rId78"/>
+    <hyperlink ref="J11" r:id="rId79"/>
+    <hyperlink ref="K11" r:id="rId80"/>
+    <hyperlink ref="D12" r:id="rId81"/>
+    <hyperlink ref="E12" r:id="rId82"/>
+    <hyperlink ref="F12" r:id="rId83"/>
+    <hyperlink ref="G12" r:id="rId84"/>
+    <hyperlink ref="H12" r:id="rId85"/>
+    <hyperlink ref="I12" r:id="rId86"/>
+    <hyperlink ref="J12" r:id="rId87"/>
+    <hyperlink ref="K12" r:id="rId88"/>
+    <hyperlink ref="D13" r:id="rId89"/>
+    <hyperlink ref="E13" r:id="rId90"/>
+    <hyperlink ref="F13" r:id="rId91"/>
+    <hyperlink ref="G13" r:id="rId92"/>
+    <hyperlink ref="H13" r:id="rId93"/>
+    <hyperlink ref="I13" r:id="rId94"/>
+    <hyperlink ref="J13" r:id="rId95"/>
+    <hyperlink ref="K13" r:id="rId96"/>
+    <hyperlink ref="D14" r:id="rId97"/>
+    <hyperlink ref="E14" r:id="rId98"/>
+    <hyperlink ref="F14" r:id="rId99"/>
+    <hyperlink ref="G14" r:id="rId100"/>
+    <hyperlink ref="H14" r:id="rId101"/>
+    <hyperlink ref="I14" r:id="rId102"/>
+    <hyperlink ref="J14" r:id="rId103"/>
+    <hyperlink ref="K14" r:id="rId104"/>
+    <hyperlink ref="D15" r:id="rId105"/>
+    <hyperlink ref="E15" r:id="rId106"/>
+    <hyperlink ref="F15" r:id="rId107"/>
+    <hyperlink ref="G15" r:id="rId108"/>
+    <hyperlink ref="H15" r:id="rId109"/>
+    <hyperlink ref="I15" r:id="rId110"/>
+    <hyperlink ref="J15" r:id="rId111"/>
+    <hyperlink ref="K15" r:id="rId112"/>
+    <hyperlink ref="D16" r:id="rId113"/>
+    <hyperlink ref="E16" r:id="rId114"/>
+    <hyperlink ref="F16" r:id="rId115"/>
+    <hyperlink ref="G16" r:id="rId116"/>
+    <hyperlink ref="H16" r:id="rId117"/>
+    <hyperlink ref="I16" r:id="rId118"/>
+    <hyperlink ref="J16" r:id="rId119"/>
+    <hyperlink ref="K16" r:id="rId120"/>
+    <hyperlink ref="D17" r:id="rId121"/>
+    <hyperlink ref="E17" r:id="rId122"/>
+    <hyperlink ref="F17" r:id="rId123"/>
+    <hyperlink ref="G17" r:id="rId124"/>
+    <hyperlink ref="H17" r:id="rId125"/>
+    <hyperlink ref="I17" r:id="rId126"/>
+    <hyperlink ref="J17" r:id="rId127"/>
+    <hyperlink ref="K17" r:id="rId128"/>
+    <hyperlink ref="D18" r:id="rId129"/>
+    <hyperlink ref="E18" r:id="rId130"/>
+    <hyperlink ref="F18" r:id="rId131"/>
+    <hyperlink ref="G18" r:id="rId132"/>
+    <hyperlink ref="H18" r:id="rId133"/>
+    <hyperlink ref="I18" r:id="rId134"/>
+    <hyperlink ref="J18" r:id="rId135"/>
+    <hyperlink ref="K18" r:id="rId136"/>
+    <hyperlink ref="D19" r:id="rId137"/>
+    <hyperlink ref="E19" r:id="rId138"/>
+    <hyperlink ref="F19" r:id="rId139"/>
+    <hyperlink ref="G19" r:id="rId140"/>
+    <hyperlink ref="H19" r:id="rId141"/>
+    <hyperlink ref="I19" r:id="rId142"/>
+    <hyperlink ref="J19" r:id="rId143"/>
+    <hyperlink ref="K19" r:id="rId144"/>
+    <hyperlink ref="D20" r:id="rId145"/>
+    <hyperlink ref="E20" r:id="rId146"/>
+    <hyperlink ref="F20" r:id="rId147"/>
+    <hyperlink ref="G20" r:id="rId148"/>
+    <hyperlink ref="H20" r:id="rId149"/>
+    <hyperlink ref="I20" r:id="rId150"/>
+    <hyperlink ref="J20" r:id="rId151"/>
+    <hyperlink ref="K20" r:id="rId152"/>
+    <hyperlink ref="D21" r:id="rId153"/>
+    <hyperlink ref="E21" r:id="rId154"/>
+    <hyperlink ref="F21" r:id="rId155"/>
+    <hyperlink ref="G21" r:id="rId156"/>
+    <hyperlink ref="H21" r:id="rId157"/>
+    <hyperlink ref="I21" r:id="rId158"/>
+    <hyperlink ref="J21" r:id="rId159"/>
+    <hyperlink ref="K21" r:id="rId160"/>
+    <hyperlink ref="D22" r:id="rId161"/>
+    <hyperlink ref="E22" r:id="rId162"/>
+    <hyperlink ref="F22" r:id="rId163"/>
+    <hyperlink ref="G22" r:id="rId164"/>
+    <hyperlink ref="H22" r:id="rId165"/>
+    <hyperlink ref="I22" r:id="rId166"/>
+    <hyperlink ref="J22" r:id="rId167"/>
+    <hyperlink ref="K22" r:id="rId168"/>
+    <hyperlink ref="D23" r:id="rId169"/>
+    <hyperlink ref="E23" r:id="rId170"/>
+    <hyperlink ref="F23" r:id="rId171"/>
+    <hyperlink ref="G23" r:id="rId172"/>
+    <hyperlink ref="H23" r:id="rId173"/>
+    <hyperlink ref="I23" r:id="rId174"/>
+    <hyperlink ref="J23" r:id="rId175"/>
+    <hyperlink ref="K23" r:id="rId176"/>
+    <hyperlink ref="D24" r:id="rId177"/>
+    <hyperlink ref="E24" r:id="rId178"/>
+    <hyperlink ref="F24" r:id="rId179"/>
+    <hyperlink ref="G24" r:id="rId180"/>
+    <hyperlink ref="H24" r:id="rId181"/>
+    <hyperlink ref="I24" r:id="rId182"/>
+    <hyperlink ref="J24" r:id="rId183"/>
+    <hyperlink ref="K24" r:id="rId184"/>
+    <hyperlink ref="D25" r:id="rId185"/>
+    <hyperlink ref="E25" r:id="rId186"/>
+    <hyperlink ref="F25" r:id="rId187"/>
+    <hyperlink ref="G25" r:id="rId188"/>
+    <hyperlink ref="H25" r:id="rId189"/>
+    <hyperlink ref="I25" r:id="rId190"/>
+    <hyperlink ref="J25" r:id="rId191"/>
+    <hyperlink ref="K25" r:id="rId192"/>
+    <hyperlink ref="D26" r:id="rId193"/>
+    <hyperlink ref="E26" r:id="rId194"/>
+    <hyperlink ref="F26" r:id="rId195"/>
+    <hyperlink ref="G26" r:id="rId196"/>
+    <hyperlink ref="H26" r:id="rId197"/>
+    <hyperlink ref="I26" r:id="rId198"/>
+    <hyperlink ref="J26" r:id="rId199"/>
+    <hyperlink ref="K26" r:id="rId200"/>
+    <hyperlink ref="D27" r:id="rId201"/>
+    <hyperlink ref="E27" r:id="rId202"/>
+    <hyperlink ref="F27" r:id="rId203"/>
+    <hyperlink ref="G27" r:id="rId204"/>
+    <hyperlink ref="H27" r:id="rId205"/>
+    <hyperlink ref="I27" r:id="rId206"/>
+    <hyperlink ref="J27" r:id="rId207"/>
+    <hyperlink ref="K27" r:id="rId208"/>
+    <hyperlink ref="D28" r:id="rId209"/>
+    <hyperlink ref="E28" r:id="rId210"/>
+    <hyperlink ref="F28" r:id="rId211"/>
+    <hyperlink ref="G28" r:id="rId212"/>
+    <hyperlink ref="H28" r:id="rId213"/>
+    <hyperlink ref="I28" r:id="rId214"/>
+    <hyperlink ref="J28" r:id="rId215"/>
+    <hyperlink ref="K28" r:id="rId216"/>
+    <hyperlink ref="D29" r:id="rId217"/>
+    <hyperlink ref="E29" r:id="rId218"/>
+    <hyperlink ref="F29" r:id="rId219"/>
+    <hyperlink ref="G29" r:id="rId220"/>
+    <hyperlink ref="H29" r:id="rId221"/>
+    <hyperlink ref="I29" r:id="rId222"/>
+    <hyperlink ref="J29" r:id="rId223"/>
+    <hyperlink ref="K29" r:id="rId224"/>
+    <hyperlink ref="D30" r:id="rId225"/>
+    <hyperlink ref="E30" r:id="rId226"/>
+    <hyperlink ref="F30" r:id="rId227"/>
+    <hyperlink ref="G30" r:id="rId228"/>
+    <hyperlink ref="H30" r:id="rId229"/>
+    <hyperlink ref="I30" r:id="rId230"/>
+    <hyperlink ref="J30" r:id="rId231"/>
+    <hyperlink ref="K30" r:id="rId232"/>
+    <hyperlink ref="D31" r:id="rId233"/>
+    <hyperlink ref="E31" r:id="rId234"/>
+    <hyperlink ref="F31" r:id="rId235"/>
+    <hyperlink ref="G31" r:id="rId236"/>
+    <hyperlink ref="H31" r:id="rId237"/>
+    <hyperlink ref="I31" r:id="rId238"/>
+    <hyperlink ref="J31" r:id="rId239"/>
+    <hyperlink ref="K31" r:id="rId240"/>
+    <hyperlink ref="D32" r:id="rId241"/>
+    <hyperlink ref="E32" r:id="rId242"/>
+    <hyperlink ref="F32" r:id="rId243"/>
+    <hyperlink ref="G32" r:id="rId244"/>
+    <hyperlink ref="H32" r:id="rId245"/>
+    <hyperlink ref="I32" r:id="rId246"/>
+    <hyperlink ref="J32" r:id="rId247"/>
+    <hyperlink ref="K32" r:id="rId248"/>
+    <hyperlink ref="D33" r:id="rId249"/>
+    <hyperlink ref="E33" r:id="rId250"/>
+    <hyperlink ref="F33" r:id="rId251"/>
+    <hyperlink ref="G33" r:id="rId252"/>
+    <hyperlink ref="H33" r:id="rId253"/>
+    <hyperlink ref="I33" r:id="rId254"/>
+    <hyperlink ref="J33" r:id="rId255"/>
+    <hyperlink ref="K33" r:id="rId256"/>
+    <hyperlink ref="D34" r:id="rId257"/>
+    <hyperlink ref="E34" r:id="rId258"/>
+    <hyperlink ref="F34" r:id="rId259"/>
+    <hyperlink ref="G34" r:id="rId260"/>
+    <hyperlink ref="H34" r:id="rId261"/>
+    <hyperlink ref="I34" r:id="rId262"/>
+    <hyperlink ref="J34" r:id="rId263"/>
+    <hyperlink ref="K34" r:id="rId264"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/links.xlsx
+++ b/links.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="444">
   <si>
     <t>ciudad</t>
   </si>
@@ -61,6 +61,15 @@
     <t>museos</t>
   </si>
   <si>
+    <t>spas</t>
+  </si>
+  <si>
+    <t>diversion</t>
+  </si>
+  <si>
+    <t>naturaleza</t>
+  </si>
+  <si>
     <t>Albania-Tirana</t>
   </si>
   <si>
@@ -1241,6 +1250,102 @@
   </si>
   <si>
     <t>91 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>24 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>23 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>303 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>184 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>38 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>13 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>88 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>77 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>136 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>111 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>17 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>117 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>2 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>60 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>76 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>228 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>135 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>122 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>57 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>253 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>46 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>173 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>80 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>26 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>104 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>84 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>48 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>8 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>55 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>29 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>33 lugares ordenados por favoritos de los viajeros.</t>
+  </si>
+  <si>
+    <t>40 lugares ordenados por favoritos de los viajeros.</t>
   </si>
 </sst>
 </file>
@@ -1611,13 +1716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1663,10 +1768,19 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>7.6</v>
@@ -1675,45 +1789,54 @@
         <v>220</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N2" t="s">
+        <v>374</v>
+      </c>
+      <c r="O2" t="s">
+        <v>388</v>
+      </c>
+      <c r="P2" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q2" t="s">
         <v>371</v>
       </c>
-      <c r="O2" t="s">
-        <v>385</v>
+      <c r="R2" t="s">
+        <v>438</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>4.2</v>
@@ -1722,45 +1845,54 @@
         <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="O3" t="s">
-        <v>386</v>
+        <v>389</v>
+      </c>
+      <c r="P3" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>407</v>
+      </c>
+      <c r="R3" t="s">
+        <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>-3.9</v>
@@ -1769,45 +1901,54 @@
         <v>1943</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="O4" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="P4" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>426</v>
+      </c>
+      <c r="R4" t="s">
+        <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1816,45 +1957,54 @@
         <v>238</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="N5" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="O5" t="s">
-        <v>387</v>
+        <v>390</v>
+      </c>
+      <c r="P5" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>396</v>
+      </c>
+      <c r="R5" t="s">
+        <v>438</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>2.2</v>
@@ -1863,45 +2013,54 @@
         <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M6" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="N6" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="O6" t="s">
-        <v>381</v>
+        <v>384</v>
+      </c>
+      <c r="P6" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>358</v>
+      </c>
+      <c r="R6" t="s">
+        <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>1.2</v>
@@ -1910,45 +2069,54 @@
         <v>321</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O7" t="s">
-        <v>388</v>
+        <v>391</v>
+      </c>
+      <c r="P7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>385</v>
+      </c>
+      <c r="R7" t="s">
+        <v>403</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>-6.2</v>
@@ -1957,45 +2125,54 @@
         <v>326</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M8" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="N8" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="O8" t="s">
-        <v>389</v>
+        <v>392</v>
+      </c>
+      <c r="P8" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>427</v>
+      </c>
+      <c r="R8" t="s">
+        <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -2004,45 +2181,54 @@
         <v>214</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M9" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O9" t="s">
-        <v>390</v>
+        <v>393</v>
+      </c>
+      <c r="P9" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>419</v>
+      </c>
+      <c r="R9" t="s">
+        <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>12.2</v>
@@ -2051,45 +2237,54 @@
         <v>318</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N10" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="O10" t="s">
-        <v>391</v>
+        <v>394</v>
+      </c>
+      <c r="P10" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>409</v>
+      </c>
+      <c r="R10" t="s">
+        <v>396</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -2098,45 +2293,54 @@
         <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L11" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M11" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N11" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="O11" t="s">
-        <v>392</v>
+        <v>395</v>
+      </c>
+      <c r="P11" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>428</v>
+      </c>
+      <c r="R11" t="s">
+        <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>9.199999999999999</v>
@@ -2145,45 +2349,54 @@
         <v>190</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M12" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O12" t="s">
-        <v>393</v>
+        <v>396</v>
+      </c>
+      <c r="P12" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>342</v>
+      </c>
+      <c r="R12" t="s">
+        <v>397</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>-3.9</v>
@@ -2192,45 +2405,54 @@
         <v>269</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L13" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M13" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N13" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="O13" t="s">
-        <v>394</v>
+        <v>397</v>
+      </c>
+      <c r="P13" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>417</v>
+      </c>
+      <c r="R13" t="s">
+        <v>439</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>2.9</v>
@@ -2239,45 +2461,54 @@
         <v>380</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L14" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M14" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="N14" t="s">
+        <v>380</v>
+      </c>
+      <c r="O14" t="s">
+        <v>397</v>
+      </c>
+      <c r="P14" t="s">
         <v>377</v>
       </c>
-      <c r="O14" t="s">
-        <v>394</v>
+      <c r="Q14" t="s">
+        <v>386</v>
+      </c>
+      <c r="R14" t="s">
+        <v>387</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>0.4</v>
@@ -2286,45 +2517,54 @@
         <v>370</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L15" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M15" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N15" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="O15" t="s">
-        <v>395</v>
+        <v>398</v>
+      </c>
+      <c r="P15" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>429</v>
+      </c>
+      <c r="R15" t="s">
+        <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>5.7</v>
@@ -2333,45 +2573,54 @@
         <v>153</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L16" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M16" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="N16" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="O16" t="s">
-        <v>396</v>
+        <v>399</v>
+      </c>
+      <c r="P16" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>430</v>
+      </c>
+      <c r="R16" t="s">
+        <v>440</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>13.8</v>
@@ -2380,45 +2629,54 @@
         <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L17" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M17" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N17" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O17" t="s">
-        <v>320</v>
+        <v>323</v>
+      </c>
+      <c r="P17" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>431</v>
+      </c>
+      <c r="R17" t="s">
+        <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>1.3</v>
@@ -2427,45 +2685,54 @@
         <v>286</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M18" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="N18" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O18" t="s">
-        <v>397</v>
+        <v>400</v>
+      </c>
+      <c r="P18" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>320</v>
+      </c>
+      <c r="R18" t="s">
+        <v>409</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>-2.4</v>
@@ -2474,45 +2741,54 @@
         <v>221</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L19" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M19" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N19" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="O19" t="s">
-        <v>398</v>
+        <v>401</v>
+      </c>
+      <c r="P19" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>345</v>
+      </c>
+      <c r="R19" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>1.9</v>
@@ -2521,45 +2797,54 @@
         <v>199</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L20" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M20" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="N20" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O20" t="s">
-        <v>399</v>
+        <v>402</v>
+      </c>
+      <c r="P20" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>410</v>
+      </c>
+      <c r="R20" t="s">
+        <v>441</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>5.8</v>
@@ -2568,45 +2853,54 @@
         <v>131</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L21" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M21" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="N21" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O21" t="s">
-        <v>400</v>
+        <v>403</v>
+      </c>
+      <c r="P21" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>340</v>
+      </c>
+      <c r="R21" t="s">
+        <v>379</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>2.3</v>
@@ -2615,45 +2909,54 @@
         <v>324</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L22" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M22" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="N22" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O22" t="s">
-        <v>401</v>
+        <v>404</v>
+      </c>
+      <c r="P22" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>432</v>
+      </c>
+      <c r="R22" t="s">
+        <v>340</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>2.9</v>
@@ -2662,45 +2965,54 @@
         <v>293</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L23" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M23" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N23" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="O23" t="s">
-        <v>402</v>
+        <v>405</v>
+      </c>
+      <c r="P23" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>350</v>
+      </c>
+      <c r="R23" t="s">
+        <v>442</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>2.3</v>
@@ -2709,45 +3021,54 @@
         <v>246</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L24" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M24" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N24" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="O24" t="s">
-        <v>382</v>
+        <v>385</v>
+      </c>
+      <c r="P24" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>325</v>
+      </c>
+      <c r="R24" t="s">
+        <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>-6.7</v>
@@ -2756,45 +3077,54 @@
         <v>350</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L25" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M25" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N25" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="O25" t="s">
-        <v>403</v>
+        <v>406</v>
+      </c>
+      <c r="P25" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>433</v>
+      </c>
+      <c r="R25" t="s">
+        <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>1.2</v>
@@ -2803,45 +3133,54 @@
         <v>158</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L26" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M26" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="N26" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="O26" t="s">
-        <v>402</v>
+        <v>405</v>
+      </c>
+      <c r="P26" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>333</v>
+      </c>
+      <c r="R26" t="s">
+        <v>330</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>1.6</v>
@@ -2850,45 +3189,54 @@
         <v>285</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M27" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="N27" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="O27" t="s">
-        <v>404</v>
+        <v>407</v>
+      </c>
+      <c r="P27" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>434</v>
+      </c>
+      <c r="R27" t="s">
+        <v>386</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>-2</v>
@@ -2897,45 +3245,54 @@
         <v>311</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L28" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M28" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N28" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="O28" t="s">
-        <v>375</v>
+        <v>378</v>
+      </c>
+      <c r="P28" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>435</v>
+      </c>
+      <c r="R28" t="s">
+        <v>378</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>3.7</v>
@@ -2944,45 +3301,54 @@
         <v>140</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L29" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M29" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N29" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="O29" t="s">
-        <v>323</v>
+        <v>326</v>
+      </c>
+      <c r="P29" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>380</v>
+      </c>
+      <c r="R29" t="s">
+        <v>380</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B30">
         <v>13.5</v>
@@ -2991,45 +3357,54 @@
         <v>216</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M30" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="N30" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="O30" t="s">
-        <v>405</v>
+        <v>408</v>
+      </c>
+      <c r="P30" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>404</v>
+      </c>
+      <c r="R30" t="s">
+        <v>325</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>-4.8</v>
@@ -3038,45 +3413,54 @@
         <v>233</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M31" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="N31" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="O31" t="s">
-        <v>406</v>
+        <v>409</v>
+      </c>
+      <c r="P31" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>436</v>
+      </c>
+      <c r="R31" t="s">
+        <v>443</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B32">
         <v>-0.9</v>
@@ -3085,45 +3469,54 @@
         <v>162</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L32" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M32" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="N32" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="O32" t="s">
-        <v>407</v>
+        <v>410</v>
+      </c>
+      <c r="P32" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>437</v>
+      </c>
+      <c r="R32" t="s">
+        <v>435</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <v>2.5</v>
@@ -3132,45 +3525,54 @@
         <v>186</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M33" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="N33" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="O33" t="s">
-        <v>408</v>
+        <v>411</v>
+      </c>
+      <c r="P33" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>335</v>
+      </c>
+      <c r="R33" t="s">
+        <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -3179,40 +3581,49 @@
         <v>360</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s">
+        <v>345</v>
+      </c>
+      <c r="M34" t="s">
+        <v>373</v>
+      </c>
+      <c r="N34" t="s">
+        <v>376</v>
+      </c>
+      <c r="O34" t="s">
         <v>342</v>
       </c>
-      <c r="M34" t="s">
-        <v>370</v>
-      </c>
-      <c r="N34" t="s">
-        <v>373</v>
-      </c>
-      <c r="O34" t="s">
-        <v>339</v>
+      <c r="P34" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>438</v>
+      </c>
+      <c r="R34" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/links.xlsx
+++ b/links.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silsi\apuntes_clase\PROYECTO-FINAL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629452E5-1EDF-4E52-919E-7FC2BFABB375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>ciudad</t>
   </si>
@@ -70,102 +64,6 @@
     <t>naturaleza</t>
   </si>
   <si>
-    <t>Tirana</t>
-  </si>
-  <si>
-    <t>Viena</t>
-  </si>
-  <si>
-    <t>Minsk</t>
-  </si>
-  <si>
-    <t>Sofia</t>
-  </si>
-  <si>
-    <t>Copenhague</t>
-  </si>
-  <si>
-    <t>Ljubljana</t>
-  </si>
-  <si>
-    <t>Tallin</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Atenas</t>
-  </si>
-  <si>
-    <t>Dublin</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Vilna</t>
-  </si>
-  <si>
-    <t>Skopje</t>
-  </si>
-  <si>
-    <t>Chisinau</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>Lisboa</t>
-  </si>
-  <si>
-    <t>Praga</t>
-  </si>
-  <si>
-    <t>Estocolmo</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Bruselas</t>
-  </si>
-  <si>
-    <t>Sarajevo</t>
-  </si>
-  <si>
-    <t>Zagreb</t>
-  </si>
-  <si>
-    <t>Bratislava</t>
-  </si>
-  <si>
-    <t>Helsinki</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>Reykjavik</t>
-  </si>
-  <si>
-    <t>Luxemburgo</t>
-  </si>
-  <si>
-    <t>La valeta</t>
-  </si>
-  <si>
-    <t>Oslo</t>
-  </si>
-  <si>
-    <t>Varsovia</t>
-  </si>
-  <si>
-    <t>Bucarest</t>
-  </si>
-  <si>
-    <t>Belgrado</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.es/Attractions-g294446-Activities-c42-Tirana_Tirana_County.html</t>
   </si>
   <si>
@@ -956,16 +854,13 @@
   </si>
   <si>
     <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c57-Belgrade.html</t>
-  </si>
-  <si>
-    <t>Riga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,24 +931,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1095,7 +982,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1127,27 +1014,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1179,24 +1048,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1372,16 +1223,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1431,33 +1280,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="J2">
         <v>57</v>
@@ -1481,33 +1330,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="J3">
         <v>119</v>
@@ -1531,33 +1380,33 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="J4">
         <v>36</v>
@@ -1581,33 +1430,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="J5">
         <v>106</v>
@@ -1631,33 +1480,33 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="J6">
         <v>125</v>
@@ -1681,33 +1530,33 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="J7">
         <v>54</v>
@@ -1731,33 +1580,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="J8">
         <v>52</v>
@@ -1781,33 +1630,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="J9">
         <v>329</v>
@@ -1831,33 +1680,33 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="J10">
         <v>169</v>
@@ -1881,33 +1730,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="J11">
         <v>212</v>
@@ -1931,33 +1780,33 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="J12">
         <v>327</v>
@@ -1981,33 +1830,33 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="J13">
         <v>56</v>
@@ -2031,33 +1880,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="J14">
         <v>21</v>
@@ -2081,33 +1930,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="J15">
         <v>21</v>
@@ -2131,33 +1980,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="J16">
         <v>381</v>
@@ -2181,33 +2030,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="J17">
         <v>157</v>
@@ -2231,33 +2080,33 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="J18">
         <v>404</v>
@@ -2281,33 +2130,33 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="J19">
         <v>20</v>
@@ -2331,33 +2180,33 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="J20">
         <v>372</v>
@@ -2381,33 +2230,33 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="J21">
         <v>107</v>
@@ -2431,33 +2280,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="J22">
         <v>27</v>
@@ -2481,33 +2330,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="J23">
         <v>83</v>
@@ -2531,33 +2380,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="J24">
         <v>61</v>
@@ -2581,33 +2430,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="J25">
         <v>50</v>
@@ -2631,33 +2480,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="J26">
         <v>213</v>
@@ -2681,33 +2530,33 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="J27">
         <v>40</v>
@@ -2731,33 +2580,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>312</v>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="J28">
         <v>63</v>
@@ -2781,33 +2630,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>42</v>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="J29">
         <v>16</v>
@@ -2831,33 +2680,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>43</v>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="J30">
         <v>7</v>
@@ -2881,33 +2730,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>44</v>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="J31">
         <v>48</v>
@@ -2931,33 +2780,33 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>45</v>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="J32">
         <v>93</v>
@@ -2981,33 +2830,33 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>46</v>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="J33">
         <v>103</v>
@@ -3031,33 +2880,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>47</v>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="J34">
         <v>129</v>
@@ -3083,270 +2932,270 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G3" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H3" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I3" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B4" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E4" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F4" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G4" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="H4" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I4" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B5" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C5" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D5" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E5" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="F5" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G5" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H5" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I5" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B6" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C6" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D6" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E6" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F6" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G6" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H6" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I6" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B7" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C7" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D7" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E7" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F7" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G7" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="H7" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I7" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B8" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C8" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D8" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E8" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="F8" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G8" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="H8" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I8" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B9" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C9" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D9" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E9" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F9" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G9" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H9" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I9" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B10" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C10" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D10" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E10" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="F10" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="G10" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="H10" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="I10" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B11" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C11" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D11" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E11" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="F11" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="G11" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="H11" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="I11" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B12" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C12" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D12" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E12" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="F12" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G12" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="H12" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="I12" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B13" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C13" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D13" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E13" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="F13" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="G13" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="H13" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="I13" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B14" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C14" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D14" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E14" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="F14" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="G14" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="H14" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="I14" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B15" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C15" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D15" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E15" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="F15" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="G15" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="H15" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="I15" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B16" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C16" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D16" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E16" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="F16" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="G16" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="H16" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="I16" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B17" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="C17" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D17" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E17" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="F17" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="G17" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="H17" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="I17" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B18" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="C18" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D18" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E18" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="F18" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="G18" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="H18" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="I18" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B19" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="C19" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D19" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="E19" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="F19" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G19" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="H19" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="I19" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B20" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="C20" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D20" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E20" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="F20" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="G20" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="H20" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="I20" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B21" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="C21" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D21" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="E21" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="F21" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="G21" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="H21" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="I21" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B22" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="C22" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D22" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E22" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="F22" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="G22" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="H22" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="I22" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B23" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="C23" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D23" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E23" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="F23" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="G23" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="H23" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="I23" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B24" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="C24" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="D24" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E24" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="F24" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="G24" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="H24" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="I24" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B25" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="C25" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D25" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E25" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="F25" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="G25" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="H25" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="I25" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B26" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="C26" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D26" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E26" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="F26" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="G26" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="H26" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="I26" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B27" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="C27" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="D27" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="E27" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="F27" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="G27" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="H27" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="I27" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B28" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="C28" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="D28" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E28" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="F28" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="G28" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="H28" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="I28" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B29" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="C29" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="D29" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E29" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="F29" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="G29" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="H29" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="I29" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B30" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="C30" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="D30" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E30" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="F30" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="G30" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="H30" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="I30" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B31" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="C31" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="D31" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E31" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="F31" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="G31" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="H31" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="I31" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B32" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="C32" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="D32" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E32" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="F32" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="G32" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="H32" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="I32" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B33" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="C33" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="D33" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E33" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="F33" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="G33" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="H33" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="I33" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B34" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="C34" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="D34" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E34" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="F34" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="G34" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="H34" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="I34" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId5"/>
+    <hyperlink ref="G2" r:id="rId6"/>
+    <hyperlink ref="H2" r:id="rId7"/>
+    <hyperlink ref="I2" r:id="rId8"/>
+    <hyperlink ref="B3" r:id="rId9"/>
+    <hyperlink ref="C3" r:id="rId10"/>
+    <hyperlink ref="D3" r:id="rId11"/>
+    <hyperlink ref="E3" r:id="rId12"/>
+    <hyperlink ref="F3" r:id="rId13"/>
+    <hyperlink ref="G3" r:id="rId14"/>
+    <hyperlink ref="H3" r:id="rId15"/>
+    <hyperlink ref="I3" r:id="rId16"/>
+    <hyperlink ref="B4" r:id="rId17"/>
+    <hyperlink ref="C4" r:id="rId18"/>
+    <hyperlink ref="D4" r:id="rId19"/>
+    <hyperlink ref="E4" r:id="rId20"/>
+    <hyperlink ref="F4" r:id="rId21"/>
+    <hyperlink ref="G4" r:id="rId22"/>
+    <hyperlink ref="H4" r:id="rId23"/>
+    <hyperlink ref="I4" r:id="rId24"/>
+    <hyperlink ref="B5" r:id="rId25"/>
+    <hyperlink ref="C5" r:id="rId26"/>
+    <hyperlink ref="D5" r:id="rId27"/>
+    <hyperlink ref="E5" r:id="rId28"/>
+    <hyperlink ref="F5" r:id="rId29"/>
+    <hyperlink ref="G5" r:id="rId30"/>
+    <hyperlink ref="H5" r:id="rId31"/>
+    <hyperlink ref="I5" r:id="rId32"/>
+    <hyperlink ref="B6" r:id="rId33"/>
+    <hyperlink ref="C6" r:id="rId34"/>
+    <hyperlink ref="D6" r:id="rId35"/>
+    <hyperlink ref="E6" r:id="rId36"/>
+    <hyperlink ref="F6" r:id="rId37"/>
+    <hyperlink ref="G6" r:id="rId38"/>
+    <hyperlink ref="H6" r:id="rId39"/>
+    <hyperlink ref="I6" r:id="rId40"/>
+    <hyperlink ref="B7" r:id="rId41"/>
+    <hyperlink ref="C7" r:id="rId42"/>
+    <hyperlink ref="D7" r:id="rId43"/>
+    <hyperlink ref="E7" r:id="rId44"/>
+    <hyperlink ref="F7" r:id="rId45"/>
+    <hyperlink ref="G7" r:id="rId46"/>
+    <hyperlink ref="H7" r:id="rId47"/>
+    <hyperlink ref="I7" r:id="rId48"/>
+    <hyperlink ref="B8" r:id="rId49"/>
+    <hyperlink ref="C8" r:id="rId50"/>
+    <hyperlink ref="D8" r:id="rId51"/>
+    <hyperlink ref="E8" r:id="rId52"/>
+    <hyperlink ref="F8" r:id="rId53"/>
+    <hyperlink ref="G8" r:id="rId54"/>
+    <hyperlink ref="H8" r:id="rId55"/>
+    <hyperlink ref="I8" r:id="rId56"/>
+    <hyperlink ref="B9" r:id="rId57"/>
+    <hyperlink ref="C9" r:id="rId58"/>
+    <hyperlink ref="D9" r:id="rId59"/>
+    <hyperlink ref="E9" r:id="rId60"/>
+    <hyperlink ref="F9" r:id="rId61"/>
+    <hyperlink ref="G9" r:id="rId62"/>
+    <hyperlink ref="H9" r:id="rId63"/>
+    <hyperlink ref="I9" r:id="rId64"/>
+    <hyperlink ref="B10" r:id="rId65"/>
+    <hyperlink ref="C10" r:id="rId66"/>
+    <hyperlink ref="D10" r:id="rId67"/>
+    <hyperlink ref="E10" r:id="rId68"/>
+    <hyperlink ref="F10" r:id="rId69"/>
+    <hyperlink ref="G10" r:id="rId70"/>
+    <hyperlink ref="H10" r:id="rId71"/>
+    <hyperlink ref="I10" r:id="rId72"/>
+    <hyperlink ref="B11" r:id="rId73"/>
+    <hyperlink ref="C11" r:id="rId74"/>
+    <hyperlink ref="D11" r:id="rId75"/>
+    <hyperlink ref="E11" r:id="rId76"/>
+    <hyperlink ref="F11" r:id="rId77"/>
+    <hyperlink ref="G11" r:id="rId78"/>
+    <hyperlink ref="H11" r:id="rId79"/>
+    <hyperlink ref="I11" r:id="rId80"/>
+    <hyperlink ref="B12" r:id="rId81"/>
+    <hyperlink ref="C12" r:id="rId82"/>
+    <hyperlink ref="D12" r:id="rId83"/>
+    <hyperlink ref="E12" r:id="rId84"/>
+    <hyperlink ref="F12" r:id="rId85"/>
+    <hyperlink ref="G12" r:id="rId86"/>
+    <hyperlink ref="H12" r:id="rId87"/>
+    <hyperlink ref="I12" r:id="rId88"/>
+    <hyperlink ref="B13" r:id="rId89"/>
+    <hyperlink ref="C13" r:id="rId90"/>
+    <hyperlink ref="D13" r:id="rId91"/>
+    <hyperlink ref="E13" r:id="rId92"/>
+    <hyperlink ref="F13" r:id="rId93"/>
+    <hyperlink ref="G13" r:id="rId94"/>
+    <hyperlink ref="H13" r:id="rId95"/>
+    <hyperlink ref="I13" r:id="rId96"/>
+    <hyperlink ref="B14" r:id="rId97"/>
+    <hyperlink ref="C14" r:id="rId98"/>
+    <hyperlink ref="D14" r:id="rId99"/>
+    <hyperlink ref="E14" r:id="rId100"/>
+    <hyperlink ref="F14" r:id="rId101"/>
+    <hyperlink ref="G14" r:id="rId102"/>
+    <hyperlink ref="H14" r:id="rId103"/>
+    <hyperlink ref="I14" r:id="rId104"/>
+    <hyperlink ref="B15" r:id="rId105"/>
+    <hyperlink ref="C15" r:id="rId106"/>
+    <hyperlink ref="D15" r:id="rId107"/>
+    <hyperlink ref="E15" r:id="rId108"/>
+    <hyperlink ref="F15" r:id="rId109"/>
+    <hyperlink ref="G15" r:id="rId110"/>
+    <hyperlink ref="H15" r:id="rId111"/>
+    <hyperlink ref="I15" r:id="rId112"/>
+    <hyperlink ref="B16" r:id="rId113"/>
+    <hyperlink ref="C16" r:id="rId114"/>
+    <hyperlink ref="D16" r:id="rId115"/>
+    <hyperlink ref="E16" r:id="rId116"/>
+    <hyperlink ref="F16" r:id="rId117"/>
+    <hyperlink ref="G16" r:id="rId118"/>
+    <hyperlink ref="H16" r:id="rId119"/>
+    <hyperlink ref="I16" r:id="rId120"/>
+    <hyperlink ref="B17" r:id="rId121"/>
+    <hyperlink ref="C17" r:id="rId122"/>
+    <hyperlink ref="D17" r:id="rId123"/>
+    <hyperlink ref="E17" r:id="rId124"/>
+    <hyperlink ref="F17" r:id="rId125"/>
+    <hyperlink ref="G17" r:id="rId126"/>
+    <hyperlink ref="H17" r:id="rId127"/>
+    <hyperlink ref="I17" r:id="rId128"/>
+    <hyperlink ref="B18" r:id="rId129"/>
+    <hyperlink ref="C18" r:id="rId130"/>
+    <hyperlink ref="D18" r:id="rId131"/>
+    <hyperlink ref="E18" r:id="rId132"/>
+    <hyperlink ref="F18" r:id="rId133"/>
+    <hyperlink ref="G18" r:id="rId134"/>
+    <hyperlink ref="H18" r:id="rId135"/>
+    <hyperlink ref="I18" r:id="rId136"/>
+    <hyperlink ref="B19" r:id="rId137"/>
+    <hyperlink ref="C19" r:id="rId138"/>
+    <hyperlink ref="D19" r:id="rId139"/>
+    <hyperlink ref="E19" r:id="rId140"/>
+    <hyperlink ref="F19" r:id="rId141"/>
+    <hyperlink ref="G19" r:id="rId142"/>
+    <hyperlink ref="H19" r:id="rId143"/>
+    <hyperlink ref="I19" r:id="rId144"/>
+    <hyperlink ref="B20" r:id="rId145"/>
+    <hyperlink ref="C20" r:id="rId146"/>
+    <hyperlink ref="D20" r:id="rId147"/>
+    <hyperlink ref="E20" r:id="rId148"/>
+    <hyperlink ref="F20" r:id="rId149"/>
+    <hyperlink ref="G20" r:id="rId150"/>
+    <hyperlink ref="H20" r:id="rId151"/>
+    <hyperlink ref="I20" r:id="rId152"/>
+    <hyperlink ref="B21" r:id="rId153"/>
+    <hyperlink ref="C21" r:id="rId154"/>
+    <hyperlink ref="D21" r:id="rId155"/>
+    <hyperlink ref="E21" r:id="rId156"/>
+    <hyperlink ref="F21" r:id="rId157"/>
+    <hyperlink ref="G21" r:id="rId158"/>
+    <hyperlink ref="H21" r:id="rId159"/>
+    <hyperlink ref="I21" r:id="rId160"/>
+    <hyperlink ref="B22" r:id="rId161"/>
+    <hyperlink ref="C22" r:id="rId162"/>
+    <hyperlink ref="D22" r:id="rId163"/>
+    <hyperlink ref="E22" r:id="rId164"/>
+    <hyperlink ref="F22" r:id="rId165"/>
+    <hyperlink ref="G22" r:id="rId166"/>
+    <hyperlink ref="H22" r:id="rId167"/>
+    <hyperlink ref="I22" r:id="rId168"/>
+    <hyperlink ref="B23" r:id="rId169"/>
+    <hyperlink ref="C23" r:id="rId170"/>
+    <hyperlink ref="D23" r:id="rId171"/>
+    <hyperlink ref="E23" r:id="rId172"/>
+    <hyperlink ref="F23" r:id="rId173"/>
+    <hyperlink ref="G23" r:id="rId174"/>
+    <hyperlink ref="H23" r:id="rId175"/>
+    <hyperlink ref="I23" r:id="rId176"/>
+    <hyperlink ref="B24" r:id="rId177"/>
+    <hyperlink ref="C24" r:id="rId178"/>
+    <hyperlink ref="D24" r:id="rId179"/>
+    <hyperlink ref="E24" r:id="rId180"/>
+    <hyperlink ref="F24" r:id="rId181"/>
+    <hyperlink ref="G24" r:id="rId182"/>
+    <hyperlink ref="H24" r:id="rId183"/>
+    <hyperlink ref="I24" r:id="rId184"/>
+    <hyperlink ref="B25" r:id="rId185"/>
+    <hyperlink ref="C25" r:id="rId186"/>
+    <hyperlink ref="D25" r:id="rId187"/>
+    <hyperlink ref="E25" r:id="rId188"/>
+    <hyperlink ref="F25" r:id="rId189"/>
+    <hyperlink ref="G25" r:id="rId190"/>
+    <hyperlink ref="H25" r:id="rId191"/>
+    <hyperlink ref="I25" r:id="rId192"/>
+    <hyperlink ref="B26" r:id="rId193"/>
+    <hyperlink ref="C26" r:id="rId194"/>
+    <hyperlink ref="D26" r:id="rId195"/>
+    <hyperlink ref="E26" r:id="rId196"/>
+    <hyperlink ref="F26" r:id="rId197"/>
+    <hyperlink ref="G26" r:id="rId198"/>
+    <hyperlink ref="H26" r:id="rId199"/>
+    <hyperlink ref="I26" r:id="rId200"/>
+    <hyperlink ref="B27" r:id="rId201"/>
+    <hyperlink ref="C27" r:id="rId202"/>
+    <hyperlink ref="D27" r:id="rId203"/>
+    <hyperlink ref="E27" r:id="rId204"/>
+    <hyperlink ref="F27" r:id="rId205"/>
+    <hyperlink ref="G27" r:id="rId206"/>
+    <hyperlink ref="H27" r:id="rId207"/>
+    <hyperlink ref="I27" r:id="rId208"/>
+    <hyperlink ref="B28" r:id="rId209"/>
+    <hyperlink ref="C28" r:id="rId210"/>
+    <hyperlink ref="D28" r:id="rId211"/>
+    <hyperlink ref="E28" r:id="rId212"/>
+    <hyperlink ref="F28" r:id="rId213"/>
+    <hyperlink ref="G28" r:id="rId214"/>
+    <hyperlink ref="H28" r:id="rId215"/>
+    <hyperlink ref="I28" r:id="rId216"/>
+    <hyperlink ref="B29" r:id="rId217"/>
+    <hyperlink ref="C29" r:id="rId218"/>
+    <hyperlink ref="D29" r:id="rId219"/>
+    <hyperlink ref="E29" r:id="rId220"/>
+    <hyperlink ref="F29" r:id="rId221"/>
+    <hyperlink ref="G29" r:id="rId222"/>
+    <hyperlink ref="H29" r:id="rId223"/>
+    <hyperlink ref="I29" r:id="rId224"/>
+    <hyperlink ref="B30" r:id="rId225"/>
+    <hyperlink ref="C30" r:id="rId226"/>
+    <hyperlink ref="D30" r:id="rId227"/>
+    <hyperlink ref="E30" r:id="rId228"/>
+    <hyperlink ref="F30" r:id="rId229"/>
+    <hyperlink ref="G30" r:id="rId230"/>
+    <hyperlink ref="H30" r:id="rId231"/>
+    <hyperlink ref="I30" r:id="rId232"/>
+    <hyperlink ref="B31" r:id="rId233"/>
+    <hyperlink ref="C31" r:id="rId234"/>
+    <hyperlink ref="D31" r:id="rId235"/>
+    <hyperlink ref="E31" r:id="rId236"/>
+    <hyperlink ref="F31" r:id="rId237"/>
+    <hyperlink ref="G31" r:id="rId238"/>
+    <hyperlink ref="H31" r:id="rId239"/>
+    <hyperlink ref="I31" r:id="rId240"/>
+    <hyperlink ref="B32" r:id="rId241"/>
+    <hyperlink ref="C32" r:id="rId242"/>
+    <hyperlink ref="D32" r:id="rId243"/>
+    <hyperlink ref="E32" r:id="rId244"/>
+    <hyperlink ref="F32" r:id="rId245"/>
+    <hyperlink ref="G32" r:id="rId246"/>
+    <hyperlink ref="H32" r:id="rId247"/>
+    <hyperlink ref="I32" r:id="rId248"/>
+    <hyperlink ref="B33" r:id="rId249"/>
+    <hyperlink ref="C33" r:id="rId250"/>
+    <hyperlink ref="D33" r:id="rId251"/>
+    <hyperlink ref="E33" r:id="rId252"/>
+    <hyperlink ref="F33" r:id="rId253"/>
+    <hyperlink ref="G33" r:id="rId254"/>
+    <hyperlink ref="H33" r:id="rId255"/>
+    <hyperlink ref="I33" r:id="rId256"/>
+    <hyperlink ref="B34" r:id="rId257"/>
+    <hyperlink ref="C34" r:id="rId258"/>
+    <hyperlink ref="D34" r:id="rId259"/>
+    <hyperlink ref="E34" r:id="rId260"/>
+    <hyperlink ref="F34" r:id="rId261"/>
+    <hyperlink ref="G34" r:id="rId262"/>
+    <hyperlink ref="H34" r:id="rId263"/>
+    <hyperlink ref="I34" r:id="rId264"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/links.xlsx
+++ b/links.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>ciudad</t>
   </si>
@@ -64,6 +64,9 @@
     <t>naturaleza</t>
   </si>
   <si>
+    <t>palabras</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.es/Attractions-g294446-Activities-c42-Tirana_Tirana_County.html</t>
   </si>
   <si>
@@ -854,6 +857,105 @@
   </si>
   <si>
     <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c57-Belgrade.html</t>
+  </si>
+  <si>
+    <t>{'Skanderbeg Square': 8, 'Et`hem Bey Mosque': 12, 'Orthodox Autocephalous Church of Albania': 16, 'Skanderbeg Statue': 1, 'Clock Tower': 19, 'Rruga Murat Toptani': 11, "Tanners' Bridge": 10, 'Peace Bell': 9, 'Kapllan Pasha’s Tomb': 6, 'Saint Paul Cathedral': 11, 'Enver Hoxha Pyramid': 1, 'Marie': 16, 'Great mosque of Tirana': 12, 'Unknown Partisan Monument': 7, 'Fortress of Justinian': 3, 'Postbllok - Checkpoint Monument': 1, 'Bektashi World Centre': 16, 'TID Tower': 17, 'Reja "The Cloud"': 1, 'Blloku': 9, 'Polytechnic University of Tirana': 3, 'Qemal Stafa Stadium': 18, 'Friendship Monument': 5, 'Independence Monument': 9, 'Fan Noli statue': 10, 'Mosaic of Tirana': 2, 'Baitul Awwal Mosque': 19, 'Xhura Mosque': 17, 'Pomnik Fryderyka Chopina': 15, 'Selman Stermasi Stadium': 4}</t>
+  </si>
+  <si>
+    <t>{'Palacio de Schönbrunn': 9, 'Historic Center of Vienna': 12, 'Catedral de San Esteban': 10, 'Belvedere Museum': 1, 'Schonbrunner Gardens': 4, 'Rathaus': 2, 'State Hall of the Austrian National Library': 17, 'Peterskirche': 8, 'Plaza de San Esteban (Stephansplatz)': 14, 'Rathausplatz': 5, 'Cementerio Central (Zentralfriedhof)': 9, 'Volksgarten': 17, 'Ringstrasse': 13, 'Museo KunstHausWien': 17, 'Hundertwasserhaus': 11, 'Casa de la musica': 17, 'Graben and Kohlmarkt': 20, 'Kahlenberg': 3, 'Karlskirche': 5, 'Imperial Crypt': 16, 'Church of the Jesuits': 19, 'Kirche am Steinhof': 3, 'Danube Tower': 8, 'Votivkirche': 13, 'Michaelerplatz': 20, 'Österreichisches Parlament': 9, 'Maria Theresia Denkmal': 15, 'MAK - Austrian Museum of Applied Arts/Contemporary Art': 1, 'Wiener Riesenrad': 16, 'Mariahilfer Strasse': 6}</t>
+  </si>
+  <si>
+    <t>{'Church of Saints Simon and Helena': 3, 'Island of Tears': 1, 'Victory Square': 15, 'Upper City': 10, 'Monument to Fallen Jewish People on March 2, 1942': 17, 'Minsk-Arena Complex': 20, 'Holy Spirit Cathedral': 11, 'Minsk Gates': 19, 'Independence Square, Minsk': 5, 'Svislach River Embankment': 5, 'Loshitskiy Park': 18, 'Central Botanical Garden of the National Academy of Sciences of Belarus': 3, 'Minsk Railway station': 9, 'Trinity Hill': 20, 'Archcathedral Holy Name of the Blessed Virgin Mary': 13, 'Minsk City Hall': 11, 'Sculpture': 2, 'Church of All Saints': 5, 'Fountain of Independence': 19, 'Zero Kilometr of Belarus': 11, 'Observation Deck of National Library of Belarus': 9, 'Graffiti Street': 9, 'Saint Elisabeth Convent': 12, 'Crying Guardian Angel': 20, "Paul's Cathedral": 6, 'Liberty Square': 12, 'Gallery Slavutyya Maistry': 5, 'Mary Magdalene': 12, 'Chizhovka Arena': 2, 'Oktyabrskaya Square': 12}</t>
+  </si>
+  <si>
+    <t>{'Iglesia de Alexander Nevski': 8, 'Vitosha Boulevard': 18, 'Iglesia Rusa de San Nicolás': 19, 'Iglesia de Boyana': 8, 'The Rotunda Church of St George': 3, 'Saint Sofia Church': 12, 'St Nedelya Church': 12, 'Sofia Synagogue': 10, 'National Palace of Culture Congress Centre': 4, 'Amphitheatre of Serdica': 20, 'Former Bulgarian Communist Party Headquarters': 10, 'Banya Bashi Mosque': 12, 'Church of St Petka of the Saddlers': 2, 'Sofia University Saint Kliment Ohridski': 3, 'Statue of Tsar Alexander II': 11, 'Sveti Sedmochislenitsi Church': 14, 'The Bells (Kambanite)': 16, 'Soviet Army Monument': 19, 'Monument to the Deity All-Holy Sofia': 12, 'Statue of Slaveikovs': 13, 'Slaveikov Square': 5, 'Dragalevtsi Monastery': 18, 'Ancient Serdica Archaeological Complex': 2, 'The Presidency Building': 11, 'Monument to the Unknown Warrior': 20, 'National Assembly of the Republic of Bulgaria': 16, 'Boyana Village': 1, 'Saint Nikolai Sofiyski': 11, 'Snail Home': 7, 'Mineral water springs': 14}</t>
+  </si>
+  <si>
+    <t>{'Nyhavn': 2, 'Rosenborg Castle': 7, "Our Saviour's Church": 14, 'Rundetårn': 12, 'Museo Nacional': 14, 'Palacio de Christiansborg': 5, 'Copenhagen Opera House': 16, 'Palacio de Amalienborg': 19, 'Kastellet': 13, 'Frederiks Kirke (Marmorkirken)': 5, 'Strøget': 8, 'The Little Mermaid': 10, 'Copenhagen City Hall': 14, 'Gefionspringvandet': 18, 'Grundtvig Church (Grundtvigs Kirke)': 9, 'Frederiksberg Slot': 15, 'Christiania': 13, 'Assistens Cemetery': 19, 'Copenhagen Central Station': 16, 'Thorvaldsens Museum': 4, 'Visit Carlsberg Brand Store': 12, 'Church of Our Lady - Copenhagen Cathedral': 6, 'Krigsmuseet': 14, "Alban's Church": 6, 'Islands Brygge': 3, 'Copenhagen Stock Exchange': 8, 'Gråbrødretorv': 13, 'Andersen Statue': 16, "Changing of her Majesty's guard at Amalienborg Castle": 16, 'Radhuspladsen': 16}</t>
+  </si>
+  <si>
+    <t>{'Ljubljana Old Town': 17, 'Puente Triple': 13, 'Plaza Preseren': 5, 'Catedral de San Nicolás': 2, 'Puente de los Dragones': 20, 'The Ljubljana Castle': 17, 'Cankarjevo Nabrežje': 20, 'Plecnik House': 7, 'Metelkova': 17, 'Franciscan Church (Frančiškanska cerkev)': 19, 'Vodnik Square (Vodnikov trg)': 8, 'Cyril and Methodius Orthodox Church': 13, 'Skyscraper (Nebotičnik)': 15, 'Old Square (Stari trg)': 18, 'Gornji Trg': 19, 'Mestni Trg': 1, 'Town Hall (Magistrat)': 7, "Shoemaker's Bridge (Cevljarski Most)": 20, "Butcher's Bridge": 17, 'Žale Cemetery': 14, 'City Museum of Ljubljana': 6, 'Congress Square (Kongresni trg)': 13, 'Fountain of Three Carniolan Rivers (Vodnjak treh kranjskih rek)': 11, 'Cooperative Business Bank': 19, 'Slovenian Philharmonic Hall (Slovenska Filharmonija)': 19, 'Seminary Palace and Library': 7, 'Michael': 19, 'Hauptmann House': 13, 'Ursuline Church of the Holy Trinity': 12, 'Cyril Methodius Square (Ciril-Metodov trg)': 4}</t>
+  </si>
+  <si>
+    <t>{'Tallinn Old Town': 19, 'Colina Toompea': 18, 'Tallinna Raekoja Plats': 16, 'Catedral de Alejandro Nevski': 4, 'Iglesia Oleviste': 4, 'Ayuntamiento': 7, 'Tallinn TV Tower': 1, 'Tallinn Town Hall': 10, 'Kumu Art Museum': 18, "Catherine's Passage": 17, 'Viewing Point Kohtuotsa': 6, 'Pirita': 20, 'Puerta Viru': 8, 'Catedral de Santa María': 20, 'Patkuli Viewing Platform': 18, 'Long Street (Pikk tanav)': 16, 'Rotermann Quarter': 4, 'Kadriorg Palace': 7, 'Church of the Holy Spirit Puhavaimu Kirik': 19, 'Viru Square': 14, 'Fat Margaret (Paks Margareeta)': 12, 'Russalka': 11, 'Bridget (Pirita Klooster)': 10, 'Rataskaevu Street': 13, 'Tallinn Song Festival Grounds': 13, 'Tallinn Legends': 15, 'Castillo Toompea': 7, 'Long Boot (Pikk Jalg)': 3, 'Peter the Great House Museum': 13, "Nicholas' Orthodox Church": 18}</t>
+  </si>
+  <si>
+    <t>{'Torre Eiffel': 1, 'Museo del Louvre': 1, 'Catedral de Notre Dame': 6, 'Santa Capilla': 17, 'Palais Garnier': 11, 'Arco del Triunfo': 14, 'Basilique du Sacre-Coeur de Montmartre': 8, 'Le Marais': 2, 'Montmartre': 7, 'Puente Alexandre III': 1, 'Place des Vosges': 7, 'Champs-Elysees': 17, 'Ile Saint-Louis': 11, 'Père Lachaise Cemetery': 14, 'Saint-Germain-des-Pres': 1, 'Île de la Cité': 4, 'Latin Quarter': 16, 'Observatoire Panoramique de la Tour Montparnasse': 2, 'Panthéon': 8, 'Towers of Notre-Dame Cathedral': 19, 'Centre Pompidou': 11, 'The Paris Catacombs': 18, 'Église Saint-Étienne-du-Mont de Paris': 9, 'Chapelle Notre Dame de la Medaille Miraculeuse': 5, '1st Arrondissement': 9, 'Le Trocadero et son esplanade': 9, 'Luxembourg Palace': 16, 'Rue Montorgueil': 15, 'Hôtel de Ville': 6, 'La Madeleine': 16}</t>
+  </si>
+  <si>
+    <t>{'Acrópolis': 20, 'Partenón': 10, 'Plaka': 13, 'Mount Lycabettus': 15, 'Temple of Hephaestus': 9, 'Panathenaic Stadium': 15, 'Ágora': 4, 'Herod Atticus Odeon': 17, 'Erechtheion': 17, 'Philopappos Hill': 10, 'Anafiotika': 12, 'Monastiraki': 14, 'Temple of Athena Nike': 16, 'Temple of Olympian Zeus': 15, 'Tomb of the Unknown Soldier': 1, 'Theater of Dionysus': 11, 'Areopagus': 7, 'Plateia Syntagmatos': 1, 'Stoa of Attalos': 16, 'Church of Kapnikaréa': 6, 'Psirri': 2, 'Pnyx': 5, 'Parlamento (Vouli)': 11, 'Changing of the Guard Ceremony': 20, 'Arch of Hadrian': 13, 'Metropolitan Cathedral of Athens': 1, 'Ermou Street': 14, 'The Academy of Athens': 1, 'George': 14, 'Adrianou Street': 15}</t>
+  </si>
+  <si>
+    <t>{'Kilmainham Gaol': 6, 'Guinness Storehouse': 12, 'The Book of Kells and the Old Library Exhibition': 6, 'Cementerio de Glasnevin': 7, 'Trinity College': 16, 'Temple Bar': 15, '14 Henrietta Street': 18, 'Croke Park Stadium Tour &amp; GAA Museum': 10, "Saint Patrick's Cathedral": 20, 'Christ Church Cathedral': 4, 'Dublinia': 12, 'The Famine Sculptures': 7, 'Grafton Street': 1, 'Dublin Castle': 4, "Michan's Church": 20, 'Molly Malone Statue': 17, 'Merrion Square': 10, "Ha'penny Bridge": 20, 'Croke Park Stadium': 13, 'Shelbourne Park Greyhound Stadium': 14, "Audoen's Church": 2, 'Aviva Stadium': 9, "O'Connell Street": 9, 'Drimnagh Castle': 3, 'Casino Marino': 12, 'Farmleigh House and Estate': 5, 'Samuel Beckett Bridge': 19, 'Monument to Oscar Wilde': 7, 'The Custom House Visitor Centre': 3, 'Cliff Path Loop': 11}</t>
+  </si>
+  <si>
+    <t>{'Coliseo': 18, 'Pantheon': 2, 'Fontana di Trevi': 1, 'Piazza Navona': 3, 'Basilica di Santa Maria Maggiore': 16, 'Foro Romano': 17, 'Trastevere': 13, 'Roman Forum': 12, "Castillo de Sant'Angelo": 17, 'Monumento a Vittorio Emanuele II': 3, 'Villa Borghese': 7, 'Arcibasilica di San Giovanni in Laterano': 6, 'Centro Storico': 20, "Chiesa di Sant'Ignazio di Loyola": 15, 'Scalinata di Trinità Dei Monti': 1, 'San Pedro Encadenado (San Pietro in Vincoli)': 5, 'Iglesia de San Luis de los Franceses': 8, 'Fontana dei Quattro Fiumi': 16, 'Santa Maria in Trastevere': 10, 'Basílica de San Clemente': 13, 'Palazzo Doria Pamphilj': 9, 'Santa Maria della Vittoria': 11, 'Piazza Venezia': 8, 'Catacombs of Saint Callixtus': 7, 'Domus Aurea': 13, 'Basilica di Santa Maria degli Angeli e dei Martiri': 2, 'Terme di Caracalla': 14, 'Piazza del Popolo': 1, 'Welcome To Rome': 15, 'Plaza del Campidoglio': 6}</t>
+  </si>
+  <si>
+    <t>{'Vilnius Old Town': 4, '0': 2, 'Iglesia de San Pedro y San Pablo': 3, 'Iglesia de Santa Ana': 8, 'Puerta de la Aurora': 6, 'Uzupis': 19, 'Holy Spirit Orthodox Church': 11, 'Paneriai (Ponar)': 19, 'Vilnius Cathedral': 3, 'Vilnius University (Vilniaus Universitetas)': 6, 'Bernardine Church (Bernardinu Baznycia)': 17, 'Vingis Park': 13, "St John's church": 19, 'Vilnius Cathedral Square': 20, 'Vilnius TV Tower': 1, 'Castle Hill': 10, 'Theresa': 20, 'Bell Tower of Vilnius Cathedral': 17, 'Stebuklas': 15, 'Rasu Cemetery (Rasu kapines)': 14, 'Gediminas Avenue': 17, 'Casimir': 17, 'Monument to Zemach Shabad': 20, 'Uzupis Mermaid': 8, 'Presidential Palace': 20, 'Antakalnis Cemetery': 18, 'Uzupis Angel': 1, 'Artworks on Literatu str': 18, 'Vilnius Choral Synagogue': 14, 'Church of the Holy Spirit (Sventosios Dvasios Baznycia)': 13}</t>
+  </si>
+  <si>
+    <t>{'Old Bazaar, Skopje': 11, 'The Stone Bridge': 18, 'Macedonia Square': 2, 'Millennium Cross': 6, 'Memorial House of Mother Teresa': 8, 'Panteleimon': 7, 'Warrior on a Horse': 12, 'Holy Savior Church': 13, 'Mustafa Pasha Mosque': 10, 'Clement of Ohrid': 16, 'Skopje Art Bridge': 7, 'Daut Pasha Hamam': 6, 'Skopje Fortress Kale': 16, 'Phillip II of Macedon': 19, 'Fountain of the Mothers of Macedonia': 15, 'Skopje Eye Bridge': 3, 'Skopje Aqueduct': 2, 'Kapan Han': 3, 'Sultan Murad Mosque': 15, 'Statue Divers': 8, 'Museum City of Skopje': 5, 'Church of Saint Dimitrija': 5, "Memorial plaque of Mother Teresa's birth house": 2, 'Church of the Ascension of Jesus': 13, 'Stobi': 12, 'Fallen Heroes of Macedonia': 10, 'Porta Macedonia aka Gate Macedonia': 17, 'National Arena Philip II of Macedonia': 6, 'Mosque Iskhak-Bek': 5, 'Clock Tower Saat Kula': 11}</t>
+  </si>
+  <si>
+    <t>{'Victory Memorial and Eternal Flame': 4, 'Catedrala Nasterea Domnului': 8, 'Theodor Tiron Convent': 18, 'Stephen the Great Monument': 1, 'Sculpture of Lovers': 3, 'Triumphal Arch': 18, 'Afghan War Memorial To Sons of Motherland - Eternal Memory': 2, 'Dormition of the Theotokos': 12, 'Pedestrian Street': 2, 'Jewish Cemetery': 13, 'Chisinau Railway Station': 11, 'Orthodox Cathedral of the Transfiguration of the Saviour': 4, 'Sculpture of Skateboarders': 15, 'Monument to the Victims of Jewish Ghetto': 13, 'Nicholas': 14, 'Kishinev Jacobs Jewish Cultural Center': 17, 'Parliament of the Republic of Moldova': 8, 'Chisinau Mosque': 15, 'Metropolitan Cathedral': 10, 'Chisinau City Hall': 18, 'Synagogue Chabad Lubavitch': 8, 'Cathedral of Divine Providence': 9, "Mary's Armenian Apostolic Church": 19, 'Monument to the Heroes-Komsomol': 13, 'Mazarachi Church': 7, 'Monument to the Liberators of Chisinau from the Nazi Troops': 16, 'Monument to Sergey Lazo': 10, 'Memorial to Victims of Stalinist Repression': 6, 'Tekwill Technology Hub': 6, '1 Ban Monument': 5}</t>
+  </si>
+  <si>
+    <t>{'Jordaan': 3, 'Estación Central': 12, 'Barrio Rojo': 13, 'Museo Casa de Rembrandt': 6, 'La Plaza Dam': 9, "A'dam Lookout": 8, 'Museum Quarter': 9, 'Palacio Real': 11, 'Begijnhof': 17, 'Amsterdam Canal Ring': 6, 'Johan Cruyff Arena': 6, 'Sinagoga Portuguesa': 19, 'Las Nueve Calles': 14, 'El Amstel': 7, 'De Duif': 2, 'Plaza Leidseplein': 12, 'Rembrandtplein': 16, 'Ziggo Dome': 5, 'Museum Van Loon': 20, 'Willet-Holthuysen Museum': 19, 'Nicholas Basilica': 20, 'De Poezenboot': 2, 'De Hallen Amsterdam': 1, 'Westerkerk': 19, 'Brouwersgracht': 1, 'Haarlemmerstraat': 9, 'De Krijtberg - Sint Franciscus Xaveriuskerk': 3, 'Nieuwmarkt': 13, 'Museum Het Schip': 4, 'Magere Brug': 14}</t>
+  </si>
+  <si>
+    <t>{'Alfama': 14, 'Mosteiro dos Jerónimos': 3, 'Praca do Comercio (Terreiro do Paco)': 13, 'Barrio Alto': 19, 'Castillo de San Jorge': 3, 'Belem': 10, 'Miradouro da Senhora do Monte': 18, 'Chiado': 6, 'Padrao dos Descobrimentos': 7, 'Arco do Triunfo': 17, 'Igreja de São Roque': 6, '25 de Abril Bridge': 13, 'Estadio do Sport Lisboa e Benfica': 9, 'LX Factory': 9, 'La Locomotiva Tours': 20, 'Parque das Nacoes': 1, 'Vasco da Gama Bridge': 17, 'Miradouro da Graca (Sophia de Mello Breyner Andresen)': 12, 'Palacio de Ajuda': 3, 'Panteao Nacional': 16, 'Avenida da Liberdade': 10, 'Miradouro de Santa Luzia': 4, 'Rossio Square': 14, 'Santo Antonio de Lisboa': 4, 'Mosteiro De Sao Vicente De Fora': 18, 'Rua Augusta': 20, 'Santa Maria de Belem Church': 18, 'Vasco da Gama Shopping Center': 5, 'Palácio dos Marqueses de Fronteira': 20, 'Miradouro das Portas do Sol': 11}</t>
+  </si>
+  <si>
+    <t>{'Staromestske namesti': 11, 'Karlův Most': 10, 'Catedral de San Vito': 2, 'Prague Castle': 3, 'Staroměstská Radnice': 11, 'Lesser Town': 2, 'Hradčany': 11, 'Sinagoga Española': 4, 'Monte Petřín': 8, 'Iglesia de San Nicolás': 2, 'Palacio Lobkowicz': 19, 'Monumento Cultural Nacional Vysehrad': 5, 'Obecní Dům': 19, 'Church of Our Lady before Tyn': 13, 'National Memorial to the Heroes of the Heydrich Terror': 19, 'Franz Kafka Statue': 15, 'Petrin Tower': 11, 'Old Town Bridge Tower': 5, 'Kostel Panny Marie Vítězné a Pražské Jezulátko': 9, 'St Cyril and St Methodius Cathedral': 11, 'Prašná brána': 17, 'Rudolfinum': 17, 'The Vrtba Garden': 13, 'Wenceslas Square (Václavské náměstí)': 9, 'Waldstein Palace': 14, 'Loreta Praha': 10, 'Pinkas Synagogue, Jewish Museum in Prague': 3, 'Dancing House': 12, 'Convent of St Agnes of Bohemia - National Gallery Prague': 15, 'John Lennon Wall': 2}</t>
+  </si>
+  <si>
+    <t>{'Stockholm Old Town': 5, 'Ayuntamiento': 14, 'Djurgarden': 1, 'Palacio Real': 4, 'Monteliusvagen': 1, 'Södermalm': 17, 'Stortorget': 15, 'Catedral de Estocolmo': 19, 'Skogskyrkogården': 11, 'Galería Thiel': 17, 'Strandvagen': 4, 'Parliament Building (Riksdagshuset)': 18, 'Mirador Fjallgatan': 15, 'Ostermalm': 14, 'Riddarholm Church (Riddarholmskyrkan)': 16, 'Iglesia Alemana': 7, 'Globen Skyview': 1, 'Royal Dramatic Theater (Kungliga Dramatiska Teatern)': 15, 'Järnpojken': 10, 'Cirkus Arena': 1, 'Avicii Arena': 17, 'Kulturhuset': 15, 'Norrmalm': 17, 'S:ta Clara kyrka': 2, 'Judiska Församlingen I Stockholm': 15, 'Riddarhuset': 17, 'Tele2 Arena': 7, 'The Stockholm Concert Hall': 16, 'Katarina Hissen': 15, 'Vinterviken': 7}</t>
+  </si>
+  <si>
+    <t>{'Reichstag Building': 8, 'Puerta de Brandeburgo': 10, 'Memorial del Holocausto': 9, 'Memorial del Muro de Berlín': 2, 'East Side Gallery': 10, 'Friedrichstadt-Palast': 11, 'Museum Island': 5, 'Berliner Dom': 20, 'Gendarmenmarkt': 17, 'Fernsehturm de Berlín': 18, 'Filarmónica de Berlín': 1, 'Memorial Berlín Hohenschönhausen': 1, 'Kaiser Wilhelm Memorial Church': 18, 'Olympiastadion Berlin': 13, 'Victory Column (Siegessaule)': 3, 'Charlottenburg Palace': 3, 'Museo Histórico Alemán': 7, 'Potsdamer Platz': 16, 'Alexanderplatz': 19, 'Tempelhof Airport': 8, 'Die Hackeschen Hoefe': 7, 'Estación Central de Berlín': 3, 'Berlín-Mitte': 2, 'Checkpoint Charlie': 13, 'Haus der Wannsee-Konferenz': 10, 'Kurfürstendamm': 18, 'Panoramapunkt': 18, 'Prenzlauer Berg': 13, 'Gleis 17, Grunewald': 17, 'Kreuzberg': 17}</t>
+  </si>
+  <si>
+    <t>{'Gran Plaza': 5, 'Les Galeries Royales Saint-Hubert': 19, 'Atomium': 20, 'Catedral de San Miguel y Santa Gúdula': 18, 'Town Hall (Hôtel de Ville)': 11, 'Parc du Cinquantenaire': 1, 'Guild Houses': 20, 'Notre Dame du Sablon': 9, 'Parlamentarium: Centro de visitas del Parlamento Europeo': 15, 'Manneken Pis': 13, 'Mont des Arts': 3, 'Serres Royales De Laeken': 1, 'Royal Palace (Palais Royal)': 17, 'Bois de la Cambre': 13, 'National Basilica of the Sacred Heart': 10, 'Place du Grand Sablon': 14, 'Catherine': 11, 'Belgian Comic Strip Center': 5, 'European Parliament Hemicycle (free visits)': 7, 'Gery': 13, 'Tintin Mural Painting': 1, 'Justice Palace (Palais de Justice)': 7, 'Coudenberg Palace': 16, 'Porte de Hal': 9, 'Le Botanique': 13, 'Lower Town': 12, 'La Bourse de Bruxelles': 11, 'Avenue Louise': 12, 'Jeanneke Pis': 14, 'Place Royale': 12}</t>
+  </si>
+  <si>
+    <t>{'Sarajevo War Tunnel': 5, 'Bascarsija': 2, 'Sarajevo Olympic Bobsleigh and Luge Track': 4, 'Sarajevo City Hall': 9, 'Gazi Husrev-beg Mosque': 20, 'The Yellow Fortress': 9, 'Avaz Twist Tower': 13, 'Katedrala Srca Isusova': 3, 'Sebilj Brunnen (Fountain)': 9, 'Latin Bridge': 14, 'Ferhadija Pedestrian Street': 1, 'Church of the Holy Archangels Michael and Gabriel in Sarajevo': 13, 'Sarajevo Memorial for Children Killed during Siege': 3, 'Eternal Flame': 9, 'Sniper Alley': 18, 'Pijaca Markale': 10, 'Serbian Orthodox Cathedral': 17, 'Alifakovac Cemetery': 17, 'Gazi Husrev Begova Medresa': 9, 'TasliHan': 4, 'Old Sarajevo Clock Tower': 14, 'Ashkenazi Synagogue': 9, 'Romeo and Juliet Bridge': 2, 'Central Post Office': 18, 'Bridge Festina Lente': 15, 'The Academy of Fine Arts': 4, "Goat's Bridge": 15, "Emperor's Mosque": 2, 'Alipasina Mosque': 14, 'Bosniak Institute': 20}</t>
+  </si>
+  <si>
+    <t>{'Tkalčićeva Street': 15, 'Upper Town (Gornji Grad)': 7, 'Iglesia de San Marcos': 11, 'Cementerio Mirogoj': 13, 'Cathedral of the Assumption': 13, 'Ban Josip Jelačić Square': 8, 'Croatian National Theatre in Zagreb': 8, 'Lotrščak Tower': 2, 'Lower Town': 7, 'Funicular Railway': 7, 'King Tomislav Square': 20, 'Puerta de Piedra': 2, 'Ban Josip Jelacic Monument': 3, 'Radićeva': 14, 'Holy Mary Monument': 18, 'Strossmayer Promenade': 6, 'Ilica': 7, 'Tunel Gric': 12, 'The Well of Life': 20, 'Republic of Croatia Square / Trg Republike Hrvatske': 19, 'Zagreb Cathedral': 12, 'Nikola Tesla Statue': 7, 'Medvedgrad Visitor Center': 20, 'Catherine': 16, "Mark's Square": 14, 'Square of Petar Preradovic': 7, 'Zagreb Orthodox Cathedral': 16, 'Saint George Statue': 13, 'King Tomislav Statue': 13, 'Mandusevac Fountain': 20}</t>
+  </si>
+  <si>
+    <t>{'Casco antiguo': 15, 'Castillo Devin': 10, 'Cumil': 4, 'Modry Kostol': 4, 'Bratislava Castle': 15, 'Slavin': 14, 'UFO Observation Deck': 18, 'Plaza Mayor': 7, 'Ayuntamiento Viejo': 13, "Michael's Tower &amp; Street": 10, 'Puerta de San Miguel': 3, "Martin's Cathedral (Dom svateho Martina)": 7, 'Hviezdoslavovo Namestie': 11, 'Schone Naci Statue': 15, 'Slovak Philharmonic': 3, 'Napoleon’s Army Soldier Statue': 14, 'The Grassalkovich palace - Presidential palace': 13, 'New Bridge (Novy Most)': 7, "Primates' Palace (Primacialny palac)": 11, 'Statue of Hans Christian Andersen': 6, 'Kapitulska Street': 3, 'Chatam Sofer Memorial': 10, 'Ondrej Nepela Arena': 5, 'George and the Dragon': 9, 'Maximilian´s Fountain': 1, 'Stary most': 14, 'Building of Slovak Radio': 18, 'Franciscan Church and Monastery': 9, 'The old Slovak National Theater': 2, 'Apollo Bridge': 13}</t>
+  </si>
+  <si>
+    <t>{'Fortaleza de Suomenlinna': 20, 'Temppeliaukion Church': 3, 'Catedral Luterana': 17, 'Catedral Ortodoxa Uspenski': 9, 'Old Market Hall': 11, 'Museo al aire libre de Seurasaari': 5, 'Kamppi Chapel of Silence': 11, 'The Esplanadi Park': 14, 'Plaza del Senado': 18, 'Helsingin Päärautatieasema': 7, 'The National Library of Finland': 6, 'Hakaniemi Market': 19, 'Kauppatori': 4, 'Museo Mannerheim': 19, 'Katajanokka': 9, 'Johannes Church': 20, 'The Aalto House': 15, 'Hakaniemi Market Hall': 7, 'Havis Amanda': 20, 'Toolo Bay (Toolonlahti)': 20, 'Olympic Stadium (Olympiastadion)': 10, 'Sibelius Monument': 9, 'Hietaniemi Cemetery': 1, 'SkyWheel Helsinki': 15, 'Talvipuutarha': 8, 'Kallio Church': 2, 'Hartwall Arena': 8, 'Helsinki University Library': 20, 'University of Helsinki (Helsingin Yliopisto)': 16, 'Design District': 8}</t>
+  </si>
+  <si>
+    <t>{'Parlamento': 1, "Fisherman's Bastion": 15, 'Basílica de San Esteban': 3, 'Zapatos en el Danubio': 5, 'Matthias Church': 9, "Heroes' Square": 8, 'Budai Vár': 16, 'Varhegy': 5, 'Puente de las Cadenas': 2, 'Colina y Estatua Gellért': 1, 'Hungarian State Opera House (Magyar Allami Operahaz)': 7, '3d Gallery Budapest': 6, 'Vajdahunyad Castle (Vajdahunyadvar)': 1, 'Gran Sinagoga': 6, 'Gozsdu Udvar': 8, 'Puente de la Libertad': 16, 'Citadel': 1, 'Music Fountain': 10, 'Vaci Street': 19, 'Andrassy Avenue': 16, 'Museo Nacional Húngaro': 18, 'New York Palace': 16, 'Statue of St Stephen': 15, 'Plaza Vorosmarty (Vorosmarty ter)': 13, 'Gresham Palace': 4, "Anonymus Szobor (Anonymous' Statue)": 18, 'Bagni Széchenyi': 10, 'Kossuth Lajos Square': 18, 'Korzo - Danube Embankment (Dunakorzó)': 14, 'Castle Garden': 13}</t>
+  </si>
+  <si>
+    <t>{'Iglesia de Hallgrímur (Hallgrimskirkja)': 3, 'Perlan': 1, 'Harpa Reykjavik Concert Hall and Conference Centre': 11, 'Sun Voyager': 7, 'Reykjavík 871±2': 16, 'Laugavegur': 18, 'Árbær Open Air Museum': 8, 'Museo Einar Jonsson': 6, 'Videy Island': 16, 'Grotta Lighthouse': 9, 'Reykjavík Art Museum Ásmundarsafn': 10, 'The Statue of Leif Eiriksson': 3, 'Geothermal Area Krysuvik': 5, 'Reykjavik City Hall': 10, 'Cemetery Holavallagardur': 6, 'Domkirkjan': 9, 'Bjarteyjarsandur': 17, 'Hofdi House': 6, 'Imagine Peace Tower': 2, 'Thufa': 9, 'Parliament House (Althingishus)': 4, 'The Nordic House': 17, 'Sculpture and Shore Walk': 18, 'Bárður Snæfellsás': 15, 'Thorsmork': 19, 'Arnarholl Statue': 11, 'Christ The King Cathedral': 1, 'Skolavordustigur': 19, 'Hannesarholt': 10, 'Háteigskirkja Church': 5}</t>
+  </si>
+  <si>
+    <t>{'Old City Riga (Vecriga)': 16, 'Riga Town Hall Square': 13, 'House Of The Black Heads': 20, 'Alberta Iela': 18, "View of Riga from St Peter's Church Tower": 19, 'Freedom Monument': 19, 'Latvian Ethnographic Open Air Museum': 1, 'Jugenda Stila Nami': 10, 'Riga Cathedral': 4, 'Panorama Riga Observation Deck': 11, 'Nativity of Christ Cathedral': 11, 'Vermanes Garden': 17, 'Jauniela': 5, "Peter's Church": 3, 'Cat House': 8, 'Bremen Town Musicians': 14, 'Livu Square': 13, 'Rumbula Forest Memorial': 13, 'Swedish Gate (Zviedru Varti)': 20, 'Arena Riga': 18, "John's Church": 16, 'Riga Radio and TV Tower': 11, 'Bikernieki Memorial': 20, 'The House that was Built in 1903': 2, 'Latvian National Theater': 1, 'Sculpture The Ghost': 2, 'Temple of the Holy Prince Alexander Nevskiy': 10, 'Small Guild of Riga': 13, 'Gertrude Old Church': 19, 'Riga Synagogue': 14}</t>
+  </si>
+  <si>
+    <t>{'Vianden Castle': 16, 'Le Chemin de la Corniche': 1, 'Luxembourg American Cemetery Memorial': 8, 'Cathédrale Notre-Dame': 7, 'Grund': 3, 'Pfaffenthal Lift': 4, 'MNHM National Museum of Military History': 14, 'Casemates du Bock': 10, 'Grand Ducal Palace': 13, 'Wenzel Circular Walk': 2, 'Pont Adolphe': 15, "Place d'Armes": 12, 'Viaduc (Passerelle)': 12, 'Mudam Luxembourg Musée d’Art Moderne': 6, 'Bourscheid Castle': 13, 'Place de la Constitution': 10, 'Abbey of Echternach': 5, '': 18, 'Holy Ghost Citadel': 1, 'Beaufort Castles': 14, 'Rockhal': 3, 'Chateau de Clervaux': 18, 'Abbaye Saint-Maurice de Clervaux': 20, 'Blast Furnace Belval': 6, "Monument du Souvenir - 'Gëlle Fra'": 17, 'Larochette Castle': 10, "Saint Michel's Church": 3, 'Chateau Esch-sur-Sûre': 5, 'Monument National de la Solidarite': 3, 'Hollow Tooth': 1}</t>
+  </si>
+  <si>
+    <t>{'Concatedral de San Juan': 14, 'Lascaris War Rooms': 19, 'Fort St Elmo - National War Museum': 15, 'Casa Rocca Piccola': 8, 'Saluting Battery': 2, 'Valletta Waterfront': 10, 'War HQ Tunnel': 4, 'Three Cities': 13, 'Barrakka Lift': 11, 'Iglesia del Naufragio de San Pablo': 1, 'Strait Street': 2, 'Triton Fountain': 13, "Grandmaster's Palace": 5, 'Valletta City Gate': 1, 'Shrine of Our Lady of Mount Carmel': 20, 'Siege Bell War Memorial': 5, "Paul's Anglican Pro-Cathedral": 10, "Il-Berga ta' Kastilja": 14, 'St George Square': 19, 'Victoria Gate': 5, 'Our Lady of Victories Church': 18, 'The New Parliament': 10, "Francis' Church Valletta": 7, 'Pjazza Teatru Rjal': 20, 'Reliving The Sacra Infermeria': 4, 'Mediterranean Conference Centre': 2, 'St Augustine Church &amp; Priory': 6, 'Catherine of Italy': 4, "Auberge d'Italie": 7, 'Independence Monument': 2}</t>
+  </si>
+  <si>
+    <t>{'Museo del Pueblo Noruego': 19, 'Castillo y Fortaleza de Akershus': 1, 'Ayuntamiento de Oslo': 8, 'El Palacio Real': 2, 'Karl Johans gate': 19, 'Oslomarka': 14, 'Fortaleza de Oscarborg': 11, 'Grünerløkka': 10, 'Drobak': 2, "Oslo's Harbour Promenade": 8, 'The Norwegian Parliament': 15, 'Emanuel Vigeland Museum': 11, 'juli-senteret': 3, 'Oslo Cathedral (Oslo Domkirke)': 20, 'Tjuvholmen Sculpture Park': 8, 'Tiger Sculpture': 4, 'Ostbanehallen': 12, 'Barcode Oslo': 10, 'Waterfall at Molla': 7, 'The Bergen Railway': 10, 'Tjuvholmen Neighbourhood': 6, 'Oslo Spektrum': 5, 'The Viking Planet Oslo': 8, 'Old Aker Church': 3, 'She Lies': 19, 'Bogstad Gard': 20, 'Vulkan Neighbourhood': 11, 'Street Art at Ingens gate': 14, 'Oscarshall': 2, 'Sagene Church': 10}</t>
+  </si>
+  <si>
+    <t>{'Old Town': 3, 'Rynek Starego Miasta': 12, 'Castle Square (Plac Zamkowy)': 20, 'Palace of Culture and Science': 15, 'Zamek Królewski w Warszawie - Muzeum': 17, 'Nowy Swiat': 2, 'Krakowskie Przedmiescie': 10, 'Monument to the Warsaw Uprising Fighters': 10, 'Palace on the Island': 19, 'Chopin Monument': 19, 'Pomnik Bohaterów Getta': 20, 'Hala Koszyki': 1, 'Grób Nieznanego Żołnierza': 16, 'Viewing Terrace': 5, 'PGE National Stadium': 10, "Anne's Church (Kosciol Swietej Anny)": 15, 'Warsaw Barbican (Barbakan Warszawski)': 12, 'Jewish Cemetery (Cmentarz Zydowski)': 5, 'Statue of the Little Insurgent': 11, 'Cmentarz Wojskowy na Powazkach': 4, 'Multimedia Fountain Park': 5, 'Warsaw Mermaid': 5, 'Holy Cross Church (Kosciol Swietego Krzyza)': 1, 'Warsaw Ghetto': 5, 'Legia Warsaw Municipal Stadium of Marshal Jozef Pilsudski': 20, 'Fragment of Ghetto Wall': 11, "King Sigismund's Column (Kolumna Zygmunta)": 19, 'John the Baptist': 15, 'University of Warsaw (Uniwersytet Warszawski)': 11, 'Fabryka Norblina': 5}</t>
+  </si>
+  <si>
+    <t>{'Iglesia Stavropoleos': 4, 'Muzeul Naţional al Satului "Dimitrie Gusti"': 8, 'Palace of Parliament': 11, 'Ateneo Romano': 15, 'Old Town': 8, 'Lipscani': 18, 'Piața Unirii': 4, "Manuc's Inn (Hanul lui Manuc)": 13, 'Catedrala Patriarhală': 7, 'Carol Park': 16, 'Calea Victoriei': 17, 'Piața Revoluției': 9, 'Triumph Arch (Arcul de Triumf)': 7, 'Palatul CEC': 2, 'National Theatre Ion Luca Caragiale (Teatrul Național Ion Luca Caragiale)': 1, 'Biserica Sfântul Gheorghe Nou': 7, 'Biserica Sfântul Anton - Curtea Veche': 2, 'Muzeul Colecțiilor de Artă': 14, 'National Arena Stadium Bucharest': 11, 'Nicolae': 18, 'Cercul Militar Național (CCA)': 15, 'The Choral Temple': 3, 'Bellu Cemetery (Cimitirul Șerban Vodă-Bellu)': 14, 'Bucharest Municipal Museum': 12, 'Biserica Kretzulescu': 18, 'Mănăstirea Antim': 7, 'Colțea Hospital (Spitalul Colțea)': 11, 'Great Synagogue': 7, 'Macca Villacrosse Passage': 12, 'Radu Vodă Monastery (Mănăstirea Radu Vodă)': 5}</t>
+  </si>
+  <si>
+    <t>{'The Belgrade Fortress': 4, 'Knez Mihailova': 13, 'Sava Temple': 16, 'Skadarlija': 12, 'Kalemegdan Park and Belgrade Fortress': 4, "Saint Petka's Chapel": 11, 'The Millenary Monument': 2, 'Church of the Holy Mother of God': 7, 'Zemunski kej': 4, 'Crkva Svetog Marka': 12, 'The National Assembly': 4, 'Avala Tower': 9, 'Residence of Princess Ljubica (Konak Kneginje Ljubice': 10, "Michael's Cathedral": 4, 'Red Star Belgrade Stadium - Marakana': 7, 'Trg Republike': 1, 'Sava Bridge': 6, 'Dorcol': 8, 'Public Aquarium and Tropicarium Belgrade': 6, 'Kombank Arena': 5, 'Royal Palace': 1, 'Crkva Svetog Oca Nikolaja': 6, 'Nebojsa Tower': 14, 'Bayraklee mosque (Bajrakli džamija)': 18, 'Patriarchate of the Serbian Orthodox Church': 3, 'Partizan Stadium': 1, 'Terazije Fountain': 19, 'White Palace': 14, 'Tresije': 13, 'Grocka': 7}</t>
   </si>
 </sst>
 </file>
@@ -1224,13 +1326,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,34 +1381,37 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J2">
         <v>57</v>
@@ -1329,34 +1434,37 @@
       <c r="P2">
         <v>7</v>
       </c>
+      <c r="Q2" t="s">
+        <v>281</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J3">
         <v>119</v>
@@ -1379,34 +1487,37 @@
       <c r="P3">
         <v>48</v>
       </c>
+      <c r="Q3" t="s">
+        <v>282</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J4">
         <v>36</v>
@@ -1429,34 +1540,37 @@
       <c r="P4">
         <v>17</v>
       </c>
+      <c r="Q4" t="s">
+        <v>283</v>
+      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J5">
         <v>106</v>
@@ -1479,34 +1593,37 @@
       <c r="P5">
         <v>26</v>
       </c>
+      <c r="Q5" t="s">
+        <v>284</v>
+      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J6">
         <v>125</v>
@@ -1529,34 +1646,37 @@
       <c r="P6">
         <v>46</v>
       </c>
+      <c r="Q6" t="s">
+        <v>285</v>
+      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J7">
         <v>54</v>
@@ -1579,34 +1699,37 @@
       <c r="P7">
         <v>10</v>
       </c>
+      <c r="Q7" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J8">
         <v>52</v>
@@ -1629,34 +1752,37 @@
       <c r="P8">
         <v>25</v>
       </c>
+      <c r="Q8" t="s">
+        <v>287</v>
+      </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J9">
         <v>329</v>
@@ -1679,34 +1805,37 @@
       <c r="P9">
         <v>156</v>
       </c>
+      <c r="Q9" t="s">
+        <v>288</v>
+      </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J10">
         <v>169</v>
@@ -1729,34 +1858,37 @@
       <c r="P10">
         <v>20</v>
       </c>
+      <c r="Q10" t="s">
+        <v>289</v>
+      </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J11">
         <v>212</v>
@@ -1779,34 +1911,37 @@
       <c r="P11">
         <v>58</v>
       </c>
+      <c r="Q11" t="s">
+        <v>290</v>
+      </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J12">
         <v>327</v>
@@ -1829,34 +1964,37 @@
       <c r="P12">
         <v>73</v>
       </c>
+      <c r="Q12" t="s">
+        <v>291</v>
+      </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J13">
         <v>56</v>
@@ -1879,34 +2017,37 @@
       <c r="P13">
         <v>12</v>
       </c>
+      <c r="Q13" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J14">
         <v>21</v>
@@ -1929,34 +2070,37 @@
       <c r="P14">
         <v>8</v>
       </c>
+      <c r="Q14" t="s">
+        <v>293</v>
+      </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J15">
         <v>21</v>
@@ -1979,34 +2123,37 @@
       <c r="P15">
         <v>11</v>
       </c>
+      <c r="Q15" t="s">
+        <v>294</v>
+      </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J16">
         <v>381</v>
@@ -2029,34 +2176,37 @@
       <c r="P16">
         <v>54</v>
       </c>
+      <c r="Q16" t="s">
+        <v>295</v>
+      </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J17">
         <v>157</v>
@@ -2079,34 +2229,37 @@
       <c r="P17">
         <v>55</v>
       </c>
+      <c r="Q17" t="s">
+        <v>296</v>
+      </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J18">
         <v>404</v>
@@ -2129,34 +2282,37 @@
       <c r="P18">
         <v>75</v>
       </c>
+      <c r="Q18" t="s">
+        <v>297</v>
+      </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J19">
         <v>20</v>
@@ -2179,34 +2335,37 @@
       <c r="P19">
         <v>57</v>
       </c>
+      <c r="Q19" t="s">
+        <v>298</v>
+      </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J20">
         <v>372</v>
@@ -2229,34 +2388,37 @@
       <c r="P20">
         <v>96</v>
       </c>
+      <c r="Q20" t="s">
+        <v>299</v>
+      </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J21">
         <v>107</v>
@@ -2279,34 +2441,37 @@
       <c r="P21">
         <v>29</v>
       </c>
+      <c r="Q21" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J22">
         <v>27</v>
@@ -2329,34 +2494,37 @@
       <c r="P22">
         <v>9</v>
       </c>
+      <c r="Q22" t="s">
+        <v>301</v>
+      </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J23">
         <v>83</v>
@@ -2379,34 +2547,37 @@
       <c r="P23">
         <v>16</v>
       </c>
+      <c r="Q23" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J24">
         <v>61</v>
@@ -2429,34 +2600,37 @@
       <c r="P24">
         <v>33</v>
       </c>
+      <c r="Q24" t="s">
+        <v>303</v>
+      </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J25">
         <v>50</v>
@@ -2479,34 +2653,37 @@
       <c r="P25">
         <v>54</v>
       </c>
+      <c r="Q25" t="s">
+        <v>304</v>
+      </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J26">
         <v>213</v>
@@ -2529,34 +2706,37 @@
       <c r="P26">
         <v>52</v>
       </c>
+      <c r="Q26" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J27">
         <v>40</v>
@@ -2579,34 +2759,37 @@
       <c r="P27">
         <v>20</v>
       </c>
+      <c r="Q27" t="s">
+        <v>306</v>
+      </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J28">
         <v>63</v>
@@ -2629,34 +2812,37 @@
       <c r="P28">
         <v>19</v>
       </c>
+      <c r="Q28" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J29">
         <v>16</v>
@@ -2679,34 +2865,37 @@
       <c r="P29">
         <v>42</v>
       </c>
+      <c r="Q29" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J30">
         <v>7</v>
@@ -2729,34 +2918,37 @@
       <c r="P30">
         <v>4</v>
       </c>
+      <c r="Q30" t="s">
+        <v>309</v>
+      </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J31">
         <v>48</v>
@@ -2779,34 +2971,37 @@
       <c r="P31">
         <v>56</v>
       </c>
+      <c r="Q31" t="s">
+        <v>310</v>
+      </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J32">
         <v>93</v>
@@ -2829,34 +3024,37 @@
       <c r="P32">
         <v>40</v>
       </c>
+      <c r="Q32" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J33">
         <v>103</v>
@@ -2879,34 +3077,37 @@
       <c r="P33">
         <v>27</v>
       </c>
+      <c r="Q33" t="s">
+        <v>312</v>
+      </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J34">
         <v>129</v>
@@ -2928,6 +3129,9 @@
       </c>
       <c r="P34">
         <v>18</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/links.xlsx
+++ b/links.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
   <si>
     <t>ciudad</t>
   </si>
@@ -67,6 +67,9 @@
     <t>palabras</t>
   </si>
   <si>
+    <t>monum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.es/Attractions-g294446-Activities-c42-Tirana_Tirana_County.html</t>
   </si>
   <si>
@@ -859,103 +862,202 @@
     <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c57-Belgrade.html</t>
   </si>
   <si>
-    <t>{'Skanderbeg Square': 8, 'Et`hem Bey Mosque': 12, 'Orthodox Autocephalous Church of Albania': 16, 'Skanderbeg Statue': 1, 'Clock Tower': 19, 'Rruga Murat Toptani': 11, "Tanners' Bridge": 10, 'Peace Bell': 9, 'Kapllan Pasha’s Tomb': 6, 'Saint Paul Cathedral': 11, 'Enver Hoxha Pyramid': 1, 'Marie': 16, 'Great mosque of Tirana': 12, 'Unknown Partisan Monument': 7, 'Fortress of Justinian': 3, 'Postbllok - Checkpoint Monument': 1, 'Bektashi World Centre': 16, 'TID Tower': 17, 'Reja "The Cloud"': 1, 'Blloku': 9, 'Polytechnic University of Tirana': 3, 'Qemal Stafa Stadium': 18, 'Friendship Monument': 5, 'Independence Monument': 9, 'Fan Noli statue': 10, 'Mosaic of Tirana': 2, 'Baitul Awwal Mosque': 19, 'Xhura Mosque': 17, 'Pomnik Fryderyka Chopina': 15, 'Selman Stermasi Stadium': 4}</t>
-  </si>
-  <si>
-    <t>{'Palacio de Schönbrunn': 9, 'Historic Center of Vienna': 12, 'Catedral de San Esteban': 10, 'Belvedere Museum': 1, 'Schonbrunner Gardens': 4, 'Rathaus': 2, 'State Hall of the Austrian National Library': 17, 'Peterskirche': 8, 'Plaza de San Esteban (Stephansplatz)': 14, 'Rathausplatz': 5, 'Cementerio Central (Zentralfriedhof)': 9, 'Volksgarten': 17, 'Ringstrasse': 13, 'Museo KunstHausWien': 17, 'Hundertwasserhaus': 11, 'Casa de la musica': 17, 'Graben and Kohlmarkt': 20, 'Kahlenberg': 3, 'Karlskirche': 5, 'Imperial Crypt': 16, 'Church of the Jesuits': 19, 'Kirche am Steinhof': 3, 'Danube Tower': 8, 'Votivkirche': 13, 'Michaelerplatz': 20, 'Österreichisches Parlament': 9, 'Maria Theresia Denkmal': 15, 'MAK - Austrian Museum of Applied Arts/Contemporary Art': 1, 'Wiener Riesenrad': 16, 'Mariahilfer Strasse': 6}</t>
-  </si>
-  <si>
-    <t>{'Church of Saints Simon and Helena': 3, 'Island of Tears': 1, 'Victory Square': 15, 'Upper City': 10, 'Monument to Fallen Jewish People on March 2, 1942': 17, 'Minsk-Arena Complex': 20, 'Holy Spirit Cathedral': 11, 'Minsk Gates': 19, 'Independence Square, Minsk': 5, 'Svislach River Embankment': 5, 'Loshitskiy Park': 18, 'Central Botanical Garden of the National Academy of Sciences of Belarus': 3, 'Minsk Railway station': 9, 'Trinity Hill': 20, 'Archcathedral Holy Name of the Blessed Virgin Mary': 13, 'Minsk City Hall': 11, 'Sculpture': 2, 'Church of All Saints': 5, 'Fountain of Independence': 19, 'Zero Kilometr of Belarus': 11, 'Observation Deck of National Library of Belarus': 9, 'Graffiti Street': 9, 'Saint Elisabeth Convent': 12, 'Crying Guardian Angel': 20, "Paul's Cathedral": 6, 'Liberty Square': 12, 'Gallery Slavutyya Maistry': 5, 'Mary Magdalene': 12, 'Chizhovka Arena': 2, 'Oktyabrskaya Square': 12}</t>
-  </si>
-  <si>
-    <t>{'Iglesia de Alexander Nevski': 8, 'Vitosha Boulevard': 18, 'Iglesia Rusa de San Nicolás': 19, 'Iglesia de Boyana': 8, 'The Rotunda Church of St George': 3, 'Saint Sofia Church': 12, 'St Nedelya Church': 12, 'Sofia Synagogue': 10, 'National Palace of Culture Congress Centre': 4, 'Amphitheatre of Serdica': 20, 'Former Bulgarian Communist Party Headquarters': 10, 'Banya Bashi Mosque': 12, 'Church of St Petka of the Saddlers': 2, 'Sofia University Saint Kliment Ohridski': 3, 'Statue of Tsar Alexander II': 11, 'Sveti Sedmochislenitsi Church': 14, 'The Bells (Kambanite)': 16, 'Soviet Army Monument': 19, 'Monument to the Deity All-Holy Sofia': 12, 'Statue of Slaveikovs': 13, 'Slaveikov Square': 5, 'Dragalevtsi Monastery': 18, 'Ancient Serdica Archaeological Complex': 2, 'The Presidency Building': 11, 'Monument to the Unknown Warrior': 20, 'National Assembly of the Republic of Bulgaria': 16, 'Boyana Village': 1, 'Saint Nikolai Sofiyski': 11, 'Snail Home': 7, 'Mineral water springs': 14}</t>
-  </si>
-  <si>
-    <t>{'Nyhavn': 2, 'Rosenborg Castle': 7, "Our Saviour's Church": 14, 'Rundetårn': 12, 'Museo Nacional': 14, 'Palacio de Christiansborg': 5, 'Copenhagen Opera House': 16, 'Palacio de Amalienborg': 19, 'Kastellet': 13, 'Frederiks Kirke (Marmorkirken)': 5, 'Strøget': 8, 'The Little Mermaid': 10, 'Copenhagen City Hall': 14, 'Gefionspringvandet': 18, 'Grundtvig Church (Grundtvigs Kirke)': 9, 'Frederiksberg Slot': 15, 'Christiania': 13, 'Assistens Cemetery': 19, 'Copenhagen Central Station': 16, 'Thorvaldsens Museum': 4, 'Visit Carlsberg Brand Store': 12, 'Church of Our Lady - Copenhagen Cathedral': 6, 'Krigsmuseet': 14, "Alban's Church": 6, 'Islands Brygge': 3, 'Copenhagen Stock Exchange': 8, 'Gråbrødretorv': 13, 'Andersen Statue': 16, "Changing of her Majesty's guard at Amalienborg Castle": 16, 'Radhuspladsen': 16}</t>
-  </si>
-  <si>
-    <t>{'Ljubljana Old Town': 17, 'Puente Triple': 13, 'Plaza Preseren': 5, 'Catedral de San Nicolás': 2, 'Puente de los Dragones': 20, 'The Ljubljana Castle': 17, 'Cankarjevo Nabrežje': 20, 'Plecnik House': 7, 'Metelkova': 17, 'Franciscan Church (Frančiškanska cerkev)': 19, 'Vodnik Square (Vodnikov trg)': 8, 'Cyril and Methodius Orthodox Church': 13, 'Skyscraper (Nebotičnik)': 15, 'Old Square (Stari trg)': 18, 'Gornji Trg': 19, 'Mestni Trg': 1, 'Town Hall (Magistrat)': 7, "Shoemaker's Bridge (Cevljarski Most)": 20, "Butcher's Bridge": 17, 'Žale Cemetery': 14, 'City Museum of Ljubljana': 6, 'Congress Square (Kongresni trg)': 13, 'Fountain of Three Carniolan Rivers (Vodnjak treh kranjskih rek)': 11, 'Cooperative Business Bank': 19, 'Slovenian Philharmonic Hall (Slovenska Filharmonija)': 19, 'Seminary Palace and Library': 7, 'Michael': 19, 'Hauptmann House': 13, 'Ursuline Church of the Holy Trinity': 12, 'Cyril Methodius Square (Ciril-Metodov trg)': 4}</t>
-  </si>
-  <si>
-    <t>{'Tallinn Old Town': 19, 'Colina Toompea': 18, 'Tallinna Raekoja Plats': 16, 'Catedral de Alejandro Nevski': 4, 'Iglesia Oleviste': 4, 'Ayuntamiento': 7, 'Tallinn TV Tower': 1, 'Tallinn Town Hall': 10, 'Kumu Art Museum': 18, "Catherine's Passage": 17, 'Viewing Point Kohtuotsa': 6, 'Pirita': 20, 'Puerta Viru': 8, 'Catedral de Santa María': 20, 'Patkuli Viewing Platform': 18, 'Long Street (Pikk tanav)': 16, 'Rotermann Quarter': 4, 'Kadriorg Palace': 7, 'Church of the Holy Spirit Puhavaimu Kirik': 19, 'Viru Square': 14, 'Fat Margaret (Paks Margareeta)': 12, 'Russalka': 11, 'Bridget (Pirita Klooster)': 10, 'Rataskaevu Street': 13, 'Tallinn Song Festival Grounds': 13, 'Tallinn Legends': 15, 'Castillo Toompea': 7, 'Long Boot (Pikk Jalg)': 3, 'Peter the Great House Museum': 13, "Nicholas' Orthodox Church": 18}</t>
-  </si>
-  <si>
-    <t>{'Torre Eiffel': 1, 'Museo del Louvre': 1, 'Catedral de Notre Dame': 6, 'Santa Capilla': 17, 'Palais Garnier': 11, 'Arco del Triunfo': 14, 'Basilique du Sacre-Coeur de Montmartre': 8, 'Le Marais': 2, 'Montmartre': 7, 'Puente Alexandre III': 1, 'Place des Vosges': 7, 'Champs-Elysees': 17, 'Ile Saint-Louis': 11, 'Père Lachaise Cemetery': 14, 'Saint-Germain-des-Pres': 1, 'Île de la Cité': 4, 'Latin Quarter': 16, 'Observatoire Panoramique de la Tour Montparnasse': 2, 'Panthéon': 8, 'Towers of Notre-Dame Cathedral': 19, 'Centre Pompidou': 11, 'The Paris Catacombs': 18, 'Église Saint-Étienne-du-Mont de Paris': 9, 'Chapelle Notre Dame de la Medaille Miraculeuse': 5, '1st Arrondissement': 9, 'Le Trocadero et son esplanade': 9, 'Luxembourg Palace': 16, 'Rue Montorgueil': 15, 'Hôtel de Ville': 6, 'La Madeleine': 16}</t>
-  </si>
-  <si>
-    <t>{'Acrópolis': 20, 'Partenón': 10, 'Plaka': 13, 'Mount Lycabettus': 15, 'Temple of Hephaestus': 9, 'Panathenaic Stadium': 15, 'Ágora': 4, 'Herod Atticus Odeon': 17, 'Erechtheion': 17, 'Philopappos Hill': 10, 'Anafiotika': 12, 'Monastiraki': 14, 'Temple of Athena Nike': 16, 'Temple of Olympian Zeus': 15, 'Tomb of the Unknown Soldier': 1, 'Theater of Dionysus': 11, 'Areopagus': 7, 'Plateia Syntagmatos': 1, 'Stoa of Attalos': 16, 'Church of Kapnikaréa': 6, 'Psirri': 2, 'Pnyx': 5, 'Parlamento (Vouli)': 11, 'Changing of the Guard Ceremony': 20, 'Arch of Hadrian': 13, 'Metropolitan Cathedral of Athens': 1, 'Ermou Street': 14, 'The Academy of Athens': 1, 'George': 14, 'Adrianou Street': 15}</t>
-  </si>
-  <si>
-    <t>{'Kilmainham Gaol': 6, 'Guinness Storehouse': 12, 'The Book of Kells and the Old Library Exhibition': 6, 'Cementerio de Glasnevin': 7, 'Trinity College': 16, 'Temple Bar': 15, '14 Henrietta Street': 18, 'Croke Park Stadium Tour &amp; GAA Museum': 10, "Saint Patrick's Cathedral": 20, 'Christ Church Cathedral': 4, 'Dublinia': 12, 'The Famine Sculptures': 7, 'Grafton Street': 1, 'Dublin Castle': 4, "Michan's Church": 20, 'Molly Malone Statue': 17, 'Merrion Square': 10, "Ha'penny Bridge": 20, 'Croke Park Stadium': 13, 'Shelbourne Park Greyhound Stadium': 14, "Audoen's Church": 2, 'Aviva Stadium': 9, "O'Connell Street": 9, 'Drimnagh Castle': 3, 'Casino Marino': 12, 'Farmleigh House and Estate': 5, 'Samuel Beckett Bridge': 19, 'Monument to Oscar Wilde': 7, 'The Custom House Visitor Centre': 3, 'Cliff Path Loop': 11}</t>
-  </si>
-  <si>
-    <t>{'Coliseo': 18, 'Pantheon': 2, 'Fontana di Trevi': 1, 'Piazza Navona': 3, 'Basilica di Santa Maria Maggiore': 16, 'Foro Romano': 17, 'Trastevere': 13, 'Roman Forum': 12, "Castillo de Sant'Angelo": 17, 'Monumento a Vittorio Emanuele II': 3, 'Villa Borghese': 7, 'Arcibasilica di San Giovanni in Laterano': 6, 'Centro Storico': 20, "Chiesa di Sant'Ignazio di Loyola": 15, 'Scalinata di Trinità Dei Monti': 1, 'San Pedro Encadenado (San Pietro in Vincoli)': 5, 'Iglesia de San Luis de los Franceses': 8, 'Fontana dei Quattro Fiumi': 16, 'Santa Maria in Trastevere': 10, 'Basílica de San Clemente': 13, 'Palazzo Doria Pamphilj': 9, 'Santa Maria della Vittoria': 11, 'Piazza Venezia': 8, 'Catacombs of Saint Callixtus': 7, 'Domus Aurea': 13, 'Basilica di Santa Maria degli Angeli e dei Martiri': 2, 'Terme di Caracalla': 14, 'Piazza del Popolo': 1, 'Welcome To Rome': 15, 'Plaza del Campidoglio': 6}</t>
-  </si>
-  <si>
-    <t>{'Vilnius Old Town': 4, '0': 2, 'Iglesia de San Pedro y San Pablo': 3, 'Iglesia de Santa Ana': 8, 'Puerta de la Aurora': 6, 'Uzupis': 19, 'Holy Spirit Orthodox Church': 11, 'Paneriai (Ponar)': 19, 'Vilnius Cathedral': 3, 'Vilnius University (Vilniaus Universitetas)': 6, 'Bernardine Church (Bernardinu Baznycia)': 17, 'Vingis Park': 13, "St John's church": 19, 'Vilnius Cathedral Square': 20, 'Vilnius TV Tower': 1, 'Castle Hill': 10, 'Theresa': 20, 'Bell Tower of Vilnius Cathedral': 17, 'Stebuklas': 15, 'Rasu Cemetery (Rasu kapines)': 14, 'Gediminas Avenue': 17, 'Casimir': 17, 'Monument to Zemach Shabad': 20, 'Uzupis Mermaid': 8, 'Presidential Palace': 20, 'Antakalnis Cemetery': 18, 'Uzupis Angel': 1, 'Artworks on Literatu str': 18, 'Vilnius Choral Synagogue': 14, 'Church of the Holy Spirit (Sventosios Dvasios Baznycia)': 13}</t>
-  </si>
-  <si>
-    <t>{'Old Bazaar, Skopje': 11, 'The Stone Bridge': 18, 'Macedonia Square': 2, 'Millennium Cross': 6, 'Memorial House of Mother Teresa': 8, 'Panteleimon': 7, 'Warrior on a Horse': 12, 'Holy Savior Church': 13, 'Mustafa Pasha Mosque': 10, 'Clement of Ohrid': 16, 'Skopje Art Bridge': 7, 'Daut Pasha Hamam': 6, 'Skopje Fortress Kale': 16, 'Phillip II of Macedon': 19, 'Fountain of the Mothers of Macedonia': 15, 'Skopje Eye Bridge': 3, 'Skopje Aqueduct': 2, 'Kapan Han': 3, 'Sultan Murad Mosque': 15, 'Statue Divers': 8, 'Museum City of Skopje': 5, 'Church of Saint Dimitrija': 5, "Memorial plaque of Mother Teresa's birth house": 2, 'Church of the Ascension of Jesus': 13, 'Stobi': 12, 'Fallen Heroes of Macedonia': 10, 'Porta Macedonia aka Gate Macedonia': 17, 'National Arena Philip II of Macedonia': 6, 'Mosque Iskhak-Bek': 5, 'Clock Tower Saat Kula': 11}</t>
-  </si>
-  <si>
-    <t>{'Victory Memorial and Eternal Flame': 4, 'Catedrala Nasterea Domnului': 8, 'Theodor Tiron Convent': 18, 'Stephen the Great Monument': 1, 'Sculpture of Lovers': 3, 'Triumphal Arch': 18, 'Afghan War Memorial To Sons of Motherland - Eternal Memory': 2, 'Dormition of the Theotokos': 12, 'Pedestrian Street': 2, 'Jewish Cemetery': 13, 'Chisinau Railway Station': 11, 'Orthodox Cathedral of the Transfiguration of the Saviour': 4, 'Sculpture of Skateboarders': 15, 'Monument to the Victims of Jewish Ghetto': 13, 'Nicholas': 14, 'Kishinev Jacobs Jewish Cultural Center': 17, 'Parliament of the Republic of Moldova': 8, 'Chisinau Mosque': 15, 'Metropolitan Cathedral': 10, 'Chisinau City Hall': 18, 'Synagogue Chabad Lubavitch': 8, 'Cathedral of Divine Providence': 9, "Mary's Armenian Apostolic Church": 19, 'Monument to the Heroes-Komsomol': 13, 'Mazarachi Church': 7, 'Monument to the Liberators of Chisinau from the Nazi Troops': 16, 'Monument to Sergey Lazo': 10, 'Memorial to Victims of Stalinist Repression': 6, 'Tekwill Technology Hub': 6, '1 Ban Monument': 5}</t>
-  </si>
-  <si>
-    <t>{'Jordaan': 3, 'Estación Central': 12, 'Barrio Rojo': 13, 'Museo Casa de Rembrandt': 6, 'La Plaza Dam': 9, "A'dam Lookout": 8, 'Museum Quarter': 9, 'Palacio Real': 11, 'Begijnhof': 17, 'Amsterdam Canal Ring': 6, 'Johan Cruyff Arena': 6, 'Sinagoga Portuguesa': 19, 'Las Nueve Calles': 14, 'El Amstel': 7, 'De Duif': 2, 'Plaza Leidseplein': 12, 'Rembrandtplein': 16, 'Ziggo Dome': 5, 'Museum Van Loon': 20, 'Willet-Holthuysen Museum': 19, 'Nicholas Basilica': 20, 'De Poezenboot': 2, 'De Hallen Amsterdam': 1, 'Westerkerk': 19, 'Brouwersgracht': 1, 'Haarlemmerstraat': 9, 'De Krijtberg - Sint Franciscus Xaveriuskerk': 3, 'Nieuwmarkt': 13, 'Museum Het Schip': 4, 'Magere Brug': 14}</t>
-  </si>
-  <si>
-    <t>{'Alfama': 14, 'Mosteiro dos Jerónimos': 3, 'Praca do Comercio (Terreiro do Paco)': 13, 'Barrio Alto': 19, 'Castillo de San Jorge': 3, 'Belem': 10, 'Miradouro da Senhora do Monte': 18, 'Chiado': 6, 'Padrao dos Descobrimentos': 7, 'Arco do Triunfo': 17, 'Igreja de São Roque': 6, '25 de Abril Bridge': 13, 'Estadio do Sport Lisboa e Benfica': 9, 'LX Factory': 9, 'La Locomotiva Tours': 20, 'Parque das Nacoes': 1, 'Vasco da Gama Bridge': 17, 'Miradouro da Graca (Sophia de Mello Breyner Andresen)': 12, 'Palacio de Ajuda': 3, 'Panteao Nacional': 16, 'Avenida da Liberdade': 10, 'Miradouro de Santa Luzia': 4, 'Rossio Square': 14, 'Santo Antonio de Lisboa': 4, 'Mosteiro De Sao Vicente De Fora': 18, 'Rua Augusta': 20, 'Santa Maria de Belem Church': 18, 'Vasco da Gama Shopping Center': 5, 'Palácio dos Marqueses de Fronteira': 20, 'Miradouro das Portas do Sol': 11}</t>
-  </si>
-  <si>
-    <t>{'Staromestske namesti': 11, 'Karlův Most': 10, 'Catedral de San Vito': 2, 'Prague Castle': 3, 'Staroměstská Radnice': 11, 'Lesser Town': 2, 'Hradčany': 11, 'Sinagoga Española': 4, 'Monte Petřín': 8, 'Iglesia de San Nicolás': 2, 'Palacio Lobkowicz': 19, 'Monumento Cultural Nacional Vysehrad': 5, 'Obecní Dům': 19, 'Church of Our Lady before Tyn': 13, 'National Memorial to the Heroes of the Heydrich Terror': 19, 'Franz Kafka Statue': 15, 'Petrin Tower': 11, 'Old Town Bridge Tower': 5, 'Kostel Panny Marie Vítězné a Pražské Jezulátko': 9, 'St Cyril and St Methodius Cathedral': 11, 'Prašná brána': 17, 'Rudolfinum': 17, 'The Vrtba Garden': 13, 'Wenceslas Square (Václavské náměstí)': 9, 'Waldstein Palace': 14, 'Loreta Praha': 10, 'Pinkas Synagogue, Jewish Museum in Prague': 3, 'Dancing House': 12, 'Convent of St Agnes of Bohemia - National Gallery Prague': 15, 'John Lennon Wall': 2}</t>
-  </si>
-  <si>
-    <t>{'Stockholm Old Town': 5, 'Ayuntamiento': 14, 'Djurgarden': 1, 'Palacio Real': 4, 'Monteliusvagen': 1, 'Södermalm': 17, 'Stortorget': 15, 'Catedral de Estocolmo': 19, 'Skogskyrkogården': 11, 'Galería Thiel': 17, 'Strandvagen': 4, 'Parliament Building (Riksdagshuset)': 18, 'Mirador Fjallgatan': 15, 'Ostermalm': 14, 'Riddarholm Church (Riddarholmskyrkan)': 16, 'Iglesia Alemana': 7, 'Globen Skyview': 1, 'Royal Dramatic Theater (Kungliga Dramatiska Teatern)': 15, 'Järnpojken': 10, 'Cirkus Arena': 1, 'Avicii Arena': 17, 'Kulturhuset': 15, 'Norrmalm': 17, 'S:ta Clara kyrka': 2, 'Judiska Församlingen I Stockholm': 15, 'Riddarhuset': 17, 'Tele2 Arena': 7, 'The Stockholm Concert Hall': 16, 'Katarina Hissen': 15, 'Vinterviken': 7}</t>
-  </si>
-  <si>
-    <t>{'Reichstag Building': 8, 'Puerta de Brandeburgo': 10, 'Memorial del Holocausto': 9, 'Memorial del Muro de Berlín': 2, 'East Side Gallery': 10, 'Friedrichstadt-Palast': 11, 'Museum Island': 5, 'Berliner Dom': 20, 'Gendarmenmarkt': 17, 'Fernsehturm de Berlín': 18, 'Filarmónica de Berlín': 1, 'Memorial Berlín Hohenschönhausen': 1, 'Kaiser Wilhelm Memorial Church': 18, 'Olympiastadion Berlin': 13, 'Victory Column (Siegessaule)': 3, 'Charlottenburg Palace': 3, 'Museo Histórico Alemán': 7, 'Potsdamer Platz': 16, 'Alexanderplatz': 19, 'Tempelhof Airport': 8, 'Die Hackeschen Hoefe': 7, 'Estación Central de Berlín': 3, 'Berlín-Mitte': 2, 'Checkpoint Charlie': 13, 'Haus der Wannsee-Konferenz': 10, 'Kurfürstendamm': 18, 'Panoramapunkt': 18, 'Prenzlauer Berg': 13, 'Gleis 17, Grunewald': 17, 'Kreuzberg': 17}</t>
-  </si>
-  <si>
-    <t>{'Gran Plaza': 5, 'Les Galeries Royales Saint-Hubert': 19, 'Atomium': 20, 'Catedral de San Miguel y Santa Gúdula': 18, 'Town Hall (Hôtel de Ville)': 11, 'Parc du Cinquantenaire': 1, 'Guild Houses': 20, 'Notre Dame du Sablon': 9, 'Parlamentarium: Centro de visitas del Parlamento Europeo': 15, 'Manneken Pis': 13, 'Mont des Arts': 3, 'Serres Royales De Laeken': 1, 'Royal Palace (Palais Royal)': 17, 'Bois de la Cambre': 13, 'National Basilica of the Sacred Heart': 10, 'Place du Grand Sablon': 14, 'Catherine': 11, 'Belgian Comic Strip Center': 5, 'European Parliament Hemicycle (free visits)': 7, 'Gery': 13, 'Tintin Mural Painting': 1, 'Justice Palace (Palais de Justice)': 7, 'Coudenberg Palace': 16, 'Porte de Hal': 9, 'Le Botanique': 13, 'Lower Town': 12, 'La Bourse de Bruxelles': 11, 'Avenue Louise': 12, 'Jeanneke Pis': 14, 'Place Royale': 12}</t>
-  </si>
-  <si>
-    <t>{'Sarajevo War Tunnel': 5, 'Bascarsija': 2, 'Sarajevo Olympic Bobsleigh and Luge Track': 4, 'Sarajevo City Hall': 9, 'Gazi Husrev-beg Mosque': 20, 'The Yellow Fortress': 9, 'Avaz Twist Tower': 13, 'Katedrala Srca Isusova': 3, 'Sebilj Brunnen (Fountain)': 9, 'Latin Bridge': 14, 'Ferhadija Pedestrian Street': 1, 'Church of the Holy Archangels Michael and Gabriel in Sarajevo': 13, 'Sarajevo Memorial for Children Killed during Siege': 3, 'Eternal Flame': 9, 'Sniper Alley': 18, 'Pijaca Markale': 10, 'Serbian Orthodox Cathedral': 17, 'Alifakovac Cemetery': 17, 'Gazi Husrev Begova Medresa': 9, 'TasliHan': 4, 'Old Sarajevo Clock Tower': 14, 'Ashkenazi Synagogue': 9, 'Romeo and Juliet Bridge': 2, 'Central Post Office': 18, 'Bridge Festina Lente': 15, 'The Academy of Fine Arts': 4, "Goat's Bridge": 15, "Emperor's Mosque": 2, 'Alipasina Mosque': 14, 'Bosniak Institute': 20}</t>
-  </si>
-  <si>
-    <t>{'Tkalčićeva Street': 15, 'Upper Town (Gornji Grad)': 7, 'Iglesia de San Marcos': 11, 'Cementerio Mirogoj': 13, 'Cathedral of the Assumption': 13, 'Ban Josip Jelačić Square': 8, 'Croatian National Theatre in Zagreb': 8, 'Lotrščak Tower': 2, 'Lower Town': 7, 'Funicular Railway': 7, 'King Tomislav Square': 20, 'Puerta de Piedra': 2, 'Ban Josip Jelacic Monument': 3, 'Radićeva': 14, 'Holy Mary Monument': 18, 'Strossmayer Promenade': 6, 'Ilica': 7, 'Tunel Gric': 12, 'The Well of Life': 20, 'Republic of Croatia Square / Trg Republike Hrvatske': 19, 'Zagreb Cathedral': 12, 'Nikola Tesla Statue': 7, 'Medvedgrad Visitor Center': 20, 'Catherine': 16, "Mark's Square": 14, 'Square of Petar Preradovic': 7, 'Zagreb Orthodox Cathedral': 16, 'Saint George Statue': 13, 'King Tomislav Statue': 13, 'Mandusevac Fountain': 20}</t>
-  </si>
-  <si>
-    <t>{'Casco antiguo': 15, 'Castillo Devin': 10, 'Cumil': 4, 'Modry Kostol': 4, 'Bratislava Castle': 15, 'Slavin': 14, 'UFO Observation Deck': 18, 'Plaza Mayor': 7, 'Ayuntamiento Viejo': 13, "Michael's Tower &amp; Street": 10, 'Puerta de San Miguel': 3, "Martin's Cathedral (Dom svateho Martina)": 7, 'Hviezdoslavovo Namestie': 11, 'Schone Naci Statue': 15, 'Slovak Philharmonic': 3, 'Napoleon’s Army Soldier Statue': 14, 'The Grassalkovich palace - Presidential palace': 13, 'New Bridge (Novy Most)': 7, "Primates' Palace (Primacialny palac)": 11, 'Statue of Hans Christian Andersen': 6, 'Kapitulska Street': 3, 'Chatam Sofer Memorial': 10, 'Ondrej Nepela Arena': 5, 'George and the Dragon': 9, 'Maximilian´s Fountain': 1, 'Stary most': 14, 'Building of Slovak Radio': 18, 'Franciscan Church and Monastery': 9, 'The old Slovak National Theater': 2, 'Apollo Bridge': 13}</t>
-  </si>
-  <si>
-    <t>{'Fortaleza de Suomenlinna': 20, 'Temppeliaukion Church': 3, 'Catedral Luterana': 17, 'Catedral Ortodoxa Uspenski': 9, 'Old Market Hall': 11, 'Museo al aire libre de Seurasaari': 5, 'Kamppi Chapel of Silence': 11, 'The Esplanadi Park': 14, 'Plaza del Senado': 18, 'Helsingin Päärautatieasema': 7, 'The National Library of Finland': 6, 'Hakaniemi Market': 19, 'Kauppatori': 4, 'Museo Mannerheim': 19, 'Katajanokka': 9, 'Johannes Church': 20, 'The Aalto House': 15, 'Hakaniemi Market Hall': 7, 'Havis Amanda': 20, 'Toolo Bay (Toolonlahti)': 20, 'Olympic Stadium (Olympiastadion)': 10, 'Sibelius Monument': 9, 'Hietaniemi Cemetery': 1, 'SkyWheel Helsinki': 15, 'Talvipuutarha': 8, 'Kallio Church': 2, 'Hartwall Arena': 8, 'Helsinki University Library': 20, 'University of Helsinki (Helsingin Yliopisto)': 16, 'Design District': 8}</t>
-  </si>
-  <si>
-    <t>{'Parlamento': 1, "Fisherman's Bastion": 15, 'Basílica de San Esteban': 3, 'Zapatos en el Danubio': 5, 'Matthias Church': 9, "Heroes' Square": 8, 'Budai Vár': 16, 'Varhegy': 5, 'Puente de las Cadenas': 2, 'Colina y Estatua Gellért': 1, 'Hungarian State Opera House (Magyar Allami Operahaz)': 7, '3d Gallery Budapest': 6, 'Vajdahunyad Castle (Vajdahunyadvar)': 1, 'Gran Sinagoga': 6, 'Gozsdu Udvar': 8, 'Puente de la Libertad': 16, 'Citadel': 1, 'Music Fountain': 10, 'Vaci Street': 19, 'Andrassy Avenue': 16, 'Museo Nacional Húngaro': 18, 'New York Palace': 16, 'Statue of St Stephen': 15, 'Plaza Vorosmarty (Vorosmarty ter)': 13, 'Gresham Palace': 4, "Anonymus Szobor (Anonymous' Statue)": 18, 'Bagni Széchenyi': 10, 'Kossuth Lajos Square': 18, 'Korzo - Danube Embankment (Dunakorzó)': 14, 'Castle Garden': 13}</t>
-  </si>
-  <si>
-    <t>{'Iglesia de Hallgrímur (Hallgrimskirkja)': 3, 'Perlan': 1, 'Harpa Reykjavik Concert Hall and Conference Centre': 11, 'Sun Voyager': 7, 'Reykjavík 871±2': 16, 'Laugavegur': 18, 'Árbær Open Air Museum': 8, 'Museo Einar Jonsson': 6, 'Videy Island': 16, 'Grotta Lighthouse': 9, 'Reykjavík Art Museum Ásmundarsafn': 10, 'The Statue of Leif Eiriksson': 3, 'Geothermal Area Krysuvik': 5, 'Reykjavik City Hall': 10, 'Cemetery Holavallagardur': 6, 'Domkirkjan': 9, 'Bjarteyjarsandur': 17, 'Hofdi House': 6, 'Imagine Peace Tower': 2, 'Thufa': 9, 'Parliament House (Althingishus)': 4, 'The Nordic House': 17, 'Sculpture and Shore Walk': 18, 'Bárður Snæfellsás': 15, 'Thorsmork': 19, 'Arnarholl Statue': 11, 'Christ The King Cathedral': 1, 'Skolavordustigur': 19, 'Hannesarholt': 10, 'Háteigskirkja Church': 5}</t>
-  </si>
-  <si>
-    <t>{'Old City Riga (Vecriga)': 16, 'Riga Town Hall Square': 13, 'House Of The Black Heads': 20, 'Alberta Iela': 18, "View of Riga from St Peter's Church Tower": 19, 'Freedom Monument': 19, 'Latvian Ethnographic Open Air Museum': 1, 'Jugenda Stila Nami': 10, 'Riga Cathedral': 4, 'Panorama Riga Observation Deck': 11, 'Nativity of Christ Cathedral': 11, 'Vermanes Garden': 17, 'Jauniela': 5, "Peter's Church": 3, 'Cat House': 8, 'Bremen Town Musicians': 14, 'Livu Square': 13, 'Rumbula Forest Memorial': 13, 'Swedish Gate (Zviedru Varti)': 20, 'Arena Riga': 18, "John's Church": 16, 'Riga Radio and TV Tower': 11, 'Bikernieki Memorial': 20, 'The House that was Built in 1903': 2, 'Latvian National Theater': 1, 'Sculpture The Ghost': 2, 'Temple of the Holy Prince Alexander Nevskiy': 10, 'Small Guild of Riga': 13, 'Gertrude Old Church': 19, 'Riga Synagogue': 14}</t>
-  </si>
-  <si>
-    <t>{'Vianden Castle': 16, 'Le Chemin de la Corniche': 1, 'Luxembourg American Cemetery Memorial': 8, 'Cathédrale Notre-Dame': 7, 'Grund': 3, 'Pfaffenthal Lift': 4, 'MNHM National Museum of Military History': 14, 'Casemates du Bock': 10, 'Grand Ducal Palace': 13, 'Wenzel Circular Walk': 2, 'Pont Adolphe': 15, "Place d'Armes": 12, 'Viaduc (Passerelle)': 12, 'Mudam Luxembourg Musée d’Art Moderne': 6, 'Bourscheid Castle': 13, 'Place de la Constitution': 10, 'Abbey of Echternach': 5, '': 18, 'Holy Ghost Citadel': 1, 'Beaufort Castles': 14, 'Rockhal': 3, 'Chateau de Clervaux': 18, 'Abbaye Saint-Maurice de Clervaux': 20, 'Blast Furnace Belval': 6, "Monument du Souvenir - 'Gëlle Fra'": 17, 'Larochette Castle': 10, "Saint Michel's Church": 3, 'Chateau Esch-sur-Sûre': 5, 'Monument National de la Solidarite': 3, 'Hollow Tooth': 1}</t>
-  </si>
-  <si>
-    <t>{'Concatedral de San Juan': 14, 'Lascaris War Rooms': 19, 'Fort St Elmo - National War Museum': 15, 'Casa Rocca Piccola': 8, 'Saluting Battery': 2, 'Valletta Waterfront': 10, 'War HQ Tunnel': 4, 'Three Cities': 13, 'Barrakka Lift': 11, 'Iglesia del Naufragio de San Pablo': 1, 'Strait Street': 2, 'Triton Fountain': 13, "Grandmaster's Palace": 5, 'Valletta City Gate': 1, 'Shrine of Our Lady of Mount Carmel': 20, 'Siege Bell War Memorial': 5, "Paul's Anglican Pro-Cathedral": 10, "Il-Berga ta' Kastilja": 14, 'St George Square': 19, 'Victoria Gate': 5, 'Our Lady of Victories Church': 18, 'The New Parliament': 10, "Francis' Church Valletta": 7, 'Pjazza Teatru Rjal': 20, 'Reliving The Sacra Infermeria': 4, 'Mediterranean Conference Centre': 2, 'St Augustine Church &amp; Priory': 6, 'Catherine of Italy': 4, "Auberge d'Italie": 7, 'Independence Monument': 2}</t>
-  </si>
-  <si>
-    <t>{'Museo del Pueblo Noruego': 19, 'Castillo y Fortaleza de Akershus': 1, 'Ayuntamiento de Oslo': 8, 'El Palacio Real': 2, 'Karl Johans gate': 19, 'Oslomarka': 14, 'Fortaleza de Oscarborg': 11, 'Grünerløkka': 10, 'Drobak': 2, "Oslo's Harbour Promenade": 8, 'The Norwegian Parliament': 15, 'Emanuel Vigeland Museum': 11, 'juli-senteret': 3, 'Oslo Cathedral (Oslo Domkirke)': 20, 'Tjuvholmen Sculpture Park': 8, 'Tiger Sculpture': 4, 'Ostbanehallen': 12, 'Barcode Oslo': 10, 'Waterfall at Molla': 7, 'The Bergen Railway': 10, 'Tjuvholmen Neighbourhood': 6, 'Oslo Spektrum': 5, 'The Viking Planet Oslo': 8, 'Old Aker Church': 3, 'She Lies': 19, 'Bogstad Gard': 20, 'Vulkan Neighbourhood': 11, 'Street Art at Ingens gate': 14, 'Oscarshall': 2, 'Sagene Church': 10}</t>
-  </si>
-  <si>
-    <t>{'Old Town': 3, 'Rynek Starego Miasta': 12, 'Castle Square (Plac Zamkowy)': 20, 'Palace of Culture and Science': 15, 'Zamek Królewski w Warszawie - Muzeum': 17, 'Nowy Swiat': 2, 'Krakowskie Przedmiescie': 10, 'Monument to the Warsaw Uprising Fighters': 10, 'Palace on the Island': 19, 'Chopin Monument': 19, 'Pomnik Bohaterów Getta': 20, 'Hala Koszyki': 1, 'Grób Nieznanego Żołnierza': 16, 'Viewing Terrace': 5, 'PGE National Stadium': 10, "Anne's Church (Kosciol Swietej Anny)": 15, 'Warsaw Barbican (Barbakan Warszawski)': 12, 'Jewish Cemetery (Cmentarz Zydowski)': 5, 'Statue of the Little Insurgent': 11, 'Cmentarz Wojskowy na Powazkach': 4, 'Multimedia Fountain Park': 5, 'Warsaw Mermaid': 5, 'Holy Cross Church (Kosciol Swietego Krzyza)': 1, 'Warsaw Ghetto': 5, 'Legia Warsaw Municipal Stadium of Marshal Jozef Pilsudski': 20, 'Fragment of Ghetto Wall': 11, "King Sigismund's Column (Kolumna Zygmunta)": 19, 'John the Baptist': 15, 'University of Warsaw (Uniwersytet Warszawski)': 11, 'Fabryka Norblina': 5}</t>
-  </si>
-  <si>
-    <t>{'Iglesia Stavropoleos': 4, 'Muzeul Naţional al Satului "Dimitrie Gusti"': 8, 'Palace of Parliament': 11, 'Ateneo Romano': 15, 'Old Town': 8, 'Lipscani': 18, 'Piața Unirii': 4, "Manuc's Inn (Hanul lui Manuc)": 13, 'Catedrala Patriarhală': 7, 'Carol Park': 16, 'Calea Victoriei': 17, 'Piața Revoluției': 9, 'Triumph Arch (Arcul de Triumf)': 7, 'Palatul CEC': 2, 'National Theatre Ion Luca Caragiale (Teatrul Național Ion Luca Caragiale)': 1, 'Biserica Sfântul Gheorghe Nou': 7, 'Biserica Sfântul Anton - Curtea Veche': 2, 'Muzeul Colecțiilor de Artă': 14, 'National Arena Stadium Bucharest': 11, 'Nicolae': 18, 'Cercul Militar Național (CCA)': 15, 'The Choral Temple': 3, 'Bellu Cemetery (Cimitirul Șerban Vodă-Bellu)': 14, 'Bucharest Municipal Museum': 12, 'Biserica Kretzulescu': 18, 'Mănăstirea Antim': 7, 'Colțea Hospital (Spitalul Colțea)': 11, 'Great Synagogue': 7, 'Macca Villacrosse Passage': 12, 'Radu Vodă Monastery (Mănăstirea Radu Vodă)': 5}</t>
-  </si>
-  <si>
-    <t>{'The Belgrade Fortress': 4, 'Knez Mihailova': 13, 'Sava Temple': 16, 'Skadarlija': 12, 'Kalemegdan Park and Belgrade Fortress': 4, "Saint Petka's Chapel": 11, 'The Millenary Monument': 2, 'Church of the Holy Mother of God': 7, 'Zemunski kej': 4, 'Crkva Svetog Marka': 12, 'The National Assembly': 4, 'Avala Tower': 9, 'Residence of Princess Ljubica (Konak Kneginje Ljubice': 10, "Michael's Cathedral": 4, 'Red Star Belgrade Stadium - Marakana': 7, 'Trg Republike': 1, 'Sava Bridge': 6, 'Dorcol': 8, 'Public Aquarium and Tropicarium Belgrade': 6, 'Kombank Arena': 5, 'Royal Palace': 1, 'Crkva Svetog Oca Nikolaja': 6, 'Nebojsa Tower': 14, 'Bayraklee mosque (Bajrakli džamija)': 18, 'Patriarchate of the Serbian Orthodox Church': 3, 'Partizan Stadium': 1, 'Terazije Fountain': 19, 'White Palace': 14, 'Tresije': 13, 'Grocka': 7}</t>
+    <t>{'Skanderbeg Square': 18, 'Et`hem Bey Mosque': 8, 'Orthodox Autocephalous Church of Albania': 3, 'Skanderbeg Statue': 17, 'Clock Tower': 5, 'Rruga Murat Toptani': 15, "Tanners' Bridge": 13, 'Peace Bell': 5, 'Kapllan Pasha’s Tomb': 18, 'Saint Paul Cathedral': 1, 'Enver Hoxha Pyramid': 17, 'Marie': 19, 'Great mosque of Tirana': 7, 'Unknown Partisan Monument': 14, 'Fortress of Justinian': 16, 'Postbllok - Checkpoint Monument': 2, 'Bektashi World Centre': 13, 'TID Tower': 5, 'Reja "The Cloud"': 10, 'Blloku': 4, 'Polytechnic University of Tirana': 12, 'Qemal Stafa Stadium': 9, 'Friendship Monument': 10, 'Independence Monument': 3, 'Fan Noli statue': 1, 'Mosaic of Tirana': 5, 'Baitul Awwal Mosque': 1, 'Xhura Mosque': 2, 'Pomnik Fryderyka Chopina': 18, 'Selman Stermasi Stadium': 2}</t>
+  </si>
+  <si>
+    <t>{'Palacio de Schönbrunn': 6, 'Historic Center of Vienna': 18, 'Catedral de San Esteban': 2, 'Belvedere Museum': 19, 'Schonbrunner Gardens': 8, 'Rathaus': 2, 'State Hall of the Austrian National Library': 17, 'Peterskirche': 11, 'Plaza de San Esteban (Stephansplatz)': 1, 'Rathausplatz': 4, 'Cementerio Central (Zentralfriedhof)': 20, 'Volksgarten': 14, 'Ringstrasse': 7, 'Museo KunstHausWien': 4, 'Hundertwasserhaus': 12, 'Casa de la musica': 5, 'Graben and Kohlmarkt': 2, 'Kahlenberg': 3, 'Karlskirche': 7, 'Imperial Crypt': 3, 'Church of the Jesuits': 6, 'Kirche am Steinhof': 9, 'Danube Tower': 1, 'Votivkirche': 3, 'Michaelerplatz': 11, 'Österreichisches Parlament': 17, 'Maria Theresia Denkmal': 7, 'MAK - Austrian Museum of Applied Arts/Contemporary Art': 9, 'Wiener Riesenrad': 6, 'Mariahilfer Strasse': 16}</t>
+  </si>
+  <si>
+    <t>{'Church of Saints Simon and Helena': 6, 'Island of Tears': 19, 'Victory Square': 4, 'Upper City': 18, 'Monument to Fallen Jewish People on March 2, 1942': 12, 'Minsk-Arena Complex': 1, 'Holy Spirit Cathedral': 13, 'Minsk Gates': 5, 'Independence Square, Minsk': 11, 'Svislach River Embankment': 5, 'Loshitskiy Park': 13, 'Central Botanical Garden of the National Academy of Sciences of Belarus': 1, 'Minsk Railway station': 19, 'Trinity Hill': 14, 'Archcathedral Holy Name of the Blessed Virgin Mary': 9, 'Minsk City Hall': 1, 'Sculpture': 9, 'Church of All Saints': 17, 'Fountain of Independence': 2, 'Zero Kilometr of Belarus': 8, 'Observation Deck of National Library of Belarus': 16, 'Graffiti Street': 2, 'Saint Elisabeth Convent': 16, 'Crying Guardian Angel': 2, "Paul's Cathedral": 15, 'Liberty Square': 4, 'Gallery Slavutyya Maistry': 1, 'Mary Magdalene': 4, 'Chizhovka Arena': 12, 'IT-country birthplace': 13}</t>
+  </si>
+  <si>
+    <t>{'Iglesia de Alexander Nevski': 15, 'Vitosha Boulevard': 11, 'Iglesia Rusa de San Nicolás': 12, 'Iglesia de Boyana': 16, 'The Rotunda Church of St George': 13, 'Saint Sofia Church': 14, 'St Nedelya Church': 9, 'Sofia Synagogue': 10, 'National Palace of Culture Congress Centre': 19, 'Amphitheatre of Serdica': 17, 'Former Bulgarian Communist Party Headquarters': 14, 'Banya Bashi Mosque': 16, 'Church of St Petka of the Saddlers': 9, 'Sofia University Saint Kliment Ohridski': 14, 'Statue of Tsar Alexander II': 8, 'Sveti Sedmochislenitsi Church': 15, 'The Bells (Kambanite)': 6, 'Soviet Army Monument': 20, 'Monument to the Deity All-Holy Sofia': 6, 'Statue of Slaveikovs': 13, 'Slaveikov Square': 8, 'Dragalevtsi Monastery': 13, 'Ancient Serdica Archaeological Complex': 1, 'The Presidency Building': 12, 'Monument to the Unknown Warrior': 15, 'National Assembly of the Republic of Bulgaria': 17, 'Boyana Village': 1, 'Saint Nikolai Sofiyski': 7, 'Snail Home': 9, 'Mineral water springs': 6}</t>
+  </si>
+  <si>
+    <t>{'Nyhavn': 16, 'Rosenborg Castle': 19, "Our Saviour's Church": 1, 'Rundetårn': 3, 'Museo Nacional': 6, 'Palacio de Christiansborg': 2, 'Copenhagen Opera House': 2, 'Palacio de Amalienborg': 10, 'Kastellet': 17, 'Frederiks Kirke (Marmorkirken)': 15, 'Strøget': 2, 'The Little Mermaid': 2, 'Copenhagen City Hall': 9, 'Gefionspringvandet': 7, 'Grundtvig Church (Grundtvigs Kirke)': 13, 'Frederiksberg Slot': 1, 'Christiania': 17, 'Assistens Cemetery': 17, 'Copenhagen Central Station': 17, 'Thorvaldsens Museum': 17, 'Visit Carlsberg Brand Store': 11, 'Church of Our Lady - Copenhagen Cathedral': 15, 'Krigsmuseet': 19, "Alban's Church": 6, 'Islands Brygge': 10, 'Copenhagen Stock Exchange': 20, 'Gråbrødretorv': 11, 'Andersen Statue': 9, "Changing of her Majesty's guard at Amalienborg Castle": 9, 'Radhuspladsen': 10}</t>
+  </si>
+  <si>
+    <t>{'Ljubljana Old Town': 19, 'Puente Triple': 5, 'Plaza Preseren': 4, 'Catedral de San Nicolás': 1, 'Puente de los Dragones': 20, 'The Ljubljana Castle': 1, 'Cankarjevo Nabrežje': 6, 'Plecnik House': 11, 'Metelkova': 6, 'Franciscan Church (Frančiškanska cerkev)': 2, 'Vodnik Square (Vodnikov trg)': 3, 'Cyril and Methodius Orthodox Church': 5, 'Skyscraper (Nebotičnik)': 17, 'Old Square (Stari trg)': 16, 'Gornji Trg': 1, 'Mestni Trg': 5, 'Town Hall (Magistrat)': 19, "Shoemaker's Bridge (Cevljarski Most)": 12, "Butcher's Bridge": 6, 'Žale Cemetery': 3, 'City Museum of Ljubljana': 1, 'Congress Square (Kongresni trg)': 13, 'Fountain of Three Carniolan Rivers (Vodnjak treh kranjskih rek)': 18, 'Cooperative Business Bank': 14, 'Slovenian Philharmonic Hall (Slovenska Filharmonija)': 14, 'Seminary Palace and Library': 12, 'Michael': 17, 'Hauptmann House': 17, 'Ursuline Church of the Holy Trinity': 1, 'Cyril Methodius Square (Ciril-Metodov trg)': 6}</t>
+  </si>
+  <si>
+    <t>{'Tallinn Old Town': 14, 'Colina Toompea': 3, 'Tallinna Raekoja Plats': 9, 'Catedral de Alejandro Nevski': 6, 'Iglesia Oleviste': 19, 'Ayuntamiento': 8, 'Tallinn TV Tower': 4, 'Tallinn Town Hall': 11, 'Kumu Art Museum': 12, "Catherine's Passage": 11, 'Viewing Point Kohtuotsa': 8, 'Pirita': 3, 'Puerta Viru': 1, 'Catedral de Santa María': 20, 'Patkuli Viewing Platform': 1, 'Long Street (Pikk tanav)': 18, 'Rotermann Quarter': 13, 'Kadriorg Palace': 14, 'Church of the Holy Spirit Puhavaimu Kirik': 1, 'Viru Square': 2, 'Fat Margaret (Paks Margareeta)': 11, 'Russalka': 3, 'Bridget (Pirita Klooster)': 7, 'Rataskaevu Street': 4, 'Tallinn Song Festival Grounds': 4, 'Tallinn Legends': 19, 'Castillo Toompea': 20, 'Long Boot (Pikk Jalg)': 11, 'Peter the Great House Museum': 16, "Nicholas' Orthodox Church": 8}</t>
+  </si>
+  <si>
+    <t>{'Torre Eiffel': 20, 'Museo del Louvre': 11, 'Catedral de Notre Dame': 18, 'Santa Capilla': 12, 'Palais Garnier': 4, 'Arco del Triunfo': 9, 'Basilique du Sacre-Coeur de Montmartre': 15, 'Le Marais': 16, 'Montmartre': 1, 'Puente Alexandre III': 4, 'Place des Vosges': 20, 'Champs-Elysees': 3, 'Ile Saint-Louis': 17, 'Père Lachaise Cemetery': 4, 'Saint-Germain-des-Pres': 8, 'Île de la Cité': 11, 'Latin Quarter': 12, 'Observatoire Panoramique de la Tour Montparnasse': 5, 'Panthéon': 16, 'Towers of Notre-Dame Cathedral': 20, 'Centre Pompidou': 7, 'The Paris Catacombs': 6, 'Église Saint-Étienne-du-Mont de Paris': 12, 'Chapelle Notre Dame de la Medaille Miraculeuse': 20, '1st Arrondissement': 16, 'Le Trocadero et son esplanade': 9, 'Luxembourg Palace': 2, 'Rue Montorgueil': 9, 'Hôtel de Ville': 18, 'La Madeleine': 6}</t>
+  </si>
+  <si>
+    <t>{'Acrópolis': 13, 'Partenón': 11, 'Plaka': 7, 'Mount Lycabettus': 6, 'Temple of Hephaestus': 6, 'Panathenaic Stadium': 17, 'Ágora': 12, 'Herod Atticus Odeon': 18, 'Erechtheion': 5, 'Anafiotika': 4, 'Philopappos Hill': 7, 'Monastiraki': 2, 'Temple of Athena Nike': 14, 'Temple of Olympian Zeus': 2, 'Tomb of the Unknown Soldier': 12, 'Theater of Dionysus': 13, 'Plateia Syntagmatos': 15, 'Areopagus': 7, 'Stoa of Attalos': 3, 'Church of Kapnikaréa': 8, 'Psirri': 6, 'Parlamento (Vouli)': 13, 'Pnyx': 1, 'Changing of the Guard Ceremony': 11, 'Arch of Hadrian': 8, 'Metropolitan Cathedral of Athens': 2, 'Ermou Street': 17, 'The Academy of Athens': 17, 'George': 17, 'Adrianou Street': 2}</t>
+  </si>
+  <si>
+    <t>{'Kilmainham Gaol': 2, 'Guinness Storehouse': 5, 'The Book of Kells and the Old Library Exhibition': 12, 'Cementerio de Glasnevin': 13, 'Trinity College': 9, 'Temple Bar': 19, '14 Henrietta Street': 6, 'Croke Park Stadium Tour &amp; GAA Museum': 4, "Saint Patrick's Cathedral": 9, 'Christ Church Cathedral': 3, 'Dublinia': 18, 'The Famine Sculptures': 15, 'Grafton Street': 18, 'Dublin Castle': 6, "Michan's Church": 14, 'Molly Malone Statue': 10, 'Merrion Square': 11, "Ha'penny Bridge": 12, 'Croke Park Stadium': 4, 'Shelbourne Park Greyhound Stadium': 18, "Audoen's Church": 18, 'Aviva Stadium': 6, "O'Connell Street": 20, 'Drimnagh Castle': 19, 'Casino Marino': 1, 'Farmleigh House and Estate': 14, 'Samuel Beckett Bridge': 3, 'Monument to Oscar Wilde': 11, 'The Custom House Visitor Centre': 7, 'Cliff Path Loop': 5}</t>
+  </si>
+  <si>
+    <t>{'Coliseo': 18, 'Pantheon': 17, 'Fontana di Trevi': 20, 'Piazza Navona': 19, 'Basilica di Santa Maria Maggiore': 19, 'Foro Romano': 12, 'Trastevere': 8, 'Roman Forum': 1, "Castillo de Sant'Angelo": 18, 'Monumento a Vittorio Emanuele II': 14, 'Villa Borghese': 8, 'Arcibasilica di San Giovanni in Laterano': 12, "Chiesa di Sant'Ignazio di Loyola": 1, 'Centro Storico': 6, 'Scalinata di Trinità Dei Monti': 10, 'Iglesia de San Luis de los Franceses': 16, 'San Pedro Encadenado (San Pietro in Vincoli)': 3, 'Fontana dei Quattro Fiumi': 18, 'Santa Maria in Trastevere': 17, 'Basílica de San Clemente': 2, 'Palazzo Doria Pamphilj': 2, 'Santa Maria della Vittoria': 12, 'Piazza Venezia': 1, 'Domus Aurea': 19, 'Basilica di Santa Maria degli Angeli e dei Martiri': 7, 'Catacombs of Saint Callixtus': 17, 'Terme di Caracalla': 16, 'Piazza del Popolo': 3, 'Welcome To Rome': 20, 'La Domus Romana del Palacio Valentini': 13}</t>
+  </si>
+  <si>
+    <t>{'Vilnius Old Town': 11, '0': 17, 'Iglesia de San Pedro y San Pablo': 4, 'Iglesia de Santa Ana': 8, 'Puerta de la Aurora': 16, 'Uzupis': 11, 'Holy Spirit Orthodox Church': 16, 'Paneriai (Ponar)': 16, 'Vilnius Cathedral': 2, 'Vilnius University (Vilniaus Universitetas)': 8, 'Bernardine Church (Bernardinu Baznycia)': 18, 'Vingis Park': 20, "St John's church": 5, 'Vilnius Cathedral Square': 8, 'Vilnius TV Tower': 3, 'Castle Hill': 5, 'Theresa': 8, 'Bell Tower of Vilnius Cathedral': 12, 'Stebuklas': 5, 'Rasu Cemetery (Rasu kapines)': 1, 'Gediminas Avenue': 7, 'Casimir': 19, 'Monument to Zemach Shabad': 17, 'Uzupis Mermaid': 8, 'Presidential Palace': 13, 'Antakalnis Cemetery': 20, 'Uzupis Angel': 16, 'Artworks on Literatu str': 20, 'Vilnius Choral Synagogue': 5, 'Church of the Holy Spirit (Sventosios Dvasios Baznycia)': 3}</t>
+  </si>
+  <si>
+    <t>{'Old Bazaar, Skopje': 3, 'The Stone Bridge': 19, 'Macedonia Square': 7, 'Millennium Cross': 15, 'Memorial House of Mother Teresa': 17, 'Panteleimon': 20, 'Warrior on a Horse': 4, 'Holy Savior Church': 14, 'Mustafa Pasha Mosque': 20, 'Clement of Ohrid': 9, 'Skopje Art Bridge': 20, 'Daut Pasha Hamam': 1, 'Skopje Fortress Kale': 11, 'Phillip II of Macedon': 1, 'Fountain of the Mothers of Macedonia': 20, 'Skopje Eye Bridge': 13, 'Skopje Aqueduct': 3, 'Kapan Han': 5, 'Sultan Murad Mosque': 19, 'Statue Divers': 17, 'Museum City of Skopje': 9, 'Church of Saint Dimitrija': 20, "Memorial plaque of Mother Teresa's birth house": 12, 'Church of the Ascension of Jesus': 7, 'Stobi': 3, 'Fallen Heroes of Macedonia': 8, 'Porta Macedonia aka Gate Macedonia': 5, 'National Arena Philip II of Macedonia': 13, 'Mosque Iskhak-Bek': 16, 'Clock Tower Saat Kula': 11}</t>
+  </si>
+  <si>
+    <t>{'Victory Memorial and Eternal Flame': 19, 'Catedrala Nasterea Domnului': 7, 'Theodor Tiron Convent': 9, 'Stephen the Great Monument': 10, 'Sculpture of Lovers': 17, 'Triumphal Arch': 7, 'Afghan War Memorial To Sons of Motherland - Eternal Memory': 19, 'Dormition of the Theotokos': 5, 'Pedestrian Street': 10, 'Jewish Cemetery': 1, 'Chisinau Railway Station': 16, 'Orthodox Cathedral of the Transfiguration of the Saviour': 2, 'Sculpture of Skateboarders': 18, 'Monument to the Victims of Jewish Ghetto': 3, 'Nicholas': 15, 'Kishinev Jacobs Jewish Cultural Center': 16, 'Parliament of the Republic of Moldova': 11, 'Chisinau Mosque': 6, 'Metropolitan Cathedral': 17, 'Chisinau City Hall': 9, 'Synagogue Chabad Lubavitch': 16, 'Cathedral of Divine Providence': 1, "Mary's Armenian Apostolic Church": 16, 'Monument to the Heroes-Komsomol': 20, 'Mazarachi Church': 7, 'Monument to the Liberators of Chisinau from the Nazi Troops': 11, 'Monument to Sergey Lazo': 1, 'Memorial to Victims of Stalinist Repression': 3, 'Tekwill Technology Hub': 15, '1 Ban Monument': 3}</t>
+  </si>
+  <si>
+    <t>{'Jordaan': 10, 'Estación Central': 8, 'Barrio Rojo': 15, 'Museo Casa de Rembrandt': 12, 'La Plaza Dam': 12, "A'dam Lookout": 8, 'Museum Quarter': 9, 'Palacio Real': 10, 'Begijnhof': 20, 'Amsterdam Canal Ring': 7, 'Johan Cruyff Arena': 20, 'Sinagoga Portuguesa': 16, 'Las Nueve Calles': 1, 'El Amstel': 19, 'De Duif': 17, 'Rembrandtplein': 3, 'Plaza Leidseplein': 13, 'Ziggo Dome': 13, 'Museum Van Loon': 3, 'Willet-Holthuysen Museum': 14, 'Nicholas Basilica': 16, 'De Poezenboot': 7, 'De Hallen Amsterdam': 17, 'Westerkerk': 16, 'Brouwersgracht': 3, 'Haarlemmerstraat': 13, 'De Krijtberg - Sint Franciscus Xaveriuskerk': 12, 'Nieuwmarkt': 17, 'Museum Het Schip': 7, 'Magere Brug': 20}</t>
+  </si>
+  <si>
+    <t>{'Alfama': 15, 'Mosteiro dos Jerónimos': 5, 'Praca do Comercio (Terreiro do Paco)': 19, 'Barrio Alto': 4, 'Castillo de San Jorge': 12, 'Belem': 2, 'Miradouro da Senhora do Monte': 20, 'Chiado': 7, 'Padrao dos Descobrimentos': 11, 'Arco do Triunfo': 20, 'Igreja de São Roque': 7, '25 de Abril Bridge': 16, 'Estadio do Sport Lisboa e Benfica': 10, 'LX Factory': 3, 'Parque das Nacoes': 4, 'Vasco da Gama Bridge': 7, 'Miradouro da Graca (Sophia de Mello Breyner Andresen)': 2, 'Palacio de Ajuda': 12, 'Panteao Nacional': 18, 'Avenida da Liberdade': 2, 'Miradouro de Santa Luzia': 5, 'Rossio Square': 17, 'Santo Antonio de Lisboa': 4, 'Mosteiro De Sao Vicente De Fora': 15, 'Rua Augusta': 8, 'Santa Maria de Belem Church': 2, 'Vasco da Gama Shopping Center': 12, 'Palácio dos Marqueses de Fronteira': 9, 'Miradouro das Portas do Sol': 17, 'Igreja de Sao Domingos (Santa Justa e Rufina)': 2}</t>
+  </si>
+  <si>
+    <t>{'Staromestske namesti': 19, 'Karlův Most': 8, 'Catedral de San Vito': 8, 'Prague Castle': 1, 'Staroměstská Radnice': 20, 'Lesser Town': 1, 'Hradčany': 7, 'Sinagoga Española': 7, 'Monte Petřín': 6, 'Iglesia de San Nicolás': 2, 'Palacio Lobkowicz': 18, 'Monumento Cultural Nacional Vysehrad': 1, 'Obecní Dům': 19, 'Church of Our Lady before Tyn': 5, 'National Memorial to the Heroes of the Heydrich Terror': 2, 'Franz Kafka Statue': 1, 'Petrin Tower': 8, 'Old Town Bridge Tower': 4, 'Kostel Panny Marie Vítězné a Pražské Jezulátko': 3, 'St Cyril and St Methodius Cathedral': 14, 'Prašná brána': 18, 'Rudolfinum': 14, 'The Vrtba Garden': 18, 'Wenceslas Square (Václavské náměstí)': 20, 'Waldstein Palace': 17, 'Loreta Praha': 11, 'Pinkas Synagogue, Jewish Museum in Prague': 15, 'Dancing House': 18, 'Convent of St Agnes of Bohemia - National Gallery Prague': 20, 'John Lennon Wall': 20}</t>
+  </si>
+  <si>
+    <t>{'Stockholm Old Town': 10, 'Ayuntamiento': 17, 'Djurgarden': 11, 'Palacio Real': 10, 'Monteliusvagen': 15, 'Södermalm': 14, 'Stortorget': 5, 'Catedral de Estocolmo': 15, 'Skogskyrkogården': 13, 'Galería Thiel': 11, 'Strandvagen': 14, 'Parliament Building (Riksdagshuset)': 14, 'Mirador Fjallgatan': 8, 'Ostermalm': 15, 'Riddarholm Church (Riddarholmskyrkan)': 17, 'Iglesia Alemana': 14, 'Globen Skyview': 20, 'Royal Dramatic Theater (Kungliga Dramatiska Teatern)': 18, 'Järnpojken': 11, 'Cirkus Arena': 8, 'Avicii Arena': 9, 'Kulturhuset': 2, 'Norrmalm': 19, 'S:ta Clara kyrka': 8, 'Judiska Församlingen I Stockholm': 6, 'Riddarhuset': 17, 'Tele2 Arena': 10, 'The Stockholm Concert Hall': 1, 'Katarina Hissen': 12, 'Vinterviken': 9}</t>
+  </si>
+  <si>
+    <t>{'Reichstag Building': 8, 'Puerta de Brandeburgo': 14, 'Memorial del Holocausto': 19, 'Memorial del Muro de Berlín': 3, 'East Side Gallery': 19, 'Friedrichstadt-Palast': 17, 'Museum Island': 5, 'Berliner Dom': 20, 'Gendarmenmarkt': 4, 'Fernsehturm de Berlín': 14, 'Filarmónica de Berlín': 6, 'Memorial Berlín Hohenschönhausen': 19, 'Olympiastadion Berlin': 14, 'Kaiser Wilhelm Memorial Church': 12, 'Victory Column (Siegessaule)': 15, 'Charlottenburg Palace': 1, 'Museo Histórico Alemán': 12, 'Potsdamer Platz': 4, 'Alexanderplatz': 20, 'Tempelhof Airport': 4, 'Die Hackeschen Hoefe': 12, 'Estación Central de Berlín': 19, 'Berlín-Mitte': 6, 'Checkpoint Charlie': 4, 'Haus der Wannsee-Konferenz': 14, 'Kurfürstendamm': 18, 'Panoramapunkt': 5, 'Prenzlauer Berg': 11, 'Gleis 17, Grunewald': 8, 'Kreuzberg': 13}</t>
+  </si>
+  <si>
+    <t>{'Gran Plaza': 18, 'Les Galeries Royales Saint-Hubert': 20, 'Atomium': 20, 'Catedral de San Miguel y Santa Gúdula': 6, 'Town Hall (Hôtel de Ville)': 5, 'Parc du Cinquantenaire': 11, 'Guild Houses': 11, 'Notre Dame du Sablon': 11, 'Parlamentarium: Centro de visitas del Parlamento Europeo': 13, 'Manneken Pis': 19, 'Mont des Arts': 17, 'Serres Royales De Laeken': 14, 'Royal Palace (Palais Royal)': 7, 'Bois de la Cambre': 1, 'National Basilica of the Sacred Heart': 2, 'Place du Grand Sablon': 2, 'Catherine': 20, 'Belgian Comic Strip Center': 18, 'European Parliament Hemicycle (free visits)': 2, 'Gery': 5, 'Tintin Mural Painting': 4, 'Justice Palace (Palais de Justice)': 4, 'Coudenberg Palace': 20, 'Porte de Hal': 20, 'Le Botanique': 18, 'Lower Town': 2, 'La Bourse de Bruxelles': 19, 'Avenue Louise': 15, 'Jeanneke Pis': 11, 'Place Royale': 3}</t>
+  </si>
+  <si>
+    <t>{'Sarajevo War Tunnel': 20, 'Bascarsija': 6, 'Sarajevo Olympic Bobsleigh and Luge Track': 17, 'Sarajevo City Hall': 2, 'Gazi Husrev-beg Mosque': 5, 'The Yellow Fortress': 15, 'Avaz Twist Tower': 11, 'Katedrala Srca Isusova': 3, 'Sebilj Brunnen (Fountain)': 19, 'Latin Bridge': 12, 'Ferhadija Pedestrian Street': 3, 'Church of the Holy Archangels Michael and Gabriel in Sarajevo': 7, 'Sarajevo Memorial for Children Killed during Siege': 19, 'Eternal Flame': 14, 'Sniper Alley': 19, 'Pijaca Markale': 8, 'Serbian Orthodox Cathedral': 16, 'Alifakovac Cemetery': 14, 'Gazi Husrev Begova Medresa': 18, 'TasliHan': 1, 'Old Sarajevo Clock Tower': 17, 'Ashkenazi Synagogue': 4, 'Romeo and Juliet Bridge': 14, 'Central Post Office': 12, 'Bridge Festina Lente': 15, 'The Academy of Fine Arts': 15, "Goat's Bridge": 15, "Emperor's Mosque": 16, 'Alipasina Mosque': 10, 'Bosniak Institute': 12}</t>
+  </si>
+  <si>
+    <t>{'Tkalčićeva Street': 2, 'Upper Town (Gornji Grad)': 18, 'Iglesia de San Marcos': 12, 'Cementerio Mirogoj': 18, 'Cathedral of the Assumption': 13, 'Ban Josip Jelačić Square': 16, 'Croatian National Theatre in Zagreb': 3, 'Lotrščak Tower': 7, 'Lower Town': 1, 'Funicular Railway': 3, 'King Tomislav Square': 19, 'Puerta de Piedra': 12, 'Ban Josip Jelacic Monument': 8, 'Radićeva': 14, 'Holy Mary Monument': 9, 'Strossmayer Promenade': 10, 'Ilica': 15, 'Tunel Gric': 14, 'The Well of Life': 2, 'Republic of Croatia Square / Trg Republike Hrvatske': 11, 'Zagreb Cathedral': 14, 'Nikola Tesla Statue': 3, 'Medvedgrad Visitor Center': 9, 'Catherine': 8, "Mark's Square": 1, 'Square of Petar Preradovic': 16, 'Zagreb Orthodox Cathedral': 17, 'Saint George Statue': 2, 'King Tomislav Statue': 10, 'Mandusevac Fountain': 1}</t>
+  </si>
+  <si>
+    <t>{'Casco antiguo': 20, 'Castillo Devin': 20, 'Cumil': 17, 'Modry Kostol': 14, 'Bratislava Castle': 12, 'Slavin': 2, 'UFO Observation Deck': 20, 'Plaza Mayor': 1, 'Ayuntamiento Viejo': 2, "Michael's Tower &amp; Street": 17, 'Puerta de San Miguel': 15, "Martin's Cathedral (Dom svateho Martina)": 4, 'Hviezdoslavovo Namestie': 16, 'Schone Naci Statue': 5, 'Slovak Philharmonic': 6, 'Napoleon’s Army Soldier Statue': 12, 'The Grassalkovich palace - Presidential palace': 6, 'New Bridge (Novy Most)': 14, "Primates' Palace (Primacialny palac)": 9, 'Statue of Hans Christian Andersen': 8, 'Kapitulska Street': 5, 'Chatam Sofer Memorial': 13, 'Ondrej Nepela Arena': 17, 'George and the Dragon': 20, 'Maximilian´s Fountain': 15, 'Stary most': 20, 'Building of Slovak Radio': 3, 'Franciscan Church and Monastery': 9, 'The old Slovak National Theater': 12, 'Apollo Bridge': 3}</t>
+  </si>
+  <si>
+    <t>{'Fortaleza de Suomenlinna': 16, 'Temppeliaukion Church': 15, 'Catedral Luterana': 8, 'Catedral Ortodoxa Uspenski': 3, 'Old Market Hall': 6, 'Museo al aire libre de Seurasaari': 3, 'Kamppi Chapel of Silence': 8, 'The Esplanadi Park': 9, 'Plaza del Senado': 5, 'Helsingin Päärautatieasema': 14, 'The National Library of Finland': 19, 'Hakaniemi Market': 17, 'Kauppatori': 12, 'Museo Mannerheim': 13, 'Katajanokka': 12, 'Johannes Church': 15, 'The Aalto House': 18, 'Hakaniemi Market Hall': 7, 'Havis Amanda': 9, 'Toolo Bay (Toolonlahti)': 7, 'Olympic Stadium (Olympiastadion)': 18, 'Sibelius Monument': 17, 'Hietaniemi Cemetery': 12, 'SkyWheel Helsinki': 16, 'Talvipuutarha': 5, 'Kallio Church': 19, 'Hartwall Arena': 6, 'Helsinki University Library': 8, 'University of Helsinki (Helsingin Yliopisto)': 19, 'Design District': 4}</t>
+  </si>
+  <si>
+    <t>{'Parlamento': 1, "Fisherman's Bastion": 4, 'Basílica de San Esteban': 1, 'Zapatos en el Danubio': 18, 'Matthias Church': 10, "Heroes' Square": 5, 'Budai Vár': 11, 'Varhegy': 16, 'Puente de las Cadenas': 18, 'Colina y Estatua Gellért': 12, 'Hungarian State Opera House (Magyar Allami Operahaz)': 15, '3d Gallery Budapest': 4, 'Vajdahunyad Castle (Vajdahunyadvar)': 16, 'Gran Sinagoga': 12, 'Gozsdu Udvar': 2, 'Puente de la Libertad': 4, 'Citadel': 1, 'Music Fountain': 10, 'Vaci Street': 8, 'Andrassy Avenue': 13, 'Museo Nacional Húngaro': 6, 'New York Palace': 17, 'Statue of St Stephen': 15, 'Gresham Palace': 5, 'Plaza Vorosmarty (Vorosmarty ter)': 19, "Anonymus Szobor (Anonymous' Statue)": 5, 'Bagni Széchenyi': 6, 'Kossuth Lajos Square': 8, 'Korzo - Danube Embankment (Dunakorzó)': 2, 'Castle Garden': 9}</t>
+  </si>
+  <si>
+    <t>{'Iglesia de Hallgrímur (Hallgrimskirkja)': 13, 'Perlan': 6, 'Harpa Reykjavik Concert Hall and Conference Centre': 8, 'Sun Voyager': 12, 'Reykjavík 871±2': 16, 'Laugavegur': 20, 'Árbær Open Air Museum': 15, 'Museo Einar Jonsson': 14, 'Videy Island': 4, 'Grotta Lighthouse': 7, 'Reykjavík Art Museum Ásmundarsafn': 6, 'The Statue of Leif Eiriksson': 18, 'Geothermal Area Krysuvik': 18, 'Reykjavik City Hall': 8, 'Cemetery Holavallagardur': 9, 'Domkirkjan': 18, 'Bjarteyjarsandur': 2, 'Hofdi House': 20, 'Imagine Peace Tower': 18, 'Thufa': 19, 'Parliament House (Althingishus)': 2, 'The Nordic House': 17, 'Sculpture and Shore Walk': 3, 'Bárður Snæfellsás': 17, 'Thorsmork': 18, 'Skolavordustigur': 15, 'Arnarholl Statue': 20, 'Christ The King Cathedral': 4, 'Hannesarholt': 16, 'Háteigskirkja Church': 12}</t>
+  </si>
+  <si>
+    <t>{'Old City Riga (Vecriga)': 19, 'Riga Town Hall Square': 8, 'House Of The Black Heads': 9, 'Alberta Iela': 9, "View of Riga from St Peter's Church Tower": 16, 'Freedom Monument': 1, 'Latvian Ethnographic Open Air Museum': 16, 'Jugenda Stila Nami': 8, 'Riga Cathedral': 16, 'Panorama Riga Observation Deck': 2, 'Nativity of Christ Cathedral': 5, 'Vermanes Garden': 17, 'Jauniela': 2, "Peter's Church": 7, 'Cat House': 6, 'Bremen Town Musicians': 18, 'Livu Square': 13, 'Rumbula Forest Memorial': 12, 'Swedish Gate (Zviedru Varti)': 12, 'Arena Riga': 6, "John's Church": 16, 'Riga Radio and TV Tower': 15, 'Bikernieki Memorial': 18, 'The House that was Built in 1903': 19, 'Latvian National Theater': 13, 'Sculpture The Ghost': 5, 'Small Guild of Riga': 16, 'Temple of the Holy Prince Alexander Nevskiy': 8, 'Gertrude Old Church': 7, 'Riga Synagogue': 13}</t>
+  </si>
+  <si>
+    <t>{'Vianden Castle': 13, 'Le Chemin de la Corniche': 2, 'Luxembourg American Cemetery Memorial': 12, 'Cathédrale Notre-Dame': 1, 'Grund': 1, 'Pfaffenthal Lift': 11, 'MNHM National Museum of Military History': 12, 'Casemates du Bock': 5, 'Grand Ducal Palace': 9, 'Wenzel Circular Walk': 19, 'Pont Adolphe': 8, "Place d'Armes": 19, 'Viaduc (Passerelle)': 19, 'Mudam Luxembourg Musée d’Art Moderne': 1, 'Bourscheid Castle': 9, 'Place de la Constitution': 13, 'Abbey of Echternach': 10, '': 7, 'Holy Ghost Citadel': 2, 'Beaufort Castles': 4, 'Rockhal': 7, 'Chateau de Clervaux': 8, 'Abbaye Saint-Maurice de Clervaux': 16, 'Blast Furnace Belval': 8, "Monument du Souvenir - 'Gëlle Fra'": 19, 'Larochette Castle': 5, "Saint Michel's Church": 16, 'Chateau Esch-sur-Sûre': 1, 'Monument National de la Solidarite': 14, 'Hollow Tooth': 10}</t>
+  </si>
+  <si>
+    <t>{'Concatedral de San Juan': 13, 'Lascaris War Rooms': 18, 'Fort St Elmo - National War Museum': 9, 'Casa Rocca Piccola': 3, 'Saluting Battery': 12, 'Valletta Waterfront': 9, 'War HQ Tunnel': 15, 'Three Cities': 7, 'Barrakka Lift': 16, 'Iglesia del Naufragio de San Pablo': 7, 'Strait Street': 3, 'Triton Fountain': 3, "Grandmaster's Palace": 20, 'Valletta City Gate': 15, 'Shrine of Our Lady of Mount Carmel': 6, 'Siege Bell War Memorial': 10, "Paul's Anglican Pro-Cathedral": 1, 'St George Square': 2, "Il-Berga ta' Kastilja": 6, 'Victoria Gate': 14, 'Our Lady of Victories Church': 13, 'The New Parliament': 8, "Francis' Church Valletta": 6, 'Pjazza Teatru Rjal': 3, 'Reliving The Sacra Infermeria': 18, 'Mediterranean Conference Centre': 3, 'St Augustine Church &amp; Priory': 11, 'Catherine of Italy': 19, "Auberge d'Italie": 6, 'Independence Monument': 12}</t>
+  </si>
+  <si>
+    <t>{'Museo del Pueblo Noruego': 16, 'Castillo y Fortaleza de Akershus': 12, 'Ayuntamiento de Oslo': 13, 'El Palacio Real': 17, 'Karl Johans gate': 9, 'Oslomarka': 9, 'Fortaleza de Oscarborg': 6, 'Grünerløkka': 14, 'Drobak': 3, "Oslo's Harbour Promenade": 11, 'The Norwegian Parliament': 3, 'Emanuel Vigeland Museum': 19, 'juli-senteret': 9, 'Oslo Cathedral (Oslo Domkirke)': 3, 'Tjuvholmen Sculpture Park': 15, 'Tiger Sculpture': 16, 'Ostbanehallen': 3, 'Barcode Oslo': 17, 'Waterfall at Molla': 14, 'The Bergen Railway': 15, 'Tjuvholmen Neighbourhood': 3, 'The Viking Planet Oslo': 3, 'Oslo Spektrum': 3, 'Old Aker Church': 4, 'Bogstad Gard': 18, 'She Lies': 9, 'Vulkan Neighbourhood': 8, 'Street Art at Ingens gate': 1, 'Oscarshall': 10, 'Sagene Church': 8}</t>
+  </si>
+  <si>
+    <t>{'Old Town': 7, 'Rynek Starego Miasta': 17, 'Castle Square (Plac Zamkowy)': 11, 'Palace of Culture and Science': 3, 'Zamek Królewski w Warszawie - Muzeum': 9, 'Nowy Swiat': 6, 'Krakowskie Przedmiescie': 18, 'Monument to the Warsaw Uprising Fighters': 10, 'Palace on the Island': 10, 'Chopin Monument': 10, 'Pomnik Bohaterów Getta': 5, 'Hala Koszyki': 2, 'Grób Nieznanego Żołnierza': 2, 'Viewing Terrace': 2, 'PGE National Stadium': 16, "Anne's Church (Kosciol Swietej Anny)": 8, 'Warsaw Barbican (Barbakan Warszawski)': 2, 'Jewish Cemetery (Cmentarz Zydowski)': 2, 'Statue of the Little Insurgent': 15, 'Cmentarz Wojskowy na Powazkach': 12, 'Multimedia Fountain Park': 1, 'Warsaw Mermaid': 7, 'Holy Cross Church (Kosciol Swietego Krzyza)': 13, 'Warsaw Ghetto': 6, 'Legia Warsaw Municipal Stadium of Marshal Jozef Pilsudski': 3, 'Fragment of Ghetto Wall': 13, "King Sigismund's Column (Kolumna Zygmunta)": 12, 'John the Baptist': 11, 'University of Warsaw (Uniwersytet Warszawski)': 8, 'Fabryka Norblina': 20}</t>
+  </si>
+  <si>
+    <t>{'Iglesia Stavropoleos': 14, 'Muzeul Naţional al Satului "Dimitrie Gusti"': 18, 'Palace of Parliament': 20, 'Ateneo Romano': 13, 'Old Town': 8, 'Lipscani': 12, 'Piața Unirii': 17, "Manuc's Inn (Hanul lui Manuc)": 14, 'Catedrala Patriarhală': 1, 'Carol Park': 17, 'Calea Victoriei': 8, 'Piața Revoluției': 12, 'Triumph Arch (Arcul de Triumf)': 4, 'Palatul CEC': 5, 'National Theatre Ion Luca Caragiale (Teatrul Național Ion Luca Caragiale)': 15, 'Biserica Sfântul Gheorghe Nou': 2, 'Biserica Sfântul Anton - Curtea Veche': 20, 'Muzeul Colecțiilor de Artă': 13, 'National Arena Stadium Bucharest': 7, 'Nicolae': 6, 'Cercul Militar Național (CCA)': 16, 'The Choral Temple': 8, 'Bellu Cemetery (Cimitirul Șerban Vodă-Bellu)': 3, 'Bucharest Municipal Museum': 12, 'Biserica Kretzulescu': 9, 'Mănăstirea Antim': 7, 'Colțea Hospital (Spitalul Colțea)': 11, 'Great Synagogue': 16, 'Macca Villacrosse Passage': 6, 'Radu Vodă Monastery (Mănăstirea Radu Vodă)': 13}</t>
+  </si>
+  <si>
+    <t>{'The Belgrade Fortress': 15, 'Knez Mihailova': 18, 'Sava Temple': 3, 'Skadarlija': 19, 'Kalemegdan Park and Belgrade Fortress': 16, "Saint Petka's Chapel": 9, 'The Millenary Monument': 3, 'Church of the Holy Mother of God': 13, 'Zemunski kej': 16, 'Crkva Svetog Marka': 17, 'The National Assembly': 2, 'Avala Tower': 7, 'Residence of Princess Ljubica (Konak Kneginje Ljubice': 11, "Michael's Cathedral": 2, 'Red Star Belgrade Stadium - Marakana': 12, 'Trg Republike': 7, 'Sava Bridge': 20, 'Dorcol': 14, 'Public Aquarium and Tropicarium Belgrade': 13, 'Kombank Arena': 7, 'Royal Palace': 1, 'Crkva Svetog Oca Nikolaja': 19, 'Nebojsa Tower': 8, 'Bayraklee mosque (Bajrakli džamija)': 10, 'Patriarchate of the Serbian Orthodox Church': 17, 'Partizan Stadium': 9, 'Terazije Fountain': 2, 'White Palace': 16, 'Tresije': 5, 'Grocka': 12}</t>
+  </si>
+  <si>
+    <t>['Skanderbeg Square', 'Et`hem Bey Mosque', 'Orthodox Autocephalous Church of Albania', 'Skanderbeg Statue', 'Clock Tower', 'Rruga Murat Toptani', "Tanners' Bridge", 'Peace Bell', 'Kapllan Pasha’s Tomb', 'Saint Paul Cathedral', 'Enver Hoxha Pyramid', 'Marie', 'Great mosque of Tirana', 'Unknown Partisan Monument', 'Fortress of Justinian', 'Postbllok - Checkpoint Monument', 'Bektashi World Centre', 'TID Tower', 'Reja "The Cloud"', 'Blloku', 'Polytechnic University of Tirana', 'Qemal Stafa Stadium', 'Friendship Monument', 'Independence Monument', 'Fan Noli statue', 'Mosaic of Tirana', 'Baitul Awwal Mosque', 'Xhura Mosque', 'Pomnik Fryderyka Chopina', 'Selman Stermasi Stadium']</t>
+  </si>
+  <si>
+    <t>['Palacio de Schönbrunn', 'Historic Center of Vienna', 'Catedral de San Esteban', 'Belvedere Museum', 'Schonbrunner Gardens', 'Rathaus', 'State Hall of the Austrian National Library', 'Peterskirche', 'Plaza de San Esteban (Stephansplatz)', 'Rathausplatz', 'Cementerio Central (Zentralfriedhof)', 'Volksgarten', 'Ringstrasse', 'Museo KunstHausWien', 'Hundertwasserhaus', 'Casa de la musica', 'Graben and Kohlmarkt', 'Kahlenberg', 'Karlskirche', 'Imperial Crypt', 'Church of the Jesuits', 'Kirche am Steinhof', 'Danube Tower', 'Votivkirche', 'Michaelerplatz', 'Österreichisches Parlament', 'Maria Theresia Denkmal', 'MAK - Austrian Museum of Applied Arts/Contemporary Art', 'Wiener Riesenrad', 'Mariahilfer Strasse']</t>
+  </si>
+  <si>
+    <t>['Church of Saints Simon and Helena', 'Island of Tears', 'Victory Square', 'Upper City', 'Monument to Fallen Jewish People on March 2, 1942', 'Minsk-Arena Complex', 'Holy Spirit Cathedral', 'Minsk Gates', 'Independence Square, Minsk', 'Svislach River Embankment', 'Loshitskiy Park', 'Central Botanical Garden of the National Academy of Sciences of Belarus', 'Minsk Railway station', 'Trinity Hill', 'Archcathedral Holy Name of the Blessed Virgin Mary', 'Minsk City Hall', 'Sculpture', 'Church of All Saints', 'Fountain of Independence', 'Zero Kilometr of Belarus', 'Observation Deck of National Library of Belarus', 'Graffiti Street', 'Saint Elisabeth Convent', 'Crying Guardian Angel', "Paul's Cathedral", 'Liberty Square', 'Gallery Slavutyya Maistry', 'Mary Magdalene', 'Chizhovka Arena', 'IT-country birthplace']</t>
+  </si>
+  <si>
+    <t>['Iglesia de Alexander Nevski', 'Vitosha Boulevard', 'Iglesia Rusa de San Nicolás', 'Iglesia de Boyana', 'The Rotunda Church of St George', 'Saint Sofia Church', 'St Nedelya Church', 'Sofia Synagogue', 'National Palace of Culture Congress Centre', 'Amphitheatre of Serdica', 'Former Bulgarian Communist Party Headquarters', 'Banya Bashi Mosque', 'Church of St Petka of the Saddlers', 'Sofia University Saint Kliment Ohridski', 'Statue of Tsar Alexander II', 'Sveti Sedmochislenitsi Church', 'The Bells (Kambanite)', 'Soviet Army Monument', 'Monument to the Deity All-Holy Sofia', 'Statue of Slaveikovs', 'Slaveikov Square', 'Dragalevtsi Monastery', 'Ancient Serdica Archaeological Complex', 'The Presidency Building', 'Monument to the Unknown Warrior', 'National Assembly of the Republic of Bulgaria', 'Boyana Village', 'Saint Nikolai Sofiyski', 'Snail Home', 'Mineral water springs']</t>
+  </si>
+  <si>
+    <t>['Nyhavn', 'Rosenborg Castle', "Our Saviour's Church", 'Rundetårn', 'Museo Nacional', 'Palacio de Christiansborg', 'Copenhagen Opera House', 'Palacio de Amalienborg', 'Kastellet', 'Frederiks Kirke (Marmorkirken)', 'Strøget', 'The Little Mermaid', 'Copenhagen City Hall', 'Gefionspringvandet', 'Grundtvig Church (Grundtvigs Kirke)', 'Frederiksberg Slot', 'Christiania', 'Assistens Cemetery', 'Copenhagen Central Station', 'Thorvaldsens Museum', 'Visit Carlsberg Brand Store', 'Church of Our Lady - Copenhagen Cathedral', 'Krigsmuseet', "Alban's Church", 'Islands Brygge', 'Copenhagen Stock Exchange', 'Gråbrødretorv', 'Andersen Statue', "Changing of her Majesty's guard at Amalienborg Castle", 'Radhuspladsen']</t>
+  </si>
+  <si>
+    <t>['Ljubljana Old Town', 'Puente Triple', 'Plaza Preseren', 'Catedral de San Nicolás', 'Puente de los Dragones', 'The Ljubljana Castle', 'Cankarjevo Nabrežje', 'Plecnik House', 'Metelkova', 'Franciscan Church (Frančiškanska cerkev)', 'Vodnik Square (Vodnikov trg)', 'Cyril and Methodius Orthodox Church', 'Skyscraper (Nebotičnik)', 'Old Square (Stari trg)', 'Gornji Trg', 'Mestni Trg', 'Town Hall (Magistrat)', "Shoemaker's Bridge (Cevljarski Most)", "Butcher's Bridge", 'Žale Cemetery', 'City Museum of Ljubljana', 'Congress Square (Kongresni trg)', 'Fountain of Three Carniolan Rivers (Vodnjak treh kranjskih rek)', 'Cooperative Business Bank', 'Slovenian Philharmonic Hall (Slovenska Filharmonija)', 'Seminary Palace and Library', 'Michael', 'Hauptmann House', 'Ursuline Church of the Holy Trinity', 'Cyril Methodius Square (Ciril-Metodov trg)']</t>
+  </si>
+  <si>
+    <t>['Tallinn Old Town', 'Colina Toompea', 'Tallinna Raekoja Plats', 'Catedral de Alejandro Nevski', 'Iglesia Oleviste', 'Ayuntamiento', 'Tallinn TV Tower', 'Tallinn Town Hall', 'Kumu Art Museum', "Catherine's Passage", 'Viewing Point Kohtuotsa', 'Pirita', 'Puerta Viru', 'Catedral de Santa María', 'Patkuli Viewing Platform', 'Long Street (Pikk tanav)', 'Rotermann Quarter', 'Kadriorg Palace', 'Church of the Holy Spirit Puhavaimu Kirik', 'Viru Square', 'Fat Margaret (Paks Margareeta)', 'Russalka', 'Bridget (Pirita Klooster)', 'Rataskaevu Street', 'Tallinn Song Festival Grounds', 'Tallinn Legends', 'Castillo Toompea', 'Long Boot (Pikk Jalg)', 'Peter the Great House Museum', "Nicholas' Orthodox Church"]</t>
+  </si>
+  <si>
+    <t>['Torre Eiffel', 'Museo del Louvre', 'Catedral de Notre Dame', 'Santa Capilla', 'Palais Garnier', 'Arco del Triunfo', 'Basilique du Sacre-Coeur de Montmartre', 'Le Marais', 'Montmartre', 'Puente Alexandre III', 'Place des Vosges', 'Champs-Elysees', 'Ile Saint-Louis', 'Père Lachaise Cemetery', 'Saint-Germain-des-Pres', 'Île de la Cité', 'Latin Quarter', 'Observatoire Panoramique de la Tour Montparnasse', 'Panthéon', 'Towers of Notre-Dame Cathedral', 'Centre Pompidou', 'The Paris Catacombs', 'Église Saint-Étienne-du-Mont de Paris', 'Chapelle Notre Dame de la Medaille Miraculeuse', '1st Arrondissement', 'Le Trocadero et son esplanade', 'Luxembourg Palace', 'Rue Montorgueil', 'Hôtel de Ville', 'La Madeleine']</t>
+  </si>
+  <si>
+    <t>['Acrópolis', 'Partenón', 'Plaka', 'Mount Lycabettus', 'Temple of Hephaestus', 'Panathenaic Stadium', 'Ágora', 'Herod Atticus Odeon', 'Erechtheion', 'Anafiotika', 'Philopappos Hill', 'Monastiraki', 'Temple of Athena Nike', 'Temple of Olympian Zeus', 'Tomb of the Unknown Soldier', 'Theater of Dionysus', 'Plateia Syntagmatos', 'Areopagus', 'Stoa of Attalos', 'Church of Kapnikaréa', 'Psirri', 'Parlamento (Vouli)', 'Pnyx', 'Changing of the Guard Ceremony', 'Arch of Hadrian', 'Metropolitan Cathedral of Athens', 'Ermou Street', 'The Academy of Athens', 'George', 'Adrianou Street']</t>
+  </si>
+  <si>
+    <t>['Kilmainham Gaol', 'Guinness Storehouse', 'The Book of Kells and the Old Library Exhibition', 'Cementerio de Glasnevin', 'Trinity College', 'Temple Bar', '14 Henrietta Street', 'Croke Park Stadium Tour &amp; GAA Museum', "Saint Patrick's Cathedral", 'Christ Church Cathedral', 'Dublinia', 'The Famine Sculptures', 'Grafton Street', 'Dublin Castle', "Michan's Church", 'Molly Malone Statue', 'Merrion Square', "Ha'penny Bridge", 'Croke Park Stadium', 'Shelbourne Park Greyhound Stadium', "Audoen's Church", 'Aviva Stadium', "O'Connell Street", 'Drimnagh Castle', 'Casino Marino', 'Farmleigh House and Estate', 'Samuel Beckett Bridge', 'Monument to Oscar Wilde', 'The Custom House Visitor Centre', 'Cliff Path Loop']</t>
+  </si>
+  <si>
+    <t>['Coliseo', 'Pantheon', 'Fontana di Trevi', 'Piazza Navona', 'Basilica di Santa Maria Maggiore', 'Foro Romano', 'Trastevere', 'Roman Forum', "Castillo de Sant'Angelo", 'Monumento a Vittorio Emanuele II', 'Villa Borghese', 'Arcibasilica di San Giovanni in Laterano', "Chiesa di Sant'Ignazio di Loyola", 'Centro Storico', 'Scalinata di Trinità Dei Monti', 'Iglesia de San Luis de los Franceses', 'San Pedro Encadenado (San Pietro in Vincoli)', 'Fontana dei Quattro Fiumi', 'Santa Maria in Trastevere', 'Basílica de San Clemente', 'Palazzo Doria Pamphilj', 'Santa Maria della Vittoria', 'Piazza Venezia', 'Domus Aurea', 'Basilica di Santa Maria degli Angeli e dei Martiri', 'Catacombs of Saint Callixtus', 'Terme di Caracalla', 'Piazza del Popolo', 'Welcome To Rome', 'La Domus Romana del Palacio Valentini']</t>
+  </si>
+  <si>
+    <t>['Vilnius Old Town', '0', 'Iglesia de San Pedro y San Pablo', 'Iglesia de Santa Ana', 'Puerta de la Aurora', 'Uzupis', 'Holy Spirit Orthodox Church', 'Paneriai (Ponar)', 'Vilnius Cathedral', 'Vilnius University (Vilniaus Universitetas)', 'Bernardine Church (Bernardinu Baznycia)', 'Vingis Park', "St John's church", 'Vilnius Cathedral Square', 'Vilnius TV Tower', 'Castle Hill', 'Theresa', 'Bell Tower of Vilnius Cathedral', 'Stebuklas', 'Rasu Cemetery (Rasu kapines)', 'Gediminas Avenue', 'Casimir', 'Monument to Zemach Shabad', 'Uzupis Mermaid', 'Presidential Palace', 'Antakalnis Cemetery', 'Uzupis Angel', 'Artworks on Literatu str', 'Vilnius Choral Synagogue', 'Church of the Holy Spirit (Sventosios Dvasios Baznycia)']</t>
+  </si>
+  <si>
+    <t>['Old Bazaar, Skopje', 'The Stone Bridge', 'Macedonia Square', 'Millennium Cross', 'Memorial House of Mother Teresa', 'Panteleimon', 'Warrior on a Horse', 'Holy Savior Church', 'Mustafa Pasha Mosque', 'Clement of Ohrid', 'Skopje Art Bridge', 'Daut Pasha Hamam', 'Skopje Fortress Kale', 'Phillip II of Macedon', 'Fountain of the Mothers of Macedonia', 'Skopje Eye Bridge', 'Skopje Aqueduct', 'Kapan Han', 'Sultan Murad Mosque', 'Statue Divers', 'Museum City of Skopje', 'Church of Saint Dimitrija', "Memorial plaque of Mother Teresa's birth house", 'Church of the Ascension of Jesus', 'Stobi', 'Fallen Heroes of Macedonia', 'Porta Macedonia aka Gate Macedonia', 'National Arena Philip II of Macedonia', 'Mosque Iskhak-Bek', 'Clock Tower Saat Kula']</t>
+  </si>
+  <si>
+    <t>['Victory Memorial and Eternal Flame', 'Catedrala Nasterea Domnului', 'Theodor Tiron Convent', 'Stephen the Great Monument', 'Sculpture of Lovers', 'Triumphal Arch', 'Afghan War Memorial To Sons of Motherland - Eternal Memory', 'Dormition of the Theotokos', 'Pedestrian Street', 'Jewish Cemetery', 'Chisinau Railway Station', 'Orthodox Cathedral of the Transfiguration of the Saviour', 'Sculpture of Skateboarders', 'Monument to the Victims of Jewish Ghetto', 'Nicholas', 'Kishinev Jacobs Jewish Cultural Center', 'Parliament of the Republic of Moldova', 'Chisinau Mosque', 'Metropolitan Cathedral', 'Chisinau City Hall', 'Synagogue Chabad Lubavitch', 'Cathedral of Divine Providence', "Mary's Armenian Apostolic Church", 'Monument to the Heroes-Komsomol', 'Mazarachi Church', 'Monument to the Liberators of Chisinau from the Nazi Troops', 'Monument to Sergey Lazo', 'Memorial to Victims of Stalinist Repression', 'Tekwill Technology Hub', '1 Ban Monument']</t>
+  </si>
+  <si>
+    <t>['Jordaan', 'Estación Central', 'Barrio Rojo', 'Museo Casa de Rembrandt', 'La Plaza Dam', "A'dam Lookout", 'Museum Quarter', 'Palacio Real', 'Begijnhof', 'Amsterdam Canal Ring', 'Johan Cruyff Arena', 'Sinagoga Portuguesa', 'Las Nueve Calles', 'El Amstel', 'De Duif', 'Rembrandtplein', 'Plaza Leidseplein', 'Ziggo Dome', 'Museum Van Loon', 'Willet-Holthuysen Museum', 'Nicholas Basilica', 'De Poezenboot', 'De Hallen Amsterdam', 'Westerkerk', 'Brouwersgracht', 'Haarlemmerstraat', 'De Krijtberg - Sint Franciscus Xaveriuskerk', 'Nieuwmarkt', 'Museum Het Schip', 'Magere Brug']</t>
+  </si>
+  <si>
+    <t>['Alfama', 'Mosteiro dos Jerónimos', 'Praca do Comercio (Terreiro do Paco)', 'Barrio Alto', 'Castillo de San Jorge', 'Belem', 'Miradouro da Senhora do Monte', 'Chiado', 'Padrao dos Descobrimentos', 'Arco do Triunfo', 'Igreja de São Roque', '25 de Abril Bridge', 'Estadio do Sport Lisboa e Benfica', 'LX Factory', 'Parque das Nacoes', 'Vasco da Gama Bridge', 'Miradouro da Graca (Sophia de Mello Breyner Andresen)', 'Palacio de Ajuda', 'Panteao Nacional', 'Avenida da Liberdade', 'Miradouro de Santa Luzia', 'Rossio Square', 'Santo Antonio de Lisboa', 'Mosteiro De Sao Vicente De Fora', 'Rua Augusta', 'Santa Maria de Belem Church', 'Vasco da Gama Shopping Center', 'Palácio dos Marqueses de Fronteira', 'Miradouro das Portas do Sol', 'Igreja de Sao Domingos (Santa Justa e Rufina)']</t>
+  </si>
+  <si>
+    <t>['Staromestske namesti', 'Karlův Most', 'Catedral de San Vito', 'Prague Castle', 'Staroměstská Radnice', 'Lesser Town', 'Hradčany', 'Sinagoga Española', 'Monte Petřín', 'Iglesia de San Nicolás', 'Palacio Lobkowicz', 'Monumento Cultural Nacional Vysehrad', 'Obecní Dům', 'Church of Our Lady before Tyn', 'National Memorial to the Heroes of the Heydrich Terror', 'Franz Kafka Statue', 'Petrin Tower', 'Old Town Bridge Tower', 'Kostel Panny Marie Vítězné a Pražské Jezulátko', 'St Cyril and St Methodius Cathedral', 'Prašná brána', 'Rudolfinum', 'The Vrtba Garden', 'Wenceslas Square (Václavské náměstí)', 'Waldstein Palace', 'Loreta Praha', 'Pinkas Synagogue, Jewish Museum in Prague', 'Dancing House', 'Convent of St Agnes of Bohemia - National Gallery Prague', 'John Lennon Wall']</t>
+  </si>
+  <si>
+    <t>['Stockholm Old Town', 'Ayuntamiento', 'Djurgarden', 'Palacio Real', 'Monteliusvagen', 'Södermalm', 'Stortorget', 'Catedral de Estocolmo', 'Skogskyrkogården', 'Galería Thiel', 'Strandvagen', 'Parliament Building (Riksdagshuset)', 'Mirador Fjallgatan', 'Ostermalm', 'Riddarholm Church (Riddarholmskyrkan)', 'Iglesia Alemana', 'Globen Skyview', 'Royal Dramatic Theater (Kungliga Dramatiska Teatern)', 'Järnpojken', 'Cirkus Arena', 'Avicii Arena', 'Kulturhuset', 'Norrmalm', 'S:ta Clara kyrka', 'Judiska Församlingen I Stockholm', 'Riddarhuset', 'Tele2 Arena', 'The Stockholm Concert Hall', 'Katarina Hissen', 'Vinterviken']</t>
+  </si>
+  <si>
+    <t>['Reichstag Building', 'Puerta de Brandeburgo', 'Memorial del Holocausto', 'Memorial del Muro de Berlín', 'East Side Gallery', 'Friedrichstadt-Palast', 'Museum Island', 'Berliner Dom', 'Gendarmenmarkt', 'Fernsehturm de Berlín', 'Filarmónica de Berlín', 'Memorial Berlín Hohenschönhausen', 'Olympiastadion Berlin', 'Kaiser Wilhelm Memorial Church', 'Victory Column (Siegessaule)', 'Charlottenburg Palace', 'Museo Histórico Alemán', 'Potsdamer Platz', 'Alexanderplatz', 'Tempelhof Airport', 'Die Hackeschen Hoefe', 'Estación Central de Berlín', 'Berlín-Mitte', 'Checkpoint Charlie', 'Haus der Wannsee-Konferenz', 'Kurfürstendamm', 'Panoramapunkt', 'Prenzlauer Berg', 'Gleis 17, Grunewald', 'Kreuzberg']</t>
+  </si>
+  <si>
+    <t>['Gran Plaza', 'Les Galeries Royales Saint-Hubert', 'Atomium', 'Catedral de San Miguel y Santa Gúdula', 'Town Hall (Hôtel de Ville)', 'Parc du Cinquantenaire', 'Guild Houses', 'Notre Dame du Sablon', 'Parlamentarium: Centro de visitas del Parlamento Europeo', 'Manneken Pis', 'Mont des Arts', 'Serres Royales De Laeken', 'Royal Palace (Palais Royal)', 'Bois de la Cambre', 'National Basilica of the Sacred Heart', 'Place du Grand Sablon', 'Catherine', 'Belgian Comic Strip Center', 'European Parliament Hemicycle (free visits)', 'Gery', 'Tintin Mural Painting', 'Justice Palace (Palais de Justice)', 'Coudenberg Palace', 'Porte de Hal', 'Le Botanique', 'Lower Town', 'La Bourse de Bruxelles', 'Avenue Louise', 'Jeanneke Pis', 'Place Royale']</t>
+  </si>
+  <si>
+    <t>['Sarajevo War Tunnel', 'Bascarsija', 'Sarajevo Olympic Bobsleigh and Luge Track', 'Sarajevo City Hall', 'Gazi Husrev-beg Mosque', 'The Yellow Fortress', 'Avaz Twist Tower', 'Katedrala Srca Isusova', 'Sebilj Brunnen (Fountain)', 'Latin Bridge', 'Ferhadija Pedestrian Street', 'Church of the Holy Archangels Michael and Gabriel in Sarajevo', 'Sarajevo Memorial for Children Killed during Siege', 'Eternal Flame', 'Sniper Alley', 'Pijaca Markale', 'Serbian Orthodox Cathedral', 'Alifakovac Cemetery', 'Gazi Husrev Begova Medresa', 'TasliHan', 'Old Sarajevo Clock Tower', 'Ashkenazi Synagogue', 'Romeo and Juliet Bridge', 'Central Post Office', 'Bridge Festina Lente', 'The Academy of Fine Arts', "Goat's Bridge", "Emperor's Mosque", 'Alipasina Mosque', 'Bosniak Institute']</t>
+  </si>
+  <si>
+    <t>['Tkalčićeva Street', 'Upper Town (Gornji Grad)', 'Iglesia de San Marcos', 'Cementerio Mirogoj', 'Cathedral of the Assumption', 'Ban Josip Jelačić Square', 'Croatian National Theatre in Zagreb', 'Lotrščak Tower', 'Lower Town', 'Funicular Railway', 'King Tomislav Square', 'Puerta de Piedra', 'Ban Josip Jelacic Monument', 'Radićeva', 'Holy Mary Monument', 'Strossmayer Promenade', 'Ilica', 'Tunel Gric', 'The Well of Life', 'Republic of Croatia Square / Trg Republike Hrvatske', 'Zagreb Cathedral', 'Nikola Tesla Statue', 'Medvedgrad Visitor Center', 'Catherine', "Mark's Square", 'Square of Petar Preradovic', 'Zagreb Orthodox Cathedral', 'Saint George Statue', 'King Tomislav Statue', 'Mandusevac Fountain']</t>
+  </si>
+  <si>
+    <t>['Casco antiguo', 'Castillo Devin', 'Cumil', 'Modry Kostol', 'Bratislava Castle', 'Slavin', 'UFO Observation Deck', 'Plaza Mayor', 'Ayuntamiento Viejo', "Michael's Tower &amp; Street", 'Puerta de San Miguel', "Martin's Cathedral (Dom svateho Martina)", 'Hviezdoslavovo Namestie', 'Schone Naci Statue', 'Slovak Philharmonic', 'Napoleon’s Army Soldier Statue', 'The Grassalkovich palace - Presidential palace', 'New Bridge (Novy Most)', "Primates' Palace (Primacialny palac)", 'Statue of Hans Christian Andersen', 'Kapitulska Street', 'Chatam Sofer Memorial', 'Ondrej Nepela Arena', 'George and the Dragon', 'Maximilian´s Fountain', 'Stary most', 'Building of Slovak Radio', 'Franciscan Church and Monastery', 'The old Slovak National Theater', 'Apollo Bridge']</t>
+  </si>
+  <si>
+    <t>['Fortaleza de Suomenlinna', 'Temppeliaukion Church', 'Catedral Luterana', 'Catedral Ortodoxa Uspenski', 'Old Market Hall', 'Museo al aire libre de Seurasaari', 'Kamppi Chapel of Silence', 'The Esplanadi Park', 'Plaza del Senado', 'Helsingin Päärautatieasema', 'The National Library of Finland', 'Hakaniemi Market', 'Kauppatori', 'Museo Mannerheim', 'Katajanokka', 'Johannes Church', 'The Aalto House', 'Hakaniemi Market Hall', 'Havis Amanda', 'Toolo Bay (Toolonlahti)', 'Olympic Stadium (Olympiastadion)', 'Sibelius Monument', 'Hietaniemi Cemetery', 'SkyWheel Helsinki', 'Talvipuutarha', 'Kallio Church', 'Hartwall Arena', 'Helsinki University Library', 'University of Helsinki (Helsingin Yliopisto)', 'Design District']</t>
+  </si>
+  <si>
+    <t>['Parlamento', "Fisherman's Bastion", 'Basílica de San Esteban', 'Zapatos en el Danubio', 'Matthias Church', "Heroes' Square", 'Budai Vár', 'Varhegy', 'Puente de las Cadenas', 'Colina y Estatua Gellért', 'Hungarian State Opera House (Magyar Allami Operahaz)', '3d Gallery Budapest', 'Vajdahunyad Castle (Vajdahunyadvar)', 'Gran Sinagoga', 'Gozsdu Udvar', 'Puente de la Libertad', 'Citadel', 'Music Fountain', 'Vaci Street', 'Andrassy Avenue', 'Museo Nacional Húngaro', 'New York Palace', 'Statue of St Stephen', 'Gresham Palace', 'Plaza Vorosmarty (Vorosmarty ter)', "Anonymus Szobor (Anonymous' Statue)", 'Bagni Széchenyi', 'Kossuth Lajos Square', 'Korzo - Danube Embankment (Dunakorzó)', 'Castle Garden']</t>
+  </si>
+  <si>
+    <t>['Iglesia de Hallgrímur (Hallgrimskirkja)', 'Perlan', 'Harpa Reykjavik Concert Hall and Conference Centre', 'Sun Voyager', 'Reykjavík 871±2', 'Laugavegur', 'Árbær Open Air Museum', 'Museo Einar Jonsson', 'Videy Island', 'Grotta Lighthouse', 'Reykjavík Art Museum Ásmundarsafn', 'The Statue of Leif Eiriksson', 'Geothermal Area Krysuvik', 'Reykjavik City Hall', 'Cemetery Holavallagardur', 'Domkirkjan', 'Bjarteyjarsandur', 'Hofdi House', 'Imagine Peace Tower', 'Thufa', 'Parliament House (Althingishus)', 'The Nordic House', 'Sculpture and Shore Walk', 'Bárður Snæfellsás', 'Thorsmork', 'Skolavordustigur', 'Arnarholl Statue', 'Christ The King Cathedral', 'Hannesarholt', 'Háteigskirkja Church']</t>
+  </si>
+  <si>
+    <t>['Old City Riga (Vecriga)', 'Riga Town Hall Square', 'House Of The Black Heads', 'Alberta Iela', "View of Riga from St Peter's Church Tower", 'Freedom Monument', 'Latvian Ethnographic Open Air Museum', 'Jugenda Stila Nami', 'Riga Cathedral', 'Panorama Riga Observation Deck', 'Nativity of Christ Cathedral', 'Vermanes Garden', 'Jauniela', "Peter's Church", 'Cat House', 'Bremen Town Musicians', 'Livu Square', 'Rumbula Forest Memorial', 'Swedish Gate (Zviedru Varti)', 'Arena Riga', "John's Church", 'Riga Radio and TV Tower', 'Bikernieki Memorial', 'The House that was Built in 1903', 'Latvian National Theater', 'Sculpture The Ghost', 'Small Guild of Riga', 'Temple of the Holy Prince Alexander Nevskiy', 'Gertrude Old Church', 'Riga Synagogue']</t>
+  </si>
+  <si>
+    <t>['Vianden Castle', 'Le Chemin de la Corniche', 'Luxembourg American Cemetery Memorial', 'Cathédrale Notre-Dame', 'Grund', 'Pfaffenthal Lift', 'MNHM National Museum of Military History', 'Casemates du Bock', 'Grand Ducal Palace', 'Wenzel Circular Walk', 'Pont Adolphe', "Place d'Armes", 'Viaduc (Passerelle)', 'Mudam Luxembourg Musée d’Art Moderne', 'Bourscheid Castle', 'Place de la Constitution', 'Abbey of Echternach', '', 'Holy Ghost Citadel', 'Beaufort Castles', 'Rockhal', 'Chateau de Clervaux', 'Abbaye Saint-Maurice de Clervaux', 'Blast Furnace Belval', "Monument du Souvenir - 'Gëlle Fra'", 'Larochette Castle', "Saint Michel's Church", 'Chateau Esch-sur-Sûre', 'Monument National de la Solidarite', 'Hollow Tooth']</t>
+  </si>
+  <si>
+    <t>['Concatedral de San Juan', 'Lascaris War Rooms', 'Fort St Elmo - National War Museum', 'Casa Rocca Piccola', 'Saluting Battery', 'Valletta Waterfront', 'War HQ Tunnel', 'Three Cities', 'Barrakka Lift', 'Iglesia del Naufragio de San Pablo', 'Strait Street', 'Triton Fountain', "Grandmaster's Palace", 'Valletta City Gate', 'Shrine of Our Lady of Mount Carmel', 'Siege Bell War Memorial', "Paul's Anglican Pro-Cathedral", 'St George Square', "Il-Berga ta' Kastilja", 'Victoria Gate', 'Our Lady of Victories Church', 'The New Parliament', "Francis' Church Valletta", 'Pjazza Teatru Rjal', 'Reliving The Sacra Infermeria', 'Mediterranean Conference Centre', 'St Augustine Church &amp; Priory', 'Catherine of Italy', "Auberge d'Italie", 'Independence Monument']</t>
+  </si>
+  <si>
+    <t>['Museo del Pueblo Noruego', 'Castillo y Fortaleza de Akershus', 'Ayuntamiento de Oslo', 'El Palacio Real', 'Karl Johans gate', 'Oslomarka', 'Fortaleza de Oscarborg', 'Grünerløkka', 'Drobak', "Oslo's Harbour Promenade", 'The Norwegian Parliament', 'Emanuel Vigeland Museum', 'juli-senteret', 'Oslo Cathedral (Oslo Domkirke)', 'Tjuvholmen Sculpture Park', 'Tiger Sculpture', 'Ostbanehallen', 'Barcode Oslo', 'Waterfall at Molla', 'The Bergen Railway', 'Tjuvholmen Neighbourhood', 'The Viking Planet Oslo', 'Oslo Spektrum', 'Old Aker Church', 'Bogstad Gard', 'She Lies', 'Vulkan Neighbourhood', 'Street Art at Ingens gate', 'Oscarshall', 'Sagene Church']</t>
+  </si>
+  <si>
+    <t>['Old Town', 'Rynek Starego Miasta', 'Castle Square (Plac Zamkowy)', 'Palace of Culture and Science', 'Zamek Królewski w Warszawie - Muzeum', 'Nowy Swiat', 'Krakowskie Przedmiescie', 'Monument to the Warsaw Uprising Fighters', 'Palace on the Island', 'Chopin Monument', 'Pomnik Bohaterów Getta', 'Hala Koszyki', 'Grób Nieznanego Żołnierza', 'Viewing Terrace', 'PGE National Stadium', "Anne's Church (Kosciol Swietej Anny)", 'Warsaw Barbican (Barbakan Warszawski)', 'Jewish Cemetery (Cmentarz Zydowski)', 'Statue of the Little Insurgent', 'Cmentarz Wojskowy na Powazkach', 'Multimedia Fountain Park', 'Warsaw Mermaid', 'Holy Cross Church (Kosciol Swietego Krzyza)', 'Warsaw Ghetto', 'Legia Warsaw Municipal Stadium of Marshal Jozef Pilsudski', 'Fragment of Ghetto Wall', "King Sigismund's Column (Kolumna Zygmunta)", 'John the Baptist', 'University of Warsaw (Uniwersytet Warszawski)', 'Fabryka Norblina']</t>
+  </si>
+  <si>
+    <t>['Iglesia Stavropoleos', 'Muzeul Naţional al Satului "Dimitrie Gusti"', 'Palace of Parliament', 'Ateneo Romano', 'Old Town', 'Lipscani', 'Piața Unirii', "Manuc's Inn (Hanul lui Manuc)", 'Catedrala Patriarhală', 'Carol Park', 'Calea Victoriei', 'Piața Revoluției', 'Triumph Arch (Arcul de Triumf)', 'Palatul CEC', 'National Theatre Ion Luca Caragiale (Teatrul Național Ion Luca Caragiale)', 'Biserica Sfântul Gheorghe Nou', 'Biserica Sfântul Anton - Curtea Veche', 'Muzeul Colecțiilor de Artă', 'National Arena Stadium Bucharest', 'Nicolae', 'Cercul Militar Național (CCA)', 'The Choral Temple', 'Bellu Cemetery (Cimitirul Șerban Vodă-Bellu)', 'Bucharest Municipal Museum', 'Biserica Kretzulescu', 'Mănăstirea Antim', 'Colțea Hospital (Spitalul Colțea)', 'Great Synagogue', 'Macca Villacrosse Passage', 'Radu Vodă Monastery (Mănăstirea Radu Vodă)']</t>
+  </si>
+  <si>
+    <t>['The Belgrade Fortress', 'Knez Mihailova', 'Sava Temple', 'Skadarlija', 'Kalemegdan Park and Belgrade Fortress', "Saint Petka's Chapel", 'The Millenary Monument', 'Church of the Holy Mother of God', 'Zemunski kej', 'Crkva Svetog Marka', 'The National Assembly', 'Avala Tower', 'Residence of Princess Ljubica (Konak Kneginje Ljubice', "Michael's Cathedral", 'Red Star Belgrade Stadium - Marakana', 'Trg Republike', 'Sava Bridge', 'Dorcol', 'Public Aquarium and Tropicarium Belgrade', 'Kombank Arena', 'Royal Palace', 'Crkva Svetog Oca Nikolaja', 'Nebojsa Tower', 'Bayraklee mosque (Bajrakli džamija)', 'Patriarchate of the Serbian Orthodox Church', 'Partizan Stadium', 'Terazije Fountain', 'White Palace', 'Tresije', 'Grocka']</t>
   </si>
 </sst>
 </file>
@@ -1326,13 +1428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1384,34 +1486,37 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J2">
         <v>57</v>
@@ -1435,36 +1540,39 @@
         <v>7</v>
       </c>
       <c r="Q2" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="R2" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J3">
         <v>119</v>
@@ -1488,36 +1596,39 @@
         <v>48</v>
       </c>
       <c r="Q3" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+      <c r="R3" t="s">
+        <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J4">
         <v>36</v>
@@ -1541,36 +1652,39 @@
         <v>17</v>
       </c>
       <c r="Q4" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="R4" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J5">
         <v>106</v>
@@ -1594,36 +1708,39 @@
         <v>26</v>
       </c>
       <c r="Q5" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="R5" t="s">
+        <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J6">
         <v>125</v>
@@ -1647,36 +1764,39 @@
         <v>46</v>
       </c>
       <c r="Q6" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="R6" t="s">
+        <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J7">
         <v>54</v>
@@ -1700,36 +1820,39 @@
         <v>10</v>
       </c>
       <c r="Q7" t="s">
-        <v>286</v>
+        <v>287</v>
+      </c>
+      <c r="R7" t="s">
+        <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J8">
         <v>52</v>
@@ -1753,36 +1876,39 @@
         <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="R8" t="s">
+        <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J9">
         <v>329</v>
@@ -1806,36 +1932,39 @@
         <v>156</v>
       </c>
       <c r="Q9" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="R9" t="s">
+        <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J10">
         <v>169</v>
@@ -1859,36 +1988,39 @@
         <v>20</v>
       </c>
       <c r="Q10" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c r="R10" t="s">
+        <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J11">
         <v>212</v>
@@ -1912,36 +2044,39 @@
         <v>58</v>
       </c>
       <c r="Q11" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="R11" t="s">
+        <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J12">
         <v>327</v>
@@ -1965,36 +2100,39 @@
         <v>73</v>
       </c>
       <c r="Q12" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="R12" t="s">
+        <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J13">
         <v>56</v>
@@ -2018,36 +2156,39 @@
         <v>12</v>
       </c>
       <c r="Q13" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="R13" t="s">
+        <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J14">
         <v>21</v>
@@ -2071,36 +2212,39 @@
         <v>8</v>
       </c>
       <c r="Q14" t="s">
-        <v>293</v>
+        <v>294</v>
+      </c>
+      <c r="R14" t="s">
+        <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J15">
         <v>21</v>
@@ -2124,36 +2268,39 @@
         <v>11</v>
       </c>
       <c r="Q15" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="R15" t="s">
+        <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J16">
         <v>381</v>
@@ -2177,36 +2324,39 @@
         <v>54</v>
       </c>
       <c r="Q16" t="s">
-        <v>295</v>
+        <v>296</v>
+      </c>
+      <c r="R16" t="s">
+        <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J17">
         <v>157</v>
@@ -2230,36 +2380,39 @@
         <v>55</v>
       </c>
       <c r="Q17" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="R17" t="s">
+        <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J18">
         <v>404</v>
@@ -2283,36 +2436,39 @@
         <v>75</v>
       </c>
       <c r="Q18" t="s">
-        <v>297</v>
+        <v>298</v>
+      </c>
+      <c r="R18" t="s">
+        <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J19">
         <v>20</v>
@@ -2336,36 +2492,39 @@
         <v>57</v>
       </c>
       <c r="Q19" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="R19" t="s">
+        <v>332</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J20">
         <v>372</v>
@@ -2389,36 +2548,39 @@
         <v>96</v>
       </c>
       <c r="Q20" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="R20" t="s">
+        <v>333</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J21">
         <v>107</v>
@@ -2442,36 +2604,39 @@
         <v>29</v>
       </c>
       <c r="Q21" t="s">
-        <v>300</v>
+        <v>301</v>
+      </c>
+      <c r="R21" t="s">
+        <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J22">
         <v>27</v>
@@ -2495,36 +2660,39 @@
         <v>9</v>
       </c>
       <c r="Q22" t="s">
-        <v>301</v>
+        <v>302</v>
+      </c>
+      <c r="R22" t="s">
+        <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J23">
         <v>83</v>
@@ -2548,36 +2716,39 @@
         <v>16</v>
       </c>
       <c r="Q23" t="s">
-        <v>302</v>
+        <v>303</v>
+      </c>
+      <c r="R23" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J24">
         <v>61</v>
@@ -2601,36 +2772,39 @@
         <v>33</v>
       </c>
       <c r="Q24" t="s">
-        <v>303</v>
+        <v>304</v>
+      </c>
+      <c r="R24" t="s">
+        <v>337</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J25">
         <v>50</v>
@@ -2654,36 +2828,39 @@
         <v>54</v>
       </c>
       <c r="Q25" t="s">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="R25" t="s">
+        <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J26">
         <v>213</v>
@@ -2707,36 +2884,39 @@
         <v>52</v>
       </c>
       <c r="Q26" t="s">
-        <v>305</v>
+        <v>306</v>
+      </c>
+      <c r="R26" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J27">
         <v>40</v>
@@ -2760,36 +2940,39 @@
         <v>20</v>
       </c>
       <c r="Q27" t="s">
-        <v>306</v>
+        <v>307</v>
+      </c>
+      <c r="R27" t="s">
+        <v>340</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J28">
         <v>63</v>
@@ -2813,36 +2996,39 @@
         <v>19</v>
       </c>
       <c r="Q28" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="R28" t="s">
+        <v>341</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J29">
         <v>16</v>
@@ -2866,36 +3052,39 @@
         <v>42</v>
       </c>
       <c r="Q29" t="s">
-        <v>308</v>
+        <v>309</v>
+      </c>
+      <c r="R29" t="s">
+        <v>342</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J30">
         <v>7</v>
@@ -2919,36 +3108,39 @@
         <v>4</v>
       </c>
       <c r="Q30" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="R30" t="s">
+        <v>343</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J31">
         <v>48</v>
@@ -2972,36 +3164,39 @@
         <v>56</v>
       </c>
       <c r="Q31" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="R31" t="s">
+        <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J32">
         <v>93</v>
@@ -3025,36 +3220,39 @@
         <v>40</v>
       </c>
       <c r="Q32" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="R32" t="s">
+        <v>345</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J33">
         <v>103</v>
@@ -3078,36 +3276,39 @@
         <v>27</v>
       </c>
       <c r="Q33" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="R33" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J34">
         <v>129</v>
@@ -3131,7 +3332,10 @@
         <v>18</v>
       </c>
       <c r="Q34" t="s">
-        <v>313</v>
+        <v>314</v>
+      </c>
+      <c r="R34" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/links.xlsx
+++ b/links.xlsx
@@ -862,103 +862,103 @@
     <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c57-Belgrade.html</t>
   </si>
   <si>
-    <t>{'Skanderbeg Square': 18, 'Et`hem Bey Mosque': 8, 'Orthodox Autocephalous Church of Albania': 3, 'Skanderbeg Statue': 17, 'Clock Tower': 5, 'Rruga Murat Toptani': 15, "Tanners' Bridge": 13, 'Peace Bell': 5, 'Kapllan Pasha’s Tomb': 18, 'Saint Paul Cathedral': 1, 'Enver Hoxha Pyramid': 17, 'Marie': 19, 'Great mosque of Tirana': 7, 'Unknown Partisan Monument': 14, 'Fortress of Justinian': 16, 'Postbllok - Checkpoint Monument': 2, 'Bektashi World Centre': 13, 'TID Tower': 5, 'Reja "The Cloud"': 10, 'Blloku': 4, 'Polytechnic University of Tirana': 12, 'Qemal Stafa Stadium': 9, 'Friendship Monument': 10, 'Independence Monument': 3, 'Fan Noli statue': 1, 'Mosaic of Tirana': 5, 'Baitul Awwal Mosque': 1, 'Xhura Mosque': 2, 'Pomnik Fryderyka Chopina': 18, 'Selman Stermasi Stadium': 2}</t>
-  </si>
-  <si>
-    <t>{'Palacio de Schönbrunn': 6, 'Historic Center of Vienna': 18, 'Catedral de San Esteban': 2, 'Belvedere Museum': 19, 'Schonbrunner Gardens': 8, 'Rathaus': 2, 'State Hall of the Austrian National Library': 17, 'Peterskirche': 11, 'Plaza de San Esteban (Stephansplatz)': 1, 'Rathausplatz': 4, 'Cementerio Central (Zentralfriedhof)': 20, 'Volksgarten': 14, 'Ringstrasse': 7, 'Museo KunstHausWien': 4, 'Hundertwasserhaus': 12, 'Casa de la musica': 5, 'Graben and Kohlmarkt': 2, 'Kahlenberg': 3, 'Karlskirche': 7, 'Imperial Crypt': 3, 'Church of the Jesuits': 6, 'Kirche am Steinhof': 9, 'Danube Tower': 1, 'Votivkirche': 3, 'Michaelerplatz': 11, 'Österreichisches Parlament': 17, 'Maria Theresia Denkmal': 7, 'MAK - Austrian Museum of Applied Arts/Contemporary Art': 9, 'Wiener Riesenrad': 6, 'Mariahilfer Strasse': 16}</t>
-  </si>
-  <si>
-    <t>{'Church of Saints Simon and Helena': 6, 'Island of Tears': 19, 'Victory Square': 4, 'Upper City': 18, 'Monument to Fallen Jewish People on March 2, 1942': 12, 'Minsk-Arena Complex': 1, 'Holy Spirit Cathedral': 13, 'Minsk Gates': 5, 'Independence Square, Minsk': 11, 'Svislach River Embankment': 5, 'Loshitskiy Park': 13, 'Central Botanical Garden of the National Academy of Sciences of Belarus': 1, 'Minsk Railway station': 19, 'Trinity Hill': 14, 'Archcathedral Holy Name of the Blessed Virgin Mary': 9, 'Minsk City Hall': 1, 'Sculpture': 9, 'Church of All Saints': 17, 'Fountain of Independence': 2, 'Zero Kilometr of Belarus': 8, 'Observation Deck of National Library of Belarus': 16, 'Graffiti Street': 2, 'Saint Elisabeth Convent': 16, 'Crying Guardian Angel': 2, "Paul's Cathedral": 15, 'Liberty Square': 4, 'Gallery Slavutyya Maistry': 1, 'Mary Magdalene': 4, 'Chizhovka Arena': 12, 'IT-country birthplace': 13}</t>
-  </si>
-  <si>
-    <t>{'Iglesia de Alexander Nevski': 15, 'Vitosha Boulevard': 11, 'Iglesia Rusa de San Nicolás': 12, 'Iglesia de Boyana': 16, 'The Rotunda Church of St George': 13, 'Saint Sofia Church': 14, 'St Nedelya Church': 9, 'Sofia Synagogue': 10, 'National Palace of Culture Congress Centre': 19, 'Amphitheatre of Serdica': 17, 'Former Bulgarian Communist Party Headquarters': 14, 'Banya Bashi Mosque': 16, 'Church of St Petka of the Saddlers': 9, 'Sofia University Saint Kliment Ohridski': 14, 'Statue of Tsar Alexander II': 8, 'Sveti Sedmochislenitsi Church': 15, 'The Bells (Kambanite)': 6, 'Soviet Army Monument': 20, 'Monument to the Deity All-Holy Sofia': 6, 'Statue of Slaveikovs': 13, 'Slaveikov Square': 8, 'Dragalevtsi Monastery': 13, 'Ancient Serdica Archaeological Complex': 1, 'The Presidency Building': 12, 'Monument to the Unknown Warrior': 15, 'National Assembly of the Republic of Bulgaria': 17, 'Boyana Village': 1, 'Saint Nikolai Sofiyski': 7, 'Snail Home': 9, 'Mineral water springs': 6}</t>
-  </si>
-  <si>
-    <t>{'Nyhavn': 16, 'Rosenborg Castle': 19, "Our Saviour's Church": 1, 'Rundetårn': 3, 'Museo Nacional': 6, 'Palacio de Christiansborg': 2, 'Copenhagen Opera House': 2, 'Palacio de Amalienborg': 10, 'Kastellet': 17, 'Frederiks Kirke (Marmorkirken)': 15, 'Strøget': 2, 'The Little Mermaid': 2, 'Copenhagen City Hall': 9, 'Gefionspringvandet': 7, 'Grundtvig Church (Grundtvigs Kirke)': 13, 'Frederiksberg Slot': 1, 'Christiania': 17, 'Assistens Cemetery': 17, 'Copenhagen Central Station': 17, 'Thorvaldsens Museum': 17, 'Visit Carlsberg Brand Store': 11, 'Church of Our Lady - Copenhagen Cathedral': 15, 'Krigsmuseet': 19, "Alban's Church": 6, 'Islands Brygge': 10, 'Copenhagen Stock Exchange': 20, 'Gråbrødretorv': 11, 'Andersen Statue': 9, "Changing of her Majesty's guard at Amalienborg Castle": 9, 'Radhuspladsen': 10}</t>
-  </si>
-  <si>
-    <t>{'Ljubljana Old Town': 19, 'Puente Triple': 5, 'Plaza Preseren': 4, 'Catedral de San Nicolás': 1, 'Puente de los Dragones': 20, 'The Ljubljana Castle': 1, 'Cankarjevo Nabrežje': 6, 'Plecnik House': 11, 'Metelkova': 6, 'Franciscan Church (Frančiškanska cerkev)': 2, 'Vodnik Square (Vodnikov trg)': 3, 'Cyril and Methodius Orthodox Church': 5, 'Skyscraper (Nebotičnik)': 17, 'Old Square (Stari trg)': 16, 'Gornji Trg': 1, 'Mestni Trg': 5, 'Town Hall (Magistrat)': 19, "Shoemaker's Bridge (Cevljarski Most)": 12, "Butcher's Bridge": 6, 'Žale Cemetery': 3, 'City Museum of Ljubljana': 1, 'Congress Square (Kongresni trg)': 13, 'Fountain of Three Carniolan Rivers (Vodnjak treh kranjskih rek)': 18, 'Cooperative Business Bank': 14, 'Slovenian Philharmonic Hall (Slovenska Filharmonija)': 14, 'Seminary Palace and Library': 12, 'Michael': 17, 'Hauptmann House': 17, 'Ursuline Church of the Holy Trinity': 1, 'Cyril Methodius Square (Ciril-Metodov trg)': 6}</t>
-  </si>
-  <si>
-    <t>{'Tallinn Old Town': 14, 'Colina Toompea': 3, 'Tallinna Raekoja Plats': 9, 'Catedral de Alejandro Nevski': 6, 'Iglesia Oleviste': 19, 'Ayuntamiento': 8, 'Tallinn TV Tower': 4, 'Tallinn Town Hall': 11, 'Kumu Art Museum': 12, "Catherine's Passage": 11, 'Viewing Point Kohtuotsa': 8, 'Pirita': 3, 'Puerta Viru': 1, 'Catedral de Santa María': 20, 'Patkuli Viewing Platform': 1, 'Long Street (Pikk tanav)': 18, 'Rotermann Quarter': 13, 'Kadriorg Palace': 14, 'Church of the Holy Spirit Puhavaimu Kirik': 1, 'Viru Square': 2, 'Fat Margaret (Paks Margareeta)': 11, 'Russalka': 3, 'Bridget (Pirita Klooster)': 7, 'Rataskaevu Street': 4, 'Tallinn Song Festival Grounds': 4, 'Tallinn Legends': 19, 'Castillo Toompea': 20, 'Long Boot (Pikk Jalg)': 11, 'Peter the Great House Museum': 16, "Nicholas' Orthodox Church": 8}</t>
-  </si>
-  <si>
-    <t>{'Torre Eiffel': 20, 'Museo del Louvre': 11, 'Catedral de Notre Dame': 18, 'Santa Capilla': 12, 'Palais Garnier': 4, 'Arco del Triunfo': 9, 'Basilique du Sacre-Coeur de Montmartre': 15, 'Le Marais': 16, 'Montmartre': 1, 'Puente Alexandre III': 4, 'Place des Vosges': 20, 'Champs-Elysees': 3, 'Ile Saint-Louis': 17, 'Père Lachaise Cemetery': 4, 'Saint-Germain-des-Pres': 8, 'Île de la Cité': 11, 'Latin Quarter': 12, 'Observatoire Panoramique de la Tour Montparnasse': 5, 'Panthéon': 16, 'Towers of Notre-Dame Cathedral': 20, 'Centre Pompidou': 7, 'The Paris Catacombs': 6, 'Église Saint-Étienne-du-Mont de Paris': 12, 'Chapelle Notre Dame de la Medaille Miraculeuse': 20, '1st Arrondissement': 16, 'Le Trocadero et son esplanade': 9, 'Luxembourg Palace': 2, 'Rue Montorgueil': 9, 'Hôtel de Ville': 18, 'La Madeleine': 6}</t>
-  </si>
-  <si>
-    <t>{'Acrópolis': 13, 'Partenón': 11, 'Plaka': 7, 'Mount Lycabettus': 6, 'Temple of Hephaestus': 6, 'Panathenaic Stadium': 17, 'Ágora': 12, 'Herod Atticus Odeon': 18, 'Erechtheion': 5, 'Anafiotika': 4, 'Philopappos Hill': 7, 'Monastiraki': 2, 'Temple of Athena Nike': 14, 'Temple of Olympian Zeus': 2, 'Tomb of the Unknown Soldier': 12, 'Theater of Dionysus': 13, 'Plateia Syntagmatos': 15, 'Areopagus': 7, 'Stoa of Attalos': 3, 'Church of Kapnikaréa': 8, 'Psirri': 6, 'Parlamento (Vouli)': 13, 'Pnyx': 1, 'Changing of the Guard Ceremony': 11, 'Arch of Hadrian': 8, 'Metropolitan Cathedral of Athens': 2, 'Ermou Street': 17, 'The Academy of Athens': 17, 'George': 17, 'Adrianou Street': 2}</t>
-  </si>
-  <si>
-    <t>{'Kilmainham Gaol': 2, 'Guinness Storehouse': 5, 'The Book of Kells and the Old Library Exhibition': 12, 'Cementerio de Glasnevin': 13, 'Trinity College': 9, 'Temple Bar': 19, '14 Henrietta Street': 6, 'Croke Park Stadium Tour &amp; GAA Museum': 4, "Saint Patrick's Cathedral": 9, 'Christ Church Cathedral': 3, 'Dublinia': 18, 'The Famine Sculptures': 15, 'Grafton Street': 18, 'Dublin Castle': 6, "Michan's Church": 14, 'Molly Malone Statue': 10, 'Merrion Square': 11, "Ha'penny Bridge": 12, 'Croke Park Stadium': 4, 'Shelbourne Park Greyhound Stadium': 18, "Audoen's Church": 18, 'Aviva Stadium': 6, "O'Connell Street": 20, 'Drimnagh Castle': 19, 'Casino Marino': 1, 'Farmleigh House and Estate': 14, 'Samuel Beckett Bridge': 3, 'Monument to Oscar Wilde': 11, 'The Custom House Visitor Centre': 7, 'Cliff Path Loop': 5}</t>
-  </si>
-  <si>
-    <t>{'Coliseo': 18, 'Pantheon': 17, 'Fontana di Trevi': 20, 'Piazza Navona': 19, 'Basilica di Santa Maria Maggiore': 19, 'Foro Romano': 12, 'Trastevere': 8, 'Roman Forum': 1, "Castillo de Sant'Angelo": 18, 'Monumento a Vittorio Emanuele II': 14, 'Villa Borghese': 8, 'Arcibasilica di San Giovanni in Laterano': 12, "Chiesa di Sant'Ignazio di Loyola": 1, 'Centro Storico': 6, 'Scalinata di Trinità Dei Monti': 10, 'Iglesia de San Luis de los Franceses': 16, 'San Pedro Encadenado (San Pietro in Vincoli)': 3, 'Fontana dei Quattro Fiumi': 18, 'Santa Maria in Trastevere': 17, 'Basílica de San Clemente': 2, 'Palazzo Doria Pamphilj': 2, 'Santa Maria della Vittoria': 12, 'Piazza Venezia': 1, 'Domus Aurea': 19, 'Basilica di Santa Maria degli Angeli e dei Martiri': 7, 'Catacombs of Saint Callixtus': 17, 'Terme di Caracalla': 16, 'Piazza del Popolo': 3, 'Welcome To Rome': 20, 'La Domus Romana del Palacio Valentini': 13}</t>
-  </si>
-  <si>
-    <t>{'Vilnius Old Town': 11, '0': 17, 'Iglesia de San Pedro y San Pablo': 4, 'Iglesia de Santa Ana': 8, 'Puerta de la Aurora': 16, 'Uzupis': 11, 'Holy Spirit Orthodox Church': 16, 'Paneriai (Ponar)': 16, 'Vilnius Cathedral': 2, 'Vilnius University (Vilniaus Universitetas)': 8, 'Bernardine Church (Bernardinu Baznycia)': 18, 'Vingis Park': 20, "St John's church": 5, 'Vilnius Cathedral Square': 8, 'Vilnius TV Tower': 3, 'Castle Hill': 5, 'Theresa': 8, 'Bell Tower of Vilnius Cathedral': 12, 'Stebuklas': 5, 'Rasu Cemetery (Rasu kapines)': 1, 'Gediminas Avenue': 7, 'Casimir': 19, 'Monument to Zemach Shabad': 17, 'Uzupis Mermaid': 8, 'Presidential Palace': 13, 'Antakalnis Cemetery': 20, 'Uzupis Angel': 16, 'Artworks on Literatu str': 20, 'Vilnius Choral Synagogue': 5, 'Church of the Holy Spirit (Sventosios Dvasios Baznycia)': 3}</t>
-  </si>
-  <si>
-    <t>{'Old Bazaar, Skopje': 3, 'The Stone Bridge': 19, 'Macedonia Square': 7, 'Millennium Cross': 15, 'Memorial House of Mother Teresa': 17, 'Panteleimon': 20, 'Warrior on a Horse': 4, 'Holy Savior Church': 14, 'Mustafa Pasha Mosque': 20, 'Clement of Ohrid': 9, 'Skopje Art Bridge': 20, 'Daut Pasha Hamam': 1, 'Skopje Fortress Kale': 11, 'Phillip II of Macedon': 1, 'Fountain of the Mothers of Macedonia': 20, 'Skopje Eye Bridge': 13, 'Skopje Aqueduct': 3, 'Kapan Han': 5, 'Sultan Murad Mosque': 19, 'Statue Divers': 17, 'Museum City of Skopje': 9, 'Church of Saint Dimitrija': 20, "Memorial plaque of Mother Teresa's birth house": 12, 'Church of the Ascension of Jesus': 7, 'Stobi': 3, 'Fallen Heroes of Macedonia': 8, 'Porta Macedonia aka Gate Macedonia': 5, 'National Arena Philip II of Macedonia': 13, 'Mosque Iskhak-Bek': 16, 'Clock Tower Saat Kula': 11}</t>
-  </si>
-  <si>
-    <t>{'Victory Memorial and Eternal Flame': 19, 'Catedrala Nasterea Domnului': 7, 'Theodor Tiron Convent': 9, 'Stephen the Great Monument': 10, 'Sculpture of Lovers': 17, 'Triumphal Arch': 7, 'Afghan War Memorial To Sons of Motherland - Eternal Memory': 19, 'Dormition of the Theotokos': 5, 'Pedestrian Street': 10, 'Jewish Cemetery': 1, 'Chisinau Railway Station': 16, 'Orthodox Cathedral of the Transfiguration of the Saviour': 2, 'Sculpture of Skateboarders': 18, 'Monument to the Victims of Jewish Ghetto': 3, 'Nicholas': 15, 'Kishinev Jacobs Jewish Cultural Center': 16, 'Parliament of the Republic of Moldova': 11, 'Chisinau Mosque': 6, 'Metropolitan Cathedral': 17, 'Chisinau City Hall': 9, 'Synagogue Chabad Lubavitch': 16, 'Cathedral of Divine Providence': 1, "Mary's Armenian Apostolic Church": 16, 'Monument to the Heroes-Komsomol': 20, 'Mazarachi Church': 7, 'Monument to the Liberators of Chisinau from the Nazi Troops': 11, 'Monument to Sergey Lazo': 1, 'Memorial to Victims of Stalinist Repression': 3, 'Tekwill Technology Hub': 15, '1 Ban Monument': 3}</t>
-  </si>
-  <si>
-    <t>{'Jordaan': 10, 'Estación Central': 8, 'Barrio Rojo': 15, 'Museo Casa de Rembrandt': 12, 'La Plaza Dam': 12, "A'dam Lookout": 8, 'Museum Quarter': 9, 'Palacio Real': 10, 'Begijnhof': 20, 'Amsterdam Canal Ring': 7, 'Johan Cruyff Arena': 20, 'Sinagoga Portuguesa': 16, 'Las Nueve Calles': 1, 'El Amstel': 19, 'De Duif': 17, 'Rembrandtplein': 3, 'Plaza Leidseplein': 13, 'Ziggo Dome': 13, 'Museum Van Loon': 3, 'Willet-Holthuysen Museum': 14, 'Nicholas Basilica': 16, 'De Poezenboot': 7, 'De Hallen Amsterdam': 17, 'Westerkerk': 16, 'Brouwersgracht': 3, 'Haarlemmerstraat': 13, 'De Krijtberg - Sint Franciscus Xaveriuskerk': 12, 'Nieuwmarkt': 17, 'Museum Het Schip': 7, 'Magere Brug': 20}</t>
-  </si>
-  <si>
-    <t>{'Alfama': 15, 'Mosteiro dos Jerónimos': 5, 'Praca do Comercio (Terreiro do Paco)': 19, 'Barrio Alto': 4, 'Castillo de San Jorge': 12, 'Belem': 2, 'Miradouro da Senhora do Monte': 20, 'Chiado': 7, 'Padrao dos Descobrimentos': 11, 'Arco do Triunfo': 20, 'Igreja de São Roque': 7, '25 de Abril Bridge': 16, 'Estadio do Sport Lisboa e Benfica': 10, 'LX Factory': 3, 'Parque das Nacoes': 4, 'Vasco da Gama Bridge': 7, 'Miradouro da Graca (Sophia de Mello Breyner Andresen)': 2, 'Palacio de Ajuda': 12, 'Panteao Nacional': 18, 'Avenida da Liberdade': 2, 'Miradouro de Santa Luzia': 5, 'Rossio Square': 17, 'Santo Antonio de Lisboa': 4, 'Mosteiro De Sao Vicente De Fora': 15, 'Rua Augusta': 8, 'Santa Maria de Belem Church': 2, 'Vasco da Gama Shopping Center': 12, 'Palácio dos Marqueses de Fronteira': 9, 'Miradouro das Portas do Sol': 17, 'Igreja de Sao Domingos (Santa Justa e Rufina)': 2}</t>
-  </si>
-  <si>
-    <t>{'Staromestske namesti': 19, 'Karlův Most': 8, 'Catedral de San Vito': 8, 'Prague Castle': 1, 'Staroměstská Radnice': 20, 'Lesser Town': 1, 'Hradčany': 7, 'Sinagoga Española': 7, 'Monte Petřín': 6, 'Iglesia de San Nicolás': 2, 'Palacio Lobkowicz': 18, 'Monumento Cultural Nacional Vysehrad': 1, 'Obecní Dům': 19, 'Church of Our Lady before Tyn': 5, 'National Memorial to the Heroes of the Heydrich Terror': 2, 'Franz Kafka Statue': 1, 'Petrin Tower': 8, 'Old Town Bridge Tower': 4, 'Kostel Panny Marie Vítězné a Pražské Jezulátko': 3, 'St Cyril and St Methodius Cathedral': 14, 'Prašná brána': 18, 'Rudolfinum': 14, 'The Vrtba Garden': 18, 'Wenceslas Square (Václavské náměstí)': 20, 'Waldstein Palace': 17, 'Loreta Praha': 11, 'Pinkas Synagogue, Jewish Museum in Prague': 15, 'Dancing House': 18, 'Convent of St Agnes of Bohemia - National Gallery Prague': 20, 'John Lennon Wall': 20}</t>
-  </si>
-  <si>
-    <t>{'Stockholm Old Town': 10, 'Ayuntamiento': 17, 'Djurgarden': 11, 'Palacio Real': 10, 'Monteliusvagen': 15, 'Södermalm': 14, 'Stortorget': 5, 'Catedral de Estocolmo': 15, 'Skogskyrkogården': 13, 'Galería Thiel': 11, 'Strandvagen': 14, 'Parliament Building (Riksdagshuset)': 14, 'Mirador Fjallgatan': 8, 'Ostermalm': 15, 'Riddarholm Church (Riddarholmskyrkan)': 17, 'Iglesia Alemana': 14, 'Globen Skyview': 20, 'Royal Dramatic Theater (Kungliga Dramatiska Teatern)': 18, 'Järnpojken': 11, 'Cirkus Arena': 8, 'Avicii Arena': 9, 'Kulturhuset': 2, 'Norrmalm': 19, 'S:ta Clara kyrka': 8, 'Judiska Församlingen I Stockholm': 6, 'Riddarhuset': 17, 'Tele2 Arena': 10, 'The Stockholm Concert Hall': 1, 'Katarina Hissen': 12, 'Vinterviken': 9}</t>
-  </si>
-  <si>
-    <t>{'Reichstag Building': 8, 'Puerta de Brandeburgo': 14, 'Memorial del Holocausto': 19, 'Memorial del Muro de Berlín': 3, 'East Side Gallery': 19, 'Friedrichstadt-Palast': 17, 'Museum Island': 5, 'Berliner Dom': 20, 'Gendarmenmarkt': 4, 'Fernsehturm de Berlín': 14, 'Filarmónica de Berlín': 6, 'Memorial Berlín Hohenschönhausen': 19, 'Olympiastadion Berlin': 14, 'Kaiser Wilhelm Memorial Church': 12, 'Victory Column (Siegessaule)': 15, 'Charlottenburg Palace': 1, 'Museo Histórico Alemán': 12, 'Potsdamer Platz': 4, 'Alexanderplatz': 20, 'Tempelhof Airport': 4, 'Die Hackeschen Hoefe': 12, 'Estación Central de Berlín': 19, 'Berlín-Mitte': 6, 'Checkpoint Charlie': 4, 'Haus der Wannsee-Konferenz': 14, 'Kurfürstendamm': 18, 'Panoramapunkt': 5, 'Prenzlauer Berg': 11, 'Gleis 17, Grunewald': 8, 'Kreuzberg': 13}</t>
-  </si>
-  <si>
-    <t>{'Gran Plaza': 18, 'Les Galeries Royales Saint-Hubert': 20, 'Atomium': 20, 'Catedral de San Miguel y Santa Gúdula': 6, 'Town Hall (Hôtel de Ville)': 5, 'Parc du Cinquantenaire': 11, 'Guild Houses': 11, 'Notre Dame du Sablon': 11, 'Parlamentarium: Centro de visitas del Parlamento Europeo': 13, 'Manneken Pis': 19, 'Mont des Arts': 17, 'Serres Royales De Laeken': 14, 'Royal Palace (Palais Royal)': 7, 'Bois de la Cambre': 1, 'National Basilica of the Sacred Heart': 2, 'Place du Grand Sablon': 2, 'Catherine': 20, 'Belgian Comic Strip Center': 18, 'European Parliament Hemicycle (free visits)': 2, 'Gery': 5, 'Tintin Mural Painting': 4, 'Justice Palace (Palais de Justice)': 4, 'Coudenberg Palace': 20, 'Porte de Hal': 20, 'Le Botanique': 18, 'Lower Town': 2, 'La Bourse de Bruxelles': 19, 'Avenue Louise': 15, 'Jeanneke Pis': 11, 'Place Royale': 3}</t>
-  </si>
-  <si>
-    <t>{'Sarajevo War Tunnel': 20, 'Bascarsija': 6, 'Sarajevo Olympic Bobsleigh and Luge Track': 17, 'Sarajevo City Hall': 2, 'Gazi Husrev-beg Mosque': 5, 'The Yellow Fortress': 15, 'Avaz Twist Tower': 11, 'Katedrala Srca Isusova': 3, 'Sebilj Brunnen (Fountain)': 19, 'Latin Bridge': 12, 'Ferhadija Pedestrian Street': 3, 'Church of the Holy Archangels Michael and Gabriel in Sarajevo': 7, 'Sarajevo Memorial for Children Killed during Siege': 19, 'Eternal Flame': 14, 'Sniper Alley': 19, 'Pijaca Markale': 8, 'Serbian Orthodox Cathedral': 16, 'Alifakovac Cemetery': 14, 'Gazi Husrev Begova Medresa': 18, 'TasliHan': 1, 'Old Sarajevo Clock Tower': 17, 'Ashkenazi Synagogue': 4, 'Romeo and Juliet Bridge': 14, 'Central Post Office': 12, 'Bridge Festina Lente': 15, 'The Academy of Fine Arts': 15, "Goat's Bridge": 15, "Emperor's Mosque": 16, 'Alipasina Mosque': 10, 'Bosniak Institute': 12}</t>
-  </si>
-  <si>
-    <t>{'Tkalčićeva Street': 2, 'Upper Town (Gornji Grad)': 18, 'Iglesia de San Marcos': 12, 'Cementerio Mirogoj': 18, 'Cathedral of the Assumption': 13, 'Ban Josip Jelačić Square': 16, 'Croatian National Theatre in Zagreb': 3, 'Lotrščak Tower': 7, 'Lower Town': 1, 'Funicular Railway': 3, 'King Tomislav Square': 19, 'Puerta de Piedra': 12, 'Ban Josip Jelacic Monument': 8, 'Radićeva': 14, 'Holy Mary Monument': 9, 'Strossmayer Promenade': 10, 'Ilica': 15, 'Tunel Gric': 14, 'The Well of Life': 2, 'Republic of Croatia Square / Trg Republike Hrvatske': 11, 'Zagreb Cathedral': 14, 'Nikola Tesla Statue': 3, 'Medvedgrad Visitor Center': 9, 'Catherine': 8, "Mark's Square": 1, 'Square of Petar Preradovic': 16, 'Zagreb Orthodox Cathedral': 17, 'Saint George Statue': 2, 'King Tomislav Statue': 10, 'Mandusevac Fountain': 1}</t>
-  </si>
-  <si>
-    <t>{'Casco antiguo': 20, 'Castillo Devin': 20, 'Cumil': 17, 'Modry Kostol': 14, 'Bratislava Castle': 12, 'Slavin': 2, 'UFO Observation Deck': 20, 'Plaza Mayor': 1, 'Ayuntamiento Viejo': 2, "Michael's Tower &amp; Street": 17, 'Puerta de San Miguel': 15, "Martin's Cathedral (Dom svateho Martina)": 4, 'Hviezdoslavovo Namestie': 16, 'Schone Naci Statue': 5, 'Slovak Philharmonic': 6, 'Napoleon’s Army Soldier Statue': 12, 'The Grassalkovich palace - Presidential palace': 6, 'New Bridge (Novy Most)': 14, "Primates' Palace (Primacialny palac)": 9, 'Statue of Hans Christian Andersen': 8, 'Kapitulska Street': 5, 'Chatam Sofer Memorial': 13, 'Ondrej Nepela Arena': 17, 'George and the Dragon': 20, 'Maximilian´s Fountain': 15, 'Stary most': 20, 'Building of Slovak Radio': 3, 'Franciscan Church and Monastery': 9, 'The old Slovak National Theater': 12, 'Apollo Bridge': 3}</t>
-  </si>
-  <si>
-    <t>{'Fortaleza de Suomenlinna': 16, 'Temppeliaukion Church': 15, 'Catedral Luterana': 8, 'Catedral Ortodoxa Uspenski': 3, 'Old Market Hall': 6, 'Museo al aire libre de Seurasaari': 3, 'Kamppi Chapel of Silence': 8, 'The Esplanadi Park': 9, 'Plaza del Senado': 5, 'Helsingin Päärautatieasema': 14, 'The National Library of Finland': 19, 'Hakaniemi Market': 17, 'Kauppatori': 12, 'Museo Mannerheim': 13, 'Katajanokka': 12, 'Johannes Church': 15, 'The Aalto House': 18, 'Hakaniemi Market Hall': 7, 'Havis Amanda': 9, 'Toolo Bay (Toolonlahti)': 7, 'Olympic Stadium (Olympiastadion)': 18, 'Sibelius Monument': 17, 'Hietaniemi Cemetery': 12, 'SkyWheel Helsinki': 16, 'Talvipuutarha': 5, 'Kallio Church': 19, 'Hartwall Arena': 6, 'Helsinki University Library': 8, 'University of Helsinki (Helsingin Yliopisto)': 19, 'Design District': 4}</t>
-  </si>
-  <si>
-    <t>{'Parlamento': 1, "Fisherman's Bastion": 4, 'Basílica de San Esteban': 1, 'Zapatos en el Danubio': 18, 'Matthias Church': 10, "Heroes' Square": 5, 'Budai Vár': 11, 'Varhegy': 16, 'Puente de las Cadenas': 18, 'Colina y Estatua Gellért': 12, 'Hungarian State Opera House (Magyar Allami Operahaz)': 15, '3d Gallery Budapest': 4, 'Vajdahunyad Castle (Vajdahunyadvar)': 16, 'Gran Sinagoga': 12, 'Gozsdu Udvar': 2, 'Puente de la Libertad': 4, 'Citadel': 1, 'Music Fountain': 10, 'Vaci Street': 8, 'Andrassy Avenue': 13, 'Museo Nacional Húngaro': 6, 'New York Palace': 17, 'Statue of St Stephen': 15, 'Gresham Palace': 5, 'Plaza Vorosmarty (Vorosmarty ter)': 19, "Anonymus Szobor (Anonymous' Statue)": 5, 'Bagni Széchenyi': 6, 'Kossuth Lajos Square': 8, 'Korzo - Danube Embankment (Dunakorzó)': 2, 'Castle Garden': 9}</t>
-  </si>
-  <si>
-    <t>{'Iglesia de Hallgrímur (Hallgrimskirkja)': 13, 'Perlan': 6, 'Harpa Reykjavik Concert Hall and Conference Centre': 8, 'Sun Voyager': 12, 'Reykjavík 871±2': 16, 'Laugavegur': 20, 'Árbær Open Air Museum': 15, 'Museo Einar Jonsson': 14, 'Videy Island': 4, 'Grotta Lighthouse': 7, 'Reykjavík Art Museum Ásmundarsafn': 6, 'The Statue of Leif Eiriksson': 18, 'Geothermal Area Krysuvik': 18, 'Reykjavik City Hall': 8, 'Cemetery Holavallagardur': 9, 'Domkirkjan': 18, 'Bjarteyjarsandur': 2, 'Hofdi House': 20, 'Imagine Peace Tower': 18, 'Thufa': 19, 'Parliament House (Althingishus)': 2, 'The Nordic House': 17, 'Sculpture and Shore Walk': 3, 'Bárður Snæfellsás': 17, 'Thorsmork': 18, 'Skolavordustigur': 15, 'Arnarholl Statue': 20, 'Christ The King Cathedral': 4, 'Hannesarholt': 16, 'Háteigskirkja Church': 12}</t>
-  </si>
-  <si>
-    <t>{'Old City Riga (Vecriga)': 19, 'Riga Town Hall Square': 8, 'House Of The Black Heads': 9, 'Alberta Iela': 9, "View of Riga from St Peter's Church Tower": 16, 'Freedom Monument': 1, 'Latvian Ethnographic Open Air Museum': 16, 'Jugenda Stila Nami': 8, 'Riga Cathedral': 16, 'Panorama Riga Observation Deck': 2, 'Nativity of Christ Cathedral': 5, 'Vermanes Garden': 17, 'Jauniela': 2, "Peter's Church": 7, 'Cat House': 6, 'Bremen Town Musicians': 18, 'Livu Square': 13, 'Rumbula Forest Memorial': 12, 'Swedish Gate (Zviedru Varti)': 12, 'Arena Riga': 6, "John's Church": 16, 'Riga Radio and TV Tower': 15, 'Bikernieki Memorial': 18, 'The House that was Built in 1903': 19, 'Latvian National Theater': 13, 'Sculpture The Ghost': 5, 'Small Guild of Riga': 16, 'Temple of the Holy Prince Alexander Nevskiy': 8, 'Gertrude Old Church': 7, 'Riga Synagogue': 13}</t>
-  </si>
-  <si>
-    <t>{'Vianden Castle': 13, 'Le Chemin de la Corniche': 2, 'Luxembourg American Cemetery Memorial': 12, 'Cathédrale Notre-Dame': 1, 'Grund': 1, 'Pfaffenthal Lift': 11, 'MNHM National Museum of Military History': 12, 'Casemates du Bock': 5, 'Grand Ducal Palace': 9, 'Wenzel Circular Walk': 19, 'Pont Adolphe': 8, "Place d'Armes": 19, 'Viaduc (Passerelle)': 19, 'Mudam Luxembourg Musée d’Art Moderne': 1, 'Bourscheid Castle': 9, 'Place de la Constitution': 13, 'Abbey of Echternach': 10, '': 7, 'Holy Ghost Citadel': 2, 'Beaufort Castles': 4, 'Rockhal': 7, 'Chateau de Clervaux': 8, 'Abbaye Saint-Maurice de Clervaux': 16, 'Blast Furnace Belval': 8, "Monument du Souvenir - 'Gëlle Fra'": 19, 'Larochette Castle': 5, "Saint Michel's Church": 16, 'Chateau Esch-sur-Sûre': 1, 'Monument National de la Solidarite': 14, 'Hollow Tooth': 10}</t>
-  </si>
-  <si>
-    <t>{'Concatedral de San Juan': 13, 'Lascaris War Rooms': 18, 'Fort St Elmo - National War Museum': 9, 'Casa Rocca Piccola': 3, 'Saluting Battery': 12, 'Valletta Waterfront': 9, 'War HQ Tunnel': 15, 'Three Cities': 7, 'Barrakka Lift': 16, 'Iglesia del Naufragio de San Pablo': 7, 'Strait Street': 3, 'Triton Fountain': 3, "Grandmaster's Palace": 20, 'Valletta City Gate': 15, 'Shrine of Our Lady of Mount Carmel': 6, 'Siege Bell War Memorial': 10, "Paul's Anglican Pro-Cathedral": 1, 'St George Square': 2, "Il-Berga ta' Kastilja": 6, 'Victoria Gate': 14, 'Our Lady of Victories Church': 13, 'The New Parliament': 8, "Francis' Church Valletta": 6, 'Pjazza Teatru Rjal': 3, 'Reliving The Sacra Infermeria': 18, 'Mediterranean Conference Centre': 3, 'St Augustine Church &amp; Priory': 11, 'Catherine of Italy': 19, "Auberge d'Italie": 6, 'Independence Monument': 12}</t>
-  </si>
-  <si>
-    <t>{'Museo del Pueblo Noruego': 16, 'Castillo y Fortaleza de Akershus': 12, 'Ayuntamiento de Oslo': 13, 'El Palacio Real': 17, 'Karl Johans gate': 9, 'Oslomarka': 9, 'Fortaleza de Oscarborg': 6, 'Grünerløkka': 14, 'Drobak': 3, "Oslo's Harbour Promenade": 11, 'The Norwegian Parliament': 3, 'Emanuel Vigeland Museum': 19, 'juli-senteret': 9, 'Oslo Cathedral (Oslo Domkirke)': 3, 'Tjuvholmen Sculpture Park': 15, 'Tiger Sculpture': 16, 'Ostbanehallen': 3, 'Barcode Oslo': 17, 'Waterfall at Molla': 14, 'The Bergen Railway': 15, 'Tjuvholmen Neighbourhood': 3, 'The Viking Planet Oslo': 3, 'Oslo Spektrum': 3, 'Old Aker Church': 4, 'Bogstad Gard': 18, 'She Lies': 9, 'Vulkan Neighbourhood': 8, 'Street Art at Ingens gate': 1, 'Oscarshall': 10, 'Sagene Church': 8}</t>
-  </si>
-  <si>
-    <t>{'Old Town': 7, 'Rynek Starego Miasta': 17, 'Castle Square (Plac Zamkowy)': 11, 'Palace of Culture and Science': 3, 'Zamek Królewski w Warszawie - Muzeum': 9, 'Nowy Swiat': 6, 'Krakowskie Przedmiescie': 18, 'Monument to the Warsaw Uprising Fighters': 10, 'Palace on the Island': 10, 'Chopin Monument': 10, 'Pomnik Bohaterów Getta': 5, 'Hala Koszyki': 2, 'Grób Nieznanego Żołnierza': 2, 'Viewing Terrace': 2, 'PGE National Stadium': 16, "Anne's Church (Kosciol Swietej Anny)": 8, 'Warsaw Barbican (Barbakan Warszawski)': 2, 'Jewish Cemetery (Cmentarz Zydowski)': 2, 'Statue of the Little Insurgent': 15, 'Cmentarz Wojskowy na Powazkach': 12, 'Multimedia Fountain Park': 1, 'Warsaw Mermaid': 7, 'Holy Cross Church (Kosciol Swietego Krzyza)': 13, 'Warsaw Ghetto': 6, 'Legia Warsaw Municipal Stadium of Marshal Jozef Pilsudski': 3, 'Fragment of Ghetto Wall': 13, "King Sigismund's Column (Kolumna Zygmunta)": 12, 'John the Baptist': 11, 'University of Warsaw (Uniwersytet Warszawski)': 8, 'Fabryka Norblina': 20}</t>
-  </si>
-  <si>
-    <t>{'Iglesia Stavropoleos': 14, 'Muzeul Naţional al Satului "Dimitrie Gusti"': 18, 'Palace of Parliament': 20, 'Ateneo Romano': 13, 'Old Town': 8, 'Lipscani': 12, 'Piața Unirii': 17, "Manuc's Inn (Hanul lui Manuc)": 14, 'Catedrala Patriarhală': 1, 'Carol Park': 17, 'Calea Victoriei': 8, 'Piața Revoluției': 12, 'Triumph Arch (Arcul de Triumf)': 4, 'Palatul CEC': 5, 'National Theatre Ion Luca Caragiale (Teatrul Național Ion Luca Caragiale)': 15, 'Biserica Sfântul Gheorghe Nou': 2, 'Biserica Sfântul Anton - Curtea Veche': 20, 'Muzeul Colecțiilor de Artă': 13, 'National Arena Stadium Bucharest': 7, 'Nicolae': 6, 'Cercul Militar Național (CCA)': 16, 'The Choral Temple': 8, 'Bellu Cemetery (Cimitirul Șerban Vodă-Bellu)': 3, 'Bucharest Municipal Museum': 12, 'Biserica Kretzulescu': 9, 'Mănăstirea Antim': 7, 'Colțea Hospital (Spitalul Colțea)': 11, 'Great Synagogue': 16, 'Macca Villacrosse Passage': 6, 'Radu Vodă Monastery (Mănăstirea Radu Vodă)': 13}</t>
-  </si>
-  <si>
-    <t>{'The Belgrade Fortress': 15, 'Knez Mihailova': 18, 'Sava Temple': 3, 'Skadarlija': 19, 'Kalemegdan Park and Belgrade Fortress': 16, "Saint Petka's Chapel": 9, 'The Millenary Monument': 3, 'Church of the Holy Mother of God': 13, 'Zemunski kej': 16, 'Crkva Svetog Marka': 17, 'The National Assembly': 2, 'Avala Tower': 7, 'Residence of Princess Ljubica (Konak Kneginje Ljubice': 11, "Michael's Cathedral": 2, 'Red Star Belgrade Stadium - Marakana': 12, 'Trg Republike': 7, 'Sava Bridge': 20, 'Dorcol': 14, 'Public Aquarium and Tropicarium Belgrade': 13, 'Kombank Arena': 7, 'Royal Palace': 1, 'Crkva Svetog Oca Nikolaja': 19, 'Nebojsa Tower': 8, 'Bayraklee mosque (Bajrakli džamija)': 10, 'Patriarchate of the Serbian Orthodox Church': 17, 'Partizan Stadium': 9, 'Terazije Fountain': 2, 'White Palace': 16, 'Tresije': 5, 'Grocka': 12}</t>
+    <t>{'Skanderbeg Square': 11, 'Et`hem Bey Mosque': 18, 'Orthodox Autocephalous Church of Albania': 1, 'Skanderbeg Statue': 9, 'Clock Tower': 15, 'Rruga Murat Toptani': 14, "Tanners' Bridge": 18, 'Peace Bell': 4, 'Kapllan Pasha’s Tomb': 4, 'Saint Paul Cathedral': 8, 'Enver Hoxha Pyramid': 12, 'Marie': 9, 'Great mosque of Tirana': 15, 'Unknown Partisan Monument': 13, 'Fortress of Justinian': 1, 'Postbllok - Checkpoint Monument': 12, 'Bektashi World Centre': 1, 'TID Tower': 1, 'Reja "The Cloud"': 13, 'Blloku': 18, 'Polytechnic University of Tirana': 13, 'Qemal Stafa Stadium': 12, 'Friendship Monument': 5, 'Independence Monument': 18, 'Fan Noli statue': 20, 'Mosaic of Tirana': 2, 'Baitul Awwal Mosque': 19, 'Xhura Mosque': 15, 'Pomnik Fryderyka Chopina': 12, 'Selman Stermasi Stadium': 13}</t>
+  </si>
+  <si>
+    <t>{'Palacio de Schönbrunn': 15, 'Historic Center of Vienna': 20, 'Catedral de San Esteban': 9, 'Belvedere Museum': 14, 'Schonbrunner Gardens': 7, 'Rathaus': 4, 'State Hall of the Austrian National Library': 5, 'Peterskirche': 20, 'Plaza de San Esteban (Stephansplatz)': 20, 'Rathausplatz': 15, 'Cementerio Central (Zentralfriedhof)': 19, 'Volksgarten': 8, 'Ringstrasse': 10, 'Museo KunstHausWien': 7, 'Hundertwasserhaus': 12, 'Casa de la musica': 3, 'Graben and Kohlmarkt': 20, 'Kahlenberg': 2, 'Karlskirche': 7, 'Imperial Crypt': 10, 'Church of the Jesuits': 7, 'Kirche am Steinhof': 9, 'Danube Tower': 14, 'Votivkirche': 13, 'Michaelerplatz': 12, 'Österreichisches Parlament': 20, 'Maria Theresia Denkmal': 16, 'MAK - Austrian Museum of Applied Arts/Contemporary Art': 16, 'Wiener Riesenrad': 18, 'Mariahilfer Strasse': 19}</t>
+  </si>
+  <si>
+    <t>{'Church of Saints Simon and Helena': 3, 'Island of Tears': 18, 'Victory Square': 8, 'Upper City': 15, 'Monument to Fallen Jewish People on March 2, 1942': 2, 'Minsk-Arena Complex': 13, 'Holy Spirit Cathedral': 17, 'Minsk Gates': 9, 'Independence Square, Minsk': 11, 'Svislach River Embankment': 16, 'Loshitskiy Park': 18, 'Central Botanical Garden of the National Academy of Sciences of Belarus': 6, 'Minsk Railway station': 12, 'Trinity Hill': 14, 'Archcathedral Holy Name of the Blessed Virgin Mary': 3, 'Minsk City Hall': 17, 'Sculpture': 8, 'Church of All Saints': 19, 'Fountain of Independence': 18, 'Zero Kilometr of Belarus': 17, 'Observation Deck of National Library of Belarus': 6, 'Graffiti Street': 9, 'Saint Elisabeth Convent': 2, 'Crying Guardian Angel': 12, "Paul's Cathedral": 10, 'Liberty Square': 8, 'Gallery Slavutyya Maistry': 20, 'Mary Magdalene': 14, 'Chizhovka Arena': 4, 'IT-country birthplace': 19}</t>
+  </si>
+  <si>
+    <t>{'Iglesia de Alexander Nevski': 4, 'Vitosha Boulevard': 4, 'Iglesia Rusa de San Nicolás': 5, 'Iglesia de Boyana': 19, 'The Rotunda Church of St George': 17, 'Saint Sofia Church': 20, 'St Nedelya Church': 14, 'Sofia Synagogue': 4, 'National Palace of Culture Congress Centre': 4, 'Amphitheatre of Serdica': 7, 'Former Bulgarian Communist Party Headquarters': 12, 'Banya Bashi Mosque': 5, 'Church of St Petka of the Saddlers': 3, 'Sofia University Saint Kliment Ohridski': 16, 'Statue of Tsar Alexander II': 15, 'Sveti Sedmochislenitsi Church': 19, 'The Bells (Kambanite)': 12, 'Soviet Army Monument': 8, 'Monument to the Deity All-Holy Sofia': 4, 'Statue of Slaveikovs': 10, 'Slaveikov Square': 8, 'Dragalevtsi Monastery': 12, 'Ancient Serdica Archaeological Complex': 6, 'The Presidency Building': 14, 'Monument to the Unknown Warrior': 14, 'National Assembly of the Republic of Bulgaria': 2, 'Boyana Village': 6, 'Saint Nikolai Sofiyski': 7, 'Snail Home': 9, 'Mineral water springs': 1}</t>
+  </si>
+  <si>
+    <t>{'Nyhavn': 15, 'Rosenborg Castle': 17, "Our Saviour's Church": 18, 'Rundetårn': 18, 'Museo Nacional': 4, 'Palacio de Christiansborg': 9, 'Copenhagen Opera House': 8, 'Palacio de Amalienborg': 15, 'Kastellet': 10, 'Frederiks Kirke (Marmorkirken)': 13, 'Strøget': 9, 'The Little Mermaid': 13, 'Copenhagen City Hall': 14, 'Gefionspringvandet': 16, 'Grundtvig Church (Grundtvigs Kirke)': 7, 'Frederiksberg Slot': 4, 'Christiania': 9, 'Assistens Cemetery': 9, 'Copenhagen Central Station': 14, 'Thorvaldsens Museum': 5, 'Visit Carlsberg Brand Store': 5, 'Church of Our Lady - Copenhagen Cathedral': 12, 'Krigsmuseet': 14, "Alban's Church": 13, 'Islands Brygge': 15, 'Copenhagen Stock Exchange': 5, 'Gråbrødretorv': 14, 'Andersen Statue': 16, "Changing of her Majesty's guard at Amalienborg Castle": 16, 'Radhuspladsen': 15}</t>
+  </si>
+  <si>
+    <t>{'Ljubljana Old Town': 4, 'Puente Triple': 8, 'Plaza Preseren': 9, 'Catedral de San Nicolás': 3, 'Puente de los Dragones': 11, 'The Ljubljana Castle': 2, 'Cankarjevo Nabrežje': 18, 'Plecnik House': 12, 'Metelkova': 9, 'Franciscan Church (Frančiškanska cerkev)': 14, 'Vodnik Square (Vodnikov trg)': 11, 'Cyril and Methodius Orthodox Church': 11, 'Skyscraper (Nebotičnik)': 17, 'Old Square (Stari trg)': 20, 'Gornji Trg': 7, 'Mestni Trg': 6, 'Town Hall (Magistrat)': 16, "Shoemaker's Bridge (Cevljarski Most)": 15, "Butcher's Bridge": 6, 'Žale Cemetery': 15, 'City Museum of Ljubljana': 6, 'Congress Square (Kongresni trg)': 10, 'Fountain of Three Carniolan Rivers (Vodnjak treh kranjskih rek)': 8, 'Cooperative Business Bank': 8, 'Slovenian Philharmonic Hall (Slovenska Filharmonija)': 18, 'Seminary Palace and Library': 20, 'Michael': 8, 'Hauptmann House': 17, 'Ursuline Church of the Holy Trinity': 17, 'Cyril Methodius Square (Ciril-Metodov trg)': 6}</t>
+  </si>
+  <si>
+    <t>{'Tallinn Old Town': 12, 'Colina Toompea': 2, 'Tallinna Raekoja Plats': 5, 'Catedral de Alejandro Nevski': 20, 'Iglesia Oleviste': 16, 'Ayuntamiento': 6, 'Tallinn TV Tower': 20, 'Tallinn Town Hall': 20, 'Kumu Art Museum': 20, "Catherine's Passage": 16, 'Viewing Point Kohtuotsa': 1, 'Pirita': 4, 'Puerta Viru': 7, 'Catedral de Santa María': 9, 'Patkuli Viewing Platform': 15, 'Long Street (Pikk tanav)': 13, 'Rotermann Quarter': 2, 'Kadriorg Palace': 11, 'Church of the Holy Spirit Puhavaimu Kirik': 15, 'Viru Square': 6, 'Fat Margaret (Paks Margareeta)': 1, 'Russalka': 11, 'Bridget (Pirita Klooster)': 18, 'Rataskaevu Street': 1, 'Tallinn Song Festival Grounds': 9, 'Tallinn Legends': 1, 'Castillo Toompea': 9, 'Long Boot (Pikk Jalg)': 1, 'Peter the Great House Museum': 7, "Nicholas' Orthodox Church": 20}</t>
+  </si>
+  <si>
+    <t>{'Torre Eiffel': 10, 'Museo del Louvre': 19, 'Catedral de Notre Dame': 11, 'Santa Capilla': 1, 'Palais Garnier': 7, 'Arco del Triunfo': 6, 'Basilique du Sacre-Coeur de Montmartre': 1, 'Le Marais': 12, 'Montmartre': 8, 'Puente Alexandre III': 18, 'Place des Vosges': 20, 'Champs-Elysees': 11, 'Ile Saint-Louis': 15, 'Père Lachaise Cemetery': 9, 'Saint-Germain-des-Pres': 5, 'Île de la Cité': 12, 'Latin Quarter': 11, 'Observatoire Panoramique de la Tour Montparnasse': 3, 'Panthéon': 8, 'Towers of Notre-Dame Cathedral': 13, 'Centre Pompidou': 10, 'The Paris Catacombs': 17, 'Église Saint-Étienne-du-Mont de Paris': 10, 'Chapelle Notre Dame de la Medaille Miraculeuse': 7, '1st Arrondissement': 3, 'Le Trocadero et son esplanade': 2, 'Luxembourg Palace': 7, 'Rue Montorgueil': 6, 'Hôtel de Ville': 13, 'La Madeleine': 2}</t>
+  </si>
+  <si>
+    <t>{'Acrópolis': 1, 'Partenón': 19, 'Plaka': 15, 'Mount Lycabettus': 3, 'Temple of Hephaestus': 14, 'Panathenaic Stadium': 16, 'Ágora': 2, 'Herod Atticus Odeon': 15, 'Erechtheion': 13, 'Anafiotika': 4, 'Philopappos Hill': 11, 'Monastiraki': 4, 'Temple of Athena Nike': 10, 'Temple of Olympian Zeus': 12, 'Tomb of the Unknown Soldier': 11, 'Theater of Dionysus': 16, 'Plateia Syntagmatos': 16, 'Areopagus': 7, 'Stoa of Attalos': 15, 'Church of Kapnikaréa': 13, 'Psirri': 17, 'Parlamento (Vouli)': 18, 'Pnyx': 18, 'Changing of the Guard Ceremony': 11, 'Arch of Hadrian': 18, 'Metropolitan Cathedral of Athens': 7, 'Ermou Street': 17, 'The Academy of Athens': 15, 'George': 10, 'Adrianou Street': 20}</t>
+  </si>
+  <si>
+    <t>{'Kilmainham Gaol': 20, 'Guinness Storehouse': 1, 'The Book of Kells and the Old Library Exhibition': 16, 'Cementerio de Glasnevin': 17, 'Trinity College': 14, 'Temple Bar': 17, '14 Henrietta Street': 13, 'Croke Park Stadium Tour &amp; GAA Museum': 6, "Saint Patrick's Cathedral": 16, 'Christ Church Cathedral': 5, 'Dublinia': 19, 'The Famine Sculptures': 4, 'Grafton Street': 18, 'Dublin Castle': 4, "Michan's Church": 9, 'Molly Malone Statue': 5, 'Merrion Square': 2, "Ha'penny Bridge": 7, 'Croke Park Stadium': 6, 'Shelbourne Park Greyhound Stadium': 6, "Audoen's Church": 9, 'Aviva Stadium': 15, "O'Connell Street": 13, 'Drimnagh Castle': 7, 'Casino Marino': 14, 'Farmleigh House and Estate': 19, 'Samuel Beckett Bridge': 7, 'Monument to Oscar Wilde': 1, 'The Custom House Visitor Centre': 7, 'Cliff Path Loop': 6}</t>
+  </si>
+  <si>
+    <t>{'Coliseo': 9, 'Pantheon': 18, 'Fontana di Trevi': 2, 'Piazza Navona': 10, 'Basilica di Santa Maria Maggiore': 18, 'Foro Romano': 9, 'Trastevere': 13, 'Roman Forum': 12, "Castillo de Sant'Angelo": 9, 'Monumento a Vittorio Emanuele II': 14, 'Villa Borghese': 8, 'Arcibasilica di San Giovanni in Laterano': 16, "Chiesa di Sant'Ignazio di Loyola": 3, 'Centro Storico': 7, 'Scalinata di Trinità Dei Monti': 10, 'Iglesia de San Luis de los Franceses': 19, 'San Pedro Encadenado (San Pietro in Vincoli)': 9, 'Fontana dei Quattro Fiumi': 12, 'Santa Maria in Trastevere': 9, 'Basílica de San Clemente': 11, 'Palazzo Doria Pamphilj': 13, 'Santa Maria della Vittoria': 5, 'Piazza Venezia': 7, 'Domus Aurea': 17, 'Basilica di Santa Maria degli Angeli e dei Martiri': 14, 'Catacombs of Saint Callixtus': 9, 'Terme di Caracalla': 7, 'Piazza del Popolo': 1, 'Welcome To Rome': 11, 'La Domus Romana del Palacio Valentini': 3}</t>
+  </si>
+  <si>
+    <t>{'Vilnius Old Town': 3, '0': 3, 'Iglesia de San Pedro y San Pablo': 7, 'Iglesia de Santa Ana': 19, 'Puerta de la Aurora': 20, 'Uzupis': 17, 'Holy Spirit Orthodox Church': 3, 'Paneriai (Ponar)': 10, 'Vilnius Cathedral': 15, 'Vilnius University (Vilniaus Universitetas)': 18, 'Bernardine Church (Bernardinu Baznycia)': 2, 'Vingis Park': 2, "St John's church": 17, 'Vilnius Cathedral Square': 14, 'Vilnius TV Tower': 3, 'Castle Hill': 3, 'Theresa': 13, 'Bell Tower of Vilnius Cathedral': 1, 'Stebuklas': 7, 'Rasu Cemetery (Rasu kapines)': 18, 'Gediminas Avenue': 15, 'Casimir': 19, 'Monument to Zemach Shabad': 5, 'Uzupis Mermaid': 20, 'Presidential Palace': 4, 'Antakalnis Cemetery': 17, 'Uzupis Angel': 2, 'Artworks on Literatu str': 10, 'Vilnius Choral Synagogue': 15, 'Church of the Holy Spirit (Sventosios Dvasios Baznycia)': 8}</t>
+  </si>
+  <si>
+    <t>{'Old Bazaar, Skopje': 14, 'The Stone Bridge': 18, 'Macedonia Square': 15, 'Millennium Cross': 12, 'Memorial House of Mother Teresa': 13, 'Panteleimon': 3, 'Warrior on a Horse': 3, 'Holy Savior Church': 11, 'Mustafa Pasha Mosque': 17, 'Clement of Ohrid': 9, 'Skopje Art Bridge': 13, 'Daut Pasha Hamam': 8, 'Skopje Fortress Kale': 8, 'Phillip II of Macedon': 7, 'Fountain of the Mothers of Macedonia': 6, 'Skopje Eye Bridge': 1, 'Skopje Aqueduct': 5, 'Kapan Han': 4, 'Sultan Murad Mosque': 9, 'Statue Divers': 3, 'Museum City of Skopje': 11, 'Church of Saint Dimitrija': 20, "Memorial plaque of Mother Teresa's birth house": 14, 'Church of the Ascension of Jesus': 1, 'Stobi': 2, 'Fallen Heroes of Macedonia': 7, 'Porta Macedonia aka Gate Macedonia': 8, 'National Arena Philip II of Macedonia': 5, 'Mosque Iskhak-Bek': 4, 'Clock Tower Saat Kula': 14}</t>
+  </si>
+  <si>
+    <t>{'Victory Memorial and Eternal Flame': 8, 'Catedrala Nasterea Domnului': 13, 'Theodor Tiron Convent': 7, 'Stephen the Great Monument': 5, 'Sculpture of Lovers': 3, 'Triumphal Arch': 14, 'Afghan War Memorial To Sons of Motherland - Eternal Memory': 15, 'Dormition of the Theotokos': 11, 'Pedestrian Street': 12, 'Jewish Cemetery': 12, 'Chisinau Railway Station': 17, 'Orthodox Cathedral of the Transfiguration of the Saviour': 11, 'Sculpture of Skateboarders': 14, 'Monument to the Victims of Jewish Ghetto': 9, 'Nicholas': 17, 'Kishinev Jacobs Jewish Cultural Center': 17, 'Parliament of the Republic of Moldova': 4, 'Chisinau Mosque': 9, 'Metropolitan Cathedral': 19, 'Chisinau City Hall': 4, 'Synagogue Chabad Lubavitch': 17, 'Cathedral of Divine Providence': 5, "Mary's Armenian Apostolic Church": 2, 'Monument to the Heroes-Komsomol': 2, 'Mazarachi Church': 9, 'Monument to the Liberators of Chisinau from the Nazi Troops': 15, 'Monument to Sergey Lazo': 1, 'Memorial to Victims of Stalinist Repression': 14, 'Tekwill Technology Hub': 1, '1 Ban Monument': 1}</t>
+  </si>
+  <si>
+    <t>{'Jordaan': 14, 'Estación Central': 12, 'Barrio Rojo': 10, 'Museo Casa de Rembrandt': 11, 'La Plaza Dam': 16, "A'dam Lookout": 4, 'Museum Quarter': 14, 'Palacio Real': 1, 'Begijnhof': 19, 'Amsterdam Canal Ring': 19, 'Johan Cruyff Arena': 8, 'Sinagoga Portuguesa': 3, 'Las Nueve Calles': 4, 'El Amstel': 14, 'De Duif': 6, 'Rembrandtplein': 10, 'Plaza Leidseplein': 1, 'Ziggo Dome': 19, 'Museum Van Loon': 14, 'Willet-Holthuysen Museum': 20, 'Nicholas Basilica': 9, 'De Poezenboot': 5, 'De Hallen Amsterdam': 8, 'Westerkerk': 1, 'Brouwersgracht': 2, 'Haarlemmerstraat': 20, 'De Krijtberg - Sint Franciscus Xaveriuskerk': 16, 'Nieuwmarkt': 14, 'Museum Het Schip': 20, 'Magere Brug': 1}</t>
+  </si>
+  <si>
+    <t>{'Alfama': 7, 'Mosteiro dos Jerónimos': 8, 'Praca do Comercio (Terreiro do Paco)': 9, 'Barrio Alto': 13, 'Castillo de San Jorge': 7, 'Belem': 16, 'Miradouro da Senhora do Monte': 20, 'Chiado': 7, 'Padrao dos Descobrimentos': 4, 'Arco do Triunfo': 7, 'Igreja de São Roque': 11, '25 de Abril Bridge': 6, 'Estadio do Sport Lisboa e Benfica': 4, 'LX Factory': 19, 'Parque das Nacoes': 12, 'Vasco da Gama Bridge': 15, 'Miradouro da Graca (Sophia de Mello Breyner Andresen)': 10, 'Palacio de Ajuda': 5, 'Panteao Nacional': 9, 'Avenida da Liberdade': 1, 'Miradouro de Santa Luzia': 5, 'Rossio Square': 15, 'Santo Antonio de Lisboa': 13, 'Mosteiro De Sao Vicente De Fora': 12, 'Rua Augusta': 4, 'Santa Maria de Belem Church': 18, 'Vasco da Gama Shopping Center': 8, 'Palácio dos Marqueses de Fronteira': 13, 'Miradouro das Portas do Sol': 3, 'Igreja de Sao Domingos (Santa Justa e Rufina)': 1}</t>
+  </si>
+  <si>
+    <t>{'Staromestske namesti': 20, 'Karlův Most': 14, 'Catedral de San Vito': 17, 'Prague Castle': 18, 'Staroměstská Radnice': 6, 'Lesser Town': 18, 'Hradčany': 15, 'Sinagoga Española': 7, 'Monte Petřín': 4, 'Iglesia de San Nicolás': 7, 'Palacio Lobkowicz': 9, 'Monumento Cultural Nacional Vysehrad': 11, 'Obecní Dům': 4, 'Church of Our Lady before Tyn': 4, 'National Memorial to the Heroes of the Heydrich Terror': 8, 'Franz Kafka Statue': 11, 'Petrin Tower': 20, 'Old Town Bridge Tower': 2, 'Kostel Panny Marie Vítězné a Pražské Jezulátko': 18, 'St Cyril and St Methodius Cathedral': 14, 'Prašná brána': 1, 'Rudolfinum': 2, 'The Vrtba Garden': 5, 'Wenceslas Square (Václavské náměstí)': 17, 'Waldstein Palace': 2, 'Loreta Praha': 15, 'Pinkas Synagogue, Jewish Museum in Prague': 5, 'Dancing House': 5, 'Convent of St Agnes of Bohemia - National Gallery Prague': 8, 'John Lennon Wall': 5}</t>
+  </si>
+  <si>
+    <t>{'Stockholm Old Town': 15, 'Ayuntamiento': 2, 'Djurgarden': 3, 'Palacio Real': 16, 'Monteliusvagen': 17, 'Södermalm': 6, 'Stortorget': 2, 'Catedral de Estocolmo': 9, 'Skogskyrkogården': 9, 'Galería Thiel': 20, 'Strandvagen': 14, 'Parliament Building (Riksdagshuset)': 12, 'Mirador Fjallgatan': 2, 'Ostermalm': 12, 'Riddarholm Church (Riddarholmskyrkan)': 8, 'Iglesia Alemana': 12, 'Globen Skyview': 17, 'Royal Dramatic Theater (Kungliga Dramatiska Teatern)': 10, 'Järnpojken': 20, 'Cirkus Arena': 16, 'Avicii Arena': 4, 'Kulturhuset': 17, 'Norrmalm': 7, 'S:ta Clara kyrka': 3, 'Judiska Församlingen I Stockholm': 12, 'Riddarhuset': 4, 'Tele2 Arena': 6, 'The Stockholm Concert Hall': 18, 'Katarina Hissen': 6, 'Vinterviken': 19}</t>
+  </si>
+  <si>
+    <t>{'Reichstag Building': 13, 'Puerta de Brandeburgo': 5, 'Memorial del Holocausto': 10, 'Memorial del Muro de Berlín': 13, 'East Side Gallery': 4, 'Friedrichstadt-Palast': 17, 'Museum Island': 11, 'Berliner Dom': 14, 'Gendarmenmarkt': 12, 'Fernsehturm de Berlín': 5, 'Filarmónica de Berlín': 12, 'Memorial Berlín Hohenschönhausen': 13, 'Olympiastadion Berlin': 11, 'Kaiser Wilhelm Memorial Church': 4, 'Victory Column (Siegessaule)': 8, 'Charlottenburg Palace': 4, 'Museo Histórico Alemán': 7, 'Potsdamer Platz': 1, 'Alexanderplatz': 2, 'Tempelhof Airport': 20, 'Die Hackeschen Hoefe': 12, 'Estación Central de Berlín': 16, 'Berlín-Mitte': 14, 'Checkpoint Charlie': 17, 'Haus der Wannsee-Konferenz': 13, 'Kurfürstendamm': 13, 'Panoramapunkt': 13, 'Prenzlauer Berg': 13, 'Gleis 17, Grunewald': 2, 'Kreuzberg': 2}</t>
+  </si>
+  <si>
+    <t>{'Gran Plaza': 15, 'Les Galeries Royales Saint-Hubert': 11, 'Atomium': 19, 'Catedral de San Miguel y Santa Gúdula': 19, 'Town Hall (Hôtel de Ville)': 16, 'Parc du Cinquantenaire': 20, 'Guild Houses': 10, 'Notre Dame du Sablon': 2, 'Parlamentarium: Centro de visitas del Parlamento Europeo': 16, 'Manneken Pis': 10, 'Mont des Arts': 7, 'Serres Royales De Laeken': 18, 'Royal Palace (Palais Royal)': 3, 'Alliance Artisans - Atelier': 20, 'Bois de la Cambre': 8, 'National Basilica of the Sacred Heart': 1, 'Place du Grand Sablon': 14, 'Catherine': 17, 'Belgian Comic Strip Center': 9, 'European Parliament Hemicycle (free visits)': 14, 'Gery': 5, 'Tintin Mural Painting': 10, 'Justice Palace (Palais de Justice)': 3, 'Coudenberg Palace': 5, 'Porte de Hal': 4, 'Le Botanique': 6, 'Lower Town': 8, 'La Bourse de Bruxelles': 18, 'Avenue Louise': 16, 'Jeanneke Pis': 1}</t>
+  </si>
+  <si>
+    <t>{'Sarajevo War Tunnel': 17, 'Bascarsija': 2, 'Sarajevo Olympic Bobsleigh and Luge Track': 12, 'Sarajevo City Hall': 7, 'Gazi Husrev-beg Mosque': 3, 'The Yellow Fortress': 18, 'Avaz Twist Tower': 3, 'Katedrala Srca Isusova': 9, 'Sebilj Brunnen (Fountain)': 15, 'Latin Bridge': 1, 'Ferhadija Pedestrian Street': 10, 'Church of the Holy Archangels Michael and Gabriel in Sarajevo': 16, 'Sarajevo Memorial for Children Killed during Siege': 19, 'Eternal Flame': 12, 'Sniper Alley': 9, 'Pijaca Markale': 1, 'Serbian Orthodox Cathedral': 3, 'Alifakovac Cemetery': 3, 'Gazi Husrev Begova Medresa': 4, 'TasliHan': 19, 'Old Sarajevo Clock Tower': 1, 'Ashkenazi Synagogue': 10, 'Romeo and Juliet Bridge': 2, 'Central Post Office': 11, 'Bridge Festina Lente': 11, 'The Academy of Fine Arts': 8, "Goat's Bridge": 7, "Emperor's Mosque": 11, 'Alipasina Mosque': 14, 'Bosniak Institute': 1}</t>
+  </si>
+  <si>
+    <t>{'Tkalčićeva Street': 13, 'Upper Town (Gornji Grad)': 18, 'Iglesia de San Marcos': 20, 'Cementerio Mirogoj': 20, 'Cathedral of the Assumption': 12, 'Ban Josip Jelačić Square': 3, 'Croatian National Theatre in Zagreb': 4, 'Lotrščak Tower': 3, 'Lower Town': 5, 'Funicular Railway': 7, 'King Tomislav Square': 7, 'Puerta de Piedra': 8, 'Ban Josip Jelacic Monument': 5, 'Radićeva': 2, 'Holy Mary Monument': 10, 'Strossmayer Promenade': 5, 'Ilica': 12, 'Tunel Gric': 20, 'The Well of Life': 11, 'Republic of Croatia Square / Trg Republike Hrvatske': 6, 'Zagreb Cathedral': 18, 'Nikola Tesla Statue': 13, 'Medvedgrad Visitor Center': 6, 'Catherine': 15, "Mark's Square": 6, 'Square of Petar Preradovic': 5, 'Zagreb Orthodox Cathedral': 11, 'Saint George Statue': 2, 'King Tomislav Statue': 11, 'Mandusevac Fountain': 7}</t>
+  </si>
+  <si>
+    <t>{'Casco antiguo': 20, 'Castillo Devin': 8, 'Cumil': 6, 'Modry Kostol': 2, 'Bratislava Castle': 2, 'Slavin': 6, 'UFO Observation Deck': 7, 'Plaza Mayor': 9, 'Ayuntamiento Viejo': 17, "Michael's Tower &amp; Street": 13, 'Puerta de San Miguel': 5, "Martin's Cathedral (Dom svateho Martina)": 15, 'Hviezdoslavovo Namestie': 4, 'Schone Naci Statue': 4, 'Slovak Philharmonic': 18, 'Napoleon’s Army Soldier Statue': 13, 'The Grassalkovich palace - Presidential palace': 10, 'New Bridge (Novy Most)': 7, "Primates' Palace (Primacialny palac)": 16, 'Statue of Hans Christian Andersen': 3, 'Kapitulska Street': 13, 'Chatam Sofer Memorial': 15, 'Ondrej Nepela Arena': 18, 'George and the Dragon': 5, 'Maximilian´s Fountain': 17, 'Stary most': 17, 'Building of Slovak Radio': 17, 'Franciscan Church and Monastery': 19, 'The old Slovak National Theater': 10, 'Apollo Bridge': 12}</t>
+  </si>
+  <si>
+    <t>{'Fortaleza de Suomenlinna': 2, 'Temppeliaukion Church': 20, 'Catedral Luterana': 3, 'Catedral Ortodoxa Uspenski': 19, 'Old Market Hall': 20, 'Museo al aire libre de Seurasaari': 9, 'Kamppi Chapel of Silence': 19, 'The Esplanadi Park': 1, 'Plaza del Senado': 15, 'Helsingin Päärautatieasema': 6, 'The National Library of Finland': 15, 'Hakaniemi Market': 16, 'Kauppatori': 4, 'Museo Mannerheim': 2, 'Katajanokka': 5, 'Johannes Church': 8, 'The Aalto House': 15, 'Hakaniemi Market Hall': 17, 'Havis Amanda': 2, 'Toolo Bay (Toolonlahti)': 3, 'Olympic Stadium (Olympiastadion)': 17, 'Sibelius Monument': 19, 'Hietaniemi Cemetery': 7, 'SkyWheel Helsinki': 12, 'Talvipuutarha': 8, 'Kallio Church': 13, 'Hartwall Arena': 6, 'Helsinki University Library': 3, 'University of Helsinki (Helsingin Yliopisto)': 19, 'Design District': 10}</t>
+  </si>
+  <si>
+    <t>{'Parlamento': 5, "Fisherman's Bastion": 10, 'Basílica de San Esteban': 6, 'Zapatos en el Danubio': 5, 'Matthias Church': 13, "Heroes' Square": 6, 'Budai Vár': 16, 'Varhegy': 7, 'Puente de las Cadenas': 7, 'Colina y Estatua Gellért': 13, 'Hungarian State Opera House (Magyar Allami Operahaz)': 11, '3d Gallery Budapest': 10, 'Vajdahunyad Castle (Vajdahunyadvar)': 15, 'Gran Sinagoga': 17, 'Gozsdu Udvar': 19, 'Puente de la Libertad': 12, 'Citadel': 10, 'Music Fountain': 13, 'Vaci Street': 4, 'Andrassy Avenue': 18, 'Museo Nacional Húngaro': 14, 'New York Palace': 6, 'Statue of St Stephen': 13, 'Gresham Palace': 13, 'Plaza Vorosmarty (Vorosmarty ter)': 7, "Anonymus Szobor (Anonymous' Statue)": 12, 'Bagni Széchenyi': 13, 'Kossuth Lajos Square': 3, 'Korzo - Danube Embankment (Dunakorzó)': 8, 'Castle Garden': 15}</t>
+  </si>
+  <si>
+    <t>{'Iglesia de Hallgrímur (Hallgrimskirkja)': 15, 'Perlan': 14, 'Harpa Reykjavik Concert Hall and Conference Centre': 19, 'Sun Voyager': 8, 'Reykjavík 871±2': 18, 'Laugavegur': 16, 'Árbær Open Air Museum': 8, 'Museo Einar Jonsson': 6, 'Videy Island': 18, 'Grotta Lighthouse': 12, 'Reykjavík Art Museum Ásmundarsafn': 9, 'The Statue of Leif Eiriksson': 12, 'Geothermal Area Krysuvik': 8, 'Reykjavik City Hall': 18, 'Cemetery Holavallagardur': 17, 'Domkirkjan': 16, 'Bjarteyjarsandur': 6, 'Hofdi House': 15, 'Imagine Peace Tower': 14, 'Thufa': 20, 'Parliament House (Althingishus)': 5, 'The Nordic House': 9, 'Sculpture and Shore Walk': 12, 'Bárður Snæfellsás': 1, 'Thorsmork': 3, 'Skolavordustigur': 11, 'Arnarholl Statue': 11, 'Christ The King Cathedral': 5, 'Hannesarholt': 19, 'Háteigskirkja Church': 3}</t>
+  </si>
+  <si>
+    <t>{'Old City Riga (Vecriga)': 20, 'Riga Town Hall Square': 3, 'House Of The Black Heads': 20, 'Alberta Iela': 12, "View of Riga from St Peter's Church Tower": 6, 'Freedom Monument': 10, 'Latvian Ethnographic Open Air Museum': 9, 'Jugenda Stila Nami': 12, 'Riga Cathedral': 14, 'Panorama Riga Observation Deck': 15, 'Nativity of Christ Cathedral': 9, 'Vermanes Garden': 14, 'Jauniela': 14, "Peter's Church": 5, 'Cat House': 18, 'Bremen Town Musicians': 8, 'Livu Square': 20, 'Rumbula Forest Memorial': 15, 'Swedish Gate (Zviedru Varti)': 3, 'Arena Riga': 18, "John's Church": 11, 'Riga Radio and TV Tower': 16, 'Bikernieki Memorial': 15, 'The House that was Built in 1903': 6, 'Latvian National Theater': 20, 'Sculpture The Ghost': 9, 'Small Guild of Riga': 5, 'Temple of the Holy Prince Alexander Nevskiy': 7, 'Gertrude Old Church': 11, 'Riga Synagogue': 9}</t>
+  </si>
+  <si>
+    <t>{'Vianden Castle': 18, 'Le Chemin de la Corniche': 19, 'Luxembourg American Cemetery Memorial': 2, 'Cathédrale Notre-Dame': 18, 'Grund': 17, 'Pfaffenthal Lift': 1, 'MNHM National Museum of Military History': 18, 'Casemates du Bock': 19, 'Grand Ducal Palace': 13, 'Wenzel Circular Walk': 2, 'Pont Adolphe': 7, "Place d'Armes": 13, 'Viaduc (Passerelle)': 12, 'Mudam Luxembourg Musée d’Art Moderne': 9, 'Bourscheid Castle': 11, 'Place de la Constitution': 12, 'Abbey of Echternach': 19, '': 3, 'Holy Ghost Citadel': 3, 'Beaufort Castles': 9, 'Rockhal': 1, 'Chateau de Clervaux': 14, 'Abbaye Saint-Maurice de Clervaux': 12, 'Blast Furnace Belval': 16, "Monument du Souvenir - 'Gëlle Fra'": 6, 'Larochette Castle': 2, "Saint Michel's Church": 12, 'Chateau Esch-sur-Sûre': 19, 'Monument National de la Solidarite': 13, 'Hollow Tooth': 3}</t>
+  </si>
+  <si>
+    <t>{'Concatedral de San Juan': 19, 'Lascaris War Rooms': 20, 'Fort St Elmo - National War Museum': 5, 'Casa Rocca Piccola': 20, 'Saluting Battery': 13, 'Valletta Waterfront': 18, 'War HQ Tunnel': 19, 'Three Cities': 16, 'Barrakka Lift': 11, 'Iglesia del Naufragio de San Pablo': 5, 'Strait Street': 17, 'Triton Fountain': 12, "Grandmaster's Palace": 19, 'Valletta City Gate': 11, 'Shrine of Our Lady of Mount Carmel': 7, 'Siege Bell War Memorial': 5, "Paul's Anglican Pro-Cathedral": 4, 'St George Square': 7, "Il-Berga ta' Kastilja": 7, 'Victoria Gate': 15, 'Our Lady of Victories Church': 16, 'The New Parliament': 3, "Francis' Church Valletta": 10, 'Pjazza Teatru Rjal': 10, 'Reliving The Sacra Infermeria': 3, 'Mediterranean Conference Centre': 6, 'St Augustine Church &amp; Priory': 8, 'Catherine of Italy': 16, "Auberge d'Italie": 16, 'Independence Monument': 4}</t>
+  </si>
+  <si>
+    <t>{'Museo del Pueblo Noruego': 17, 'Castillo y Fortaleza de Akershus': 4, 'Ayuntamiento de Oslo': 5, 'El Palacio Real': 20, 'Karl Johans gate': 5, 'Oslomarka': 14, 'Fortaleza de Oscarborg': 5, 'Grünerløkka': 15, 'Drobak': 14, "Oslo's Harbour Promenade": 2, 'The Norwegian Parliament': 8, 'Emanuel Vigeland Museum': 7, 'juli-senteret': 7, 'Oslo Cathedral (Oslo Domkirke)': 3, 'Tjuvholmen Sculpture Park': 12, 'Tiger Sculpture': 18, 'Ostbanehallen': 13, 'Barcode Oslo': 12, 'Waterfall at Molla': 2, 'The Bergen Railway': 5, 'Tjuvholmen Neighbourhood': 12, 'The Viking Planet Oslo': 3, 'Oslo Spektrum': 14, 'Old Aker Church': 16, 'Bogstad Gard': 18, 'She Lies': 3, 'Vulkan Neighbourhood': 12, 'Street Art at Ingens gate': 10, 'Oscarshall': 8, 'Sagene Church': 8}</t>
+  </si>
+  <si>
+    <t>{'Old Town': 5, 'Rynek Starego Miasta': 19, 'Castle Square (Plac Zamkowy)': 17, 'Palace of Culture and Science': 5, 'Zamek Królewski w Warszawie - Muzeum': 20, 'Nowy Swiat': 12, 'Krakowskie Przedmiescie': 14, 'Monument to the Warsaw Uprising Fighters': 12, 'Palace on the Island': 16, 'Chopin Monument': 11, 'Pomnik Bohaterów Getta': 5, 'Hala Koszyki': 4, 'Grób Nieznanego Żołnierza': 12, 'Viewing Terrace': 7, 'PGE National Stadium': 10, "Anne's Church (Kosciol Swietej Anny)": 17, 'Warsaw Barbican (Barbakan Warszawski)': 7, 'Jewish Cemetery (Cmentarz Zydowski)': 15, 'Statue of the Little Insurgent': 1, 'Cmentarz Wojskowy na Powazkach': 17, 'Multimedia Fountain Park': 18, 'Warsaw Mermaid': 20, 'Holy Cross Church (Kosciol Swietego Krzyza)': 3, 'Warsaw Ghetto': 1, 'Legia Warsaw Municipal Stadium of Marshal Jozef Pilsudski': 8, 'Fragment of Ghetto Wall': 2, "King Sigismund's Column (Kolumna Zygmunta)": 10, 'John the Baptist': 2, 'University of Warsaw (Uniwersytet Warszawski)': 20, 'Fabryka Norblina': 1}</t>
+  </si>
+  <si>
+    <t>{'Iglesia Stavropoleos': 9, 'Muzeul Naţional al Satului "Dimitrie Gusti"': 3, 'Palace of Parliament': 18, 'Ateneo Romano': 3, 'Old Town': 17, 'Lipscani': 11, 'Piața Unirii': 1, "Manuc's Inn (Hanul lui Manuc)": 15, 'Catedrala Patriarhală': 2, 'Carol Park': 16, 'Calea Victoriei': 9, 'Piața Revoluției': 1, 'Triumph Arch (Arcul de Triumf)': 9, 'Palatul CEC': 11, 'National Theatre Ion Luca Caragiale (Teatrul Național Ion Luca Caragiale)': 18, 'Biserica Sfântul Gheorghe Nou': 19, 'Biserica Sfântul Anton - Curtea Veche': 3, 'Muzeul Colecțiilor de Artă': 1, 'National Arena Stadium Bucharest': 4, 'Nicolae': 4, 'Cercul Militar Național (CCA)': 11, 'The Choral Temple': 16, 'Bellu Cemetery (Cimitirul Șerban Vodă-Bellu)': 6, 'Bucharest Municipal Museum': 15, 'Biserica Kretzulescu': 5, 'Mănăstirea Antim': 8, 'Colțea Hospital (Spitalul Colțea)': 13, 'Great Synagogue': 6, 'Macca Villacrosse Passage': 12, 'Radu Vodă Monastery (Mănăstirea Radu Vodă)': 19}</t>
+  </si>
+  <si>
+    <t>{'The Belgrade Fortress': 6, 'Knez Mihailova': 15, 'Sava Temple': 12, 'Skadarlija': 5, 'Kalemegdan Park and Belgrade Fortress': 12, "Saint Petka's Chapel": 12, 'The Millenary Monument': 7, 'Church of the Holy Mother of God': 9, 'Zemunski kej': 6, 'Crkva Svetog Marka': 10, 'The National Assembly': 3, 'Avala Tower': 2, 'Residence of Princess Ljubica (Konak Kneginje Ljubice': 14, "Michael's Cathedral": 10, 'Red Star Belgrade Stadium - Marakana': 19, 'Trg Republike': 10, 'Sava Bridge': 12, 'Dorcol': 15, 'Public Aquarium and Tropicarium Belgrade': 10, 'Kombank Arena': 7, 'Royal Palace': 11, 'Crkva Svetog Oca Nikolaja': 6, 'Nebojsa Tower': 4, 'Bayraklee mosque (Bajrakli džamija)': 10, 'Patriarchate of the Serbian Orthodox Church': 10, 'Partizan Stadium': 3, 'Terazije Fountain': 18, 'White Palace': 10, 'Tresije': 12, 'Grocka': 8}</t>
   </si>
   <si>
     <t>['Skanderbeg Square', 'Et`hem Bey Mosque', 'Orthodox Autocephalous Church of Albania', 'Skanderbeg Statue', 'Clock Tower', 'Rruga Murat Toptani', "Tanners' Bridge", 'Peace Bell', 'Kapllan Pasha’s Tomb', 'Saint Paul Cathedral', 'Enver Hoxha Pyramid', 'Marie', 'Great mosque of Tirana', 'Unknown Partisan Monument', 'Fortress of Justinian', 'Postbllok - Checkpoint Monument', 'Bektashi World Centre', 'TID Tower', 'Reja "The Cloud"', 'Blloku', 'Polytechnic University of Tirana', 'Qemal Stafa Stadium', 'Friendship Monument', 'Independence Monument', 'Fan Noli statue', 'Mosaic of Tirana', 'Baitul Awwal Mosque', 'Xhura Mosque', 'Pomnik Fryderyka Chopina', 'Selman Stermasi Stadium']</t>
@@ -1018,7 +1018,7 @@
     <t>['Reichstag Building', 'Puerta de Brandeburgo', 'Memorial del Holocausto', 'Memorial del Muro de Berlín', 'East Side Gallery', 'Friedrichstadt-Palast', 'Museum Island', 'Berliner Dom', 'Gendarmenmarkt', 'Fernsehturm de Berlín', 'Filarmónica de Berlín', 'Memorial Berlín Hohenschönhausen', 'Olympiastadion Berlin', 'Kaiser Wilhelm Memorial Church', 'Victory Column (Siegessaule)', 'Charlottenburg Palace', 'Museo Histórico Alemán', 'Potsdamer Platz', 'Alexanderplatz', 'Tempelhof Airport', 'Die Hackeschen Hoefe', 'Estación Central de Berlín', 'Berlín-Mitte', 'Checkpoint Charlie', 'Haus der Wannsee-Konferenz', 'Kurfürstendamm', 'Panoramapunkt', 'Prenzlauer Berg', 'Gleis 17, Grunewald', 'Kreuzberg']</t>
   </si>
   <si>
-    <t>['Gran Plaza', 'Les Galeries Royales Saint-Hubert', 'Atomium', 'Catedral de San Miguel y Santa Gúdula', 'Town Hall (Hôtel de Ville)', 'Parc du Cinquantenaire', 'Guild Houses', 'Notre Dame du Sablon', 'Parlamentarium: Centro de visitas del Parlamento Europeo', 'Manneken Pis', 'Mont des Arts', 'Serres Royales De Laeken', 'Royal Palace (Palais Royal)', 'Bois de la Cambre', 'National Basilica of the Sacred Heart', 'Place du Grand Sablon', 'Catherine', 'Belgian Comic Strip Center', 'European Parliament Hemicycle (free visits)', 'Gery', 'Tintin Mural Painting', 'Justice Palace (Palais de Justice)', 'Coudenberg Palace', 'Porte de Hal', 'Le Botanique', 'Lower Town', 'La Bourse de Bruxelles', 'Avenue Louise', 'Jeanneke Pis', 'Place Royale']</t>
+    <t>['Gran Plaza', 'Les Galeries Royales Saint-Hubert', 'Atomium', 'Catedral de San Miguel y Santa Gúdula', 'Town Hall (Hôtel de Ville)', 'Parc du Cinquantenaire', 'Guild Houses', 'Notre Dame du Sablon', 'Parlamentarium: Centro de visitas del Parlamento Europeo', 'Manneken Pis', 'Mont des Arts', 'Serres Royales De Laeken', 'Royal Palace (Palais Royal)', 'Alliance Artisans - Atelier', 'Bois de la Cambre', 'National Basilica of the Sacred Heart', 'Place du Grand Sablon', 'Catherine', 'Belgian Comic Strip Center', 'European Parliament Hemicycle (free visits)', 'Gery', 'Tintin Mural Painting', 'Justice Palace (Palais de Justice)', 'Coudenberg Palace', 'Porte de Hal', 'Le Botanique', 'Lower Town', 'La Bourse de Bruxelles', 'Avenue Louise', 'Jeanneke Pis']</t>
   </si>
   <si>
     <t>['Sarajevo War Tunnel', 'Bascarsija', 'Sarajevo Olympic Bobsleigh and Luge Track', 'Sarajevo City Hall', 'Gazi Husrev-beg Mosque', 'The Yellow Fortress', 'Avaz Twist Tower', 'Katedrala Srca Isusova', 'Sebilj Brunnen (Fountain)', 'Latin Bridge', 'Ferhadija Pedestrian Street', 'Church of the Holy Archangels Michael and Gabriel in Sarajevo', 'Sarajevo Memorial for Children Killed during Siege', 'Eternal Flame', 'Sniper Alley', 'Pijaca Markale', 'Serbian Orthodox Cathedral', 'Alifakovac Cemetery', 'Gazi Husrev Begova Medresa', 'TasliHan', 'Old Sarajevo Clock Tower', 'Ashkenazi Synagogue', 'Romeo and Juliet Bridge', 'Central Post Office', 'Bridge Festina Lente', 'The Academy of Fine Arts', "Goat's Bridge", "Emperor's Mosque", 'Alipasina Mosque', 'Bosniak Institute']</t>
